--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="343">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -89,793 +89,811 @@
     <t>Barandilla cama proteccion 180cm Gris</t>
   </si>
   <si>
+    <t>BY-BHC01G</t>
+  </si>
+  <si>
+    <t>Trona Gris</t>
+  </si>
+  <si>
+    <t>BY-BHC007K</t>
+  </si>
+  <si>
+    <t>Trona Caqui</t>
+  </si>
+  <si>
+    <t>BY-BHC007W</t>
+  </si>
+  <si>
+    <t>Trona Blanca</t>
+  </si>
+  <si>
+    <t>BY-BR01G</t>
+  </si>
+  <si>
+    <t>Asientos Malla Gris</t>
+  </si>
+  <si>
+    <t>BY-BR01P</t>
+  </si>
+  <si>
+    <t>Asientos Malla Rosa</t>
+  </si>
+  <si>
+    <t>BY-BTT01G</t>
+  </si>
+  <si>
+    <t>Bañera con cambiador Gris</t>
+  </si>
+  <si>
+    <t>BY-BTT01P</t>
+  </si>
+  <si>
+    <t>Bañera con cambiador Rosa</t>
+  </si>
+  <si>
+    <t>BY-BTM01G</t>
+  </si>
+  <si>
+    <t>Bañera con soporte Gris</t>
+  </si>
+  <si>
+    <t>BY-WC03E</t>
+  </si>
+  <si>
+    <t>Escaleras</t>
+  </si>
+  <si>
+    <t>BY-DOR01W</t>
+  </si>
+  <si>
+    <t>Valla protectora Blanca</t>
+  </si>
+  <si>
+    <t>BY-DOR07W</t>
+  </si>
+  <si>
+    <t>Extension valla 7cm Blanca</t>
+  </si>
+  <si>
+    <t>BY-DOR10W</t>
+  </si>
+  <si>
+    <t>Extension valla 10cm Blanca</t>
+  </si>
+  <si>
+    <t>BY-DOR20W</t>
+  </si>
+  <si>
+    <t>Extension valla 20cm Blanca</t>
+  </si>
+  <si>
+    <t>BY-DOR30W</t>
+  </si>
+  <si>
+    <t>Extension valla 30cm Blanca</t>
+  </si>
+  <si>
+    <t>BY-DOR45W</t>
+  </si>
+  <si>
+    <t>Extension valla 45cm Blanca</t>
+  </si>
+  <si>
+    <t>BY-DOR80W</t>
+  </si>
+  <si>
+    <t>Extension valla 80cm Blanca</t>
+  </si>
+  <si>
+    <t>BY-FBT01B</t>
+  </si>
+  <si>
+    <t>Bañera plegable para bebé Azul</t>
+  </si>
+  <si>
+    <t>BY-FBT01G</t>
+  </si>
+  <si>
+    <t>Bañera plegable para bebé Gris</t>
+  </si>
+  <si>
+    <t>BY-FBT01P</t>
+  </si>
+  <si>
+    <t>Bañera plegable para bebé Rosa</t>
+  </si>
+  <si>
+    <t>BY-FBT02G</t>
+  </si>
+  <si>
+    <t>Bañera plegable con Oso Gris</t>
+  </si>
+  <si>
+    <t>BY-FBT02V</t>
+  </si>
+  <si>
+    <t>Bañera plegable con Oso Verde</t>
+  </si>
+  <si>
+    <t>BY-FBT03B</t>
+  </si>
+  <si>
+    <t>Bañera plegable con Dinosaurio Azul</t>
+  </si>
+  <si>
+    <t>BY-FBT03G</t>
+  </si>
+  <si>
+    <t>Bañera plegable con Dinosaurio Gris</t>
+  </si>
+  <si>
+    <t>BY-FBT03P</t>
+  </si>
+  <si>
+    <t>Bañera plegable con Dinosaurio Rosa</t>
+  </si>
+  <si>
+    <t>BY-FBT04G</t>
+  </si>
+  <si>
+    <t>Bañera plegable con Rana Gris</t>
+  </si>
+  <si>
+    <t>BY-FBT04P</t>
+  </si>
+  <si>
+    <t>Bañera plegable con Rana Rosa</t>
+  </si>
+  <si>
+    <t>BY-FBT04V</t>
+  </si>
+  <si>
+    <t>Bañera plegable con Rana Verde</t>
+  </si>
+  <si>
+    <t>BY-FBT05B</t>
+  </si>
+  <si>
+    <t>Bañera plegable Simple Azul</t>
+  </si>
+  <si>
+    <t>BY-FBT05G</t>
+  </si>
+  <si>
+    <t>Bañera plegable Simple Gris</t>
+  </si>
+  <si>
+    <t>BY-FBT05P</t>
+  </si>
+  <si>
+    <t>Bañera plegable Simple Rosa</t>
+  </si>
+  <si>
+    <t>BY-FBT05V</t>
+  </si>
+  <si>
+    <t>Bañera plegable Simple Verde</t>
+  </si>
+  <si>
+    <t>BY-FM01</t>
+  </si>
+  <si>
+    <t>Alfombra Marrón/Animales</t>
+  </si>
+  <si>
+    <t>BY-FM02</t>
+  </si>
+  <si>
+    <t>Alfombra Animales/Invierno</t>
+  </si>
+  <si>
+    <t>BY-FM03</t>
+  </si>
+  <si>
+    <t>Alfombra Bosque/Pandas</t>
+  </si>
+  <si>
+    <t>BY-NT01B</t>
+  </si>
+  <si>
+    <t>Kit de uñas Azul</t>
+  </si>
+  <si>
+    <t>BY-NT01P</t>
+  </si>
+  <si>
+    <t>Kit de uñas Rosa</t>
+  </si>
+  <si>
+    <t>BY-PSL01G</t>
+  </si>
+  <si>
+    <t>Cambiador estático</t>
+  </si>
+  <si>
+    <t>BY-WC01P</t>
+  </si>
+  <si>
+    <t>Orinal portátil</t>
+  </si>
+  <si>
+    <t>BY-WC02B</t>
+  </si>
+  <si>
+    <t>Orinal de plástico azul</t>
+  </si>
+  <si>
+    <t>BY-RBC01</t>
+  </si>
+  <si>
+    <t>Copa de baño para enjuagar al Bebé</t>
+  </si>
+  <si>
+    <t>BY-SBW01B</t>
+  </si>
+  <si>
+    <t>Toalla Azul</t>
+  </si>
+  <si>
+    <t>BY-SBW01BW</t>
+  </si>
+  <si>
+    <t>Toalla Marrón</t>
+  </si>
+  <si>
+    <t>BY-SBW01G</t>
+  </si>
+  <si>
+    <t>Toalla Gris</t>
+  </si>
+  <si>
+    <t>BY-SBW01P</t>
+  </si>
+  <si>
+    <t>Toalla Rosa</t>
+  </si>
+  <si>
+    <t>BY-SBW01V</t>
+  </si>
+  <si>
+    <t>Toalla Verde</t>
+  </si>
+  <si>
+    <t>BY-SBW01W</t>
+  </si>
+  <si>
+    <t>Toalla Blanca</t>
+  </si>
+  <si>
+    <t>BY-SUP01</t>
+  </si>
+  <si>
+    <t>Soporte plegable bañera estructura de hierro</t>
+  </si>
+  <si>
+    <t>BY-WC04G</t>
+  </si>
+  <si>
+    <t>WC mini</t>
+  </si>
+  <si>
+    <t>BY-WDC01G</t>
+  </si>
+  <si>
+    <t>Cambiador portátil</t>
+  </si>
+  <si>
+    <t>HG-AD12</t>
+  </si>
+  <si>
+    <t>Mancuerna ajustable 12KG</t>
+  </si>
+  <si>
+    <t>HG-AD20</t>
+  </si>
+  <si>
+    <t>Mancuerna ajustable 20KG</t>
+  </si>
+  <si>
+    <t>HG-AD24</t>
+  </si>
+  <si>
+    <t>Mancuerna ajustable 24KG</t>
+  </si>
+  <si>
+    <t>HG-AD32</t>
+  </si>
+  <si>
+    <t>Mancuerna ajustable 32KG</t>
+  </si>
+  <si>
+    <t>HG-AD40</t>
+  </si>
+  <si>
+    <t>Mancuerna ajustable 40KG</t>
+  </si>
+  <si>
+    <t>HG-AK18</t>
+  </si>
+  <si>
+    <t>Pesa rusa kettlebell ajustable 18KG</t>
+  </si>
+  <si>
+    <t>HG-B58B</t>
+  </si>
+  <si>
+    <t>Bosu (plataforma de equilibrio) 58cm Azul</t>
+  </si>
+  <si>
+    <t>HG-B58G</t>
+  </si>
+  <si>
+    <t>Bosu (plataforma de equilibrio) 58cm Gris</t>
+  </si>
+  <si>
+    <t>HG-BPB02</t>
+  </si>
+  <si>
+    <t>Juego body pump 30mm 2 x1'25kg+2x2'5kg+2x5kg</t>
+  </si>
+  <si>
+    <t>HG-CB713</t>
+  </si>
+  <si>
+    <t>Barra de dominadas extensible 62-100cm</t>
+  </si>
+  <si>
+    <t>HG-CD020</t>
+  </si>
+  <si>
+    <t>Mancuerna hexagonal caucho 2KG</t>
+  </si>
+  <si>
+    <t>HG-CD040</t>
+  </si>
+  <si>
+    <t>Mancuerna hexagonal caucho 4KG</t>
+  </si>
+  <si>
+    <t>HG-CD060</t>
+  </si>
+  <si>
+    <t>Mancuerna hexagonal caucho 6KG</t>
+  </si>
+  <si>
+    <t>HG-CD080</t>
+  </si>
+  <si>
+    <t>Mancuerna hexagonal caucho 8KG</t>
+  </si>
+  <si>
+    <t>HG-CD100</t>
+  </si>
+  <si>
+    <t>Mancuerna hexagonal caucho 10KG</t>
+  </si>
+  <si>
+    <t>HG-CD125</t>
+  </si>
+  <si>
+    <t>Mancuerna hexagonal caucho 12.5KG</t>
+  </si>
+  <si>
+    <t>HG-CD150</t>
+  </si>
+  <si>
+    <t>Mancuerna hexagonal caucho 15KG</t>
+  </si>
+  <si>
+    <t>HG-CD175</t>
+  </si>
+  <si>
+    <t>Mancuerna hexagonal caucho 17.5KG</t>
+  </si>
+  <si>
+    <t>HG-CD200</t>
+  </si>
+  <si>
+    <t>Mancuerna hexagonal caucho 20KG</t>
+  </si>
+  <si>
+    <t>HG-CD225</t>
+  </si>
+  <si>
+    <t>Mancuerna hexagonal caucho 22.5KG</t>
+  </si>
+  <si>
+    <t>HG-CD250</t>
+  </si>
+  <si>
+    <t>Mancuerna hexagonal caucho 25KG</t>
+  </si>
+  <si>
+    <t>HG-CD275</t>
+  </si>
+  <si>
+    <t>Mancuerna hexagonal caucho 27.5KG</t>
+  </si>
+  <si>
+    <t>HG-CD300</t>
+  </si>
+  <si>
+    <t>Mancuerna hexagonal caucho 30KG</t>
+  </si>
+  <si>
+    <t>HG-DBP1</t>
+  </si>
+  <si>
+    <t>Disco body pump 1.25KG Amarillo</t>
+  </si>
+  <si>
+    <t>HG-DBP2</t>
+  </si>
+  <si>
+    <t>Disco body pump 2.50KG Verde</t>
+  </si>
+  <si>
+    <t>HG-DBP5</t>
+  </si>
+  <si>
+    <t>Disco body pump 5KG Naranja</t>
+  </si>
+  <si>
+    <t>HG-FB65A</t>
+  </si>
+  <si>
+    <t>Pelota de fitness 65cm Azul con hinchador</t>
+  </si>
+  <si>
+    <t>HG-FFS30M</t>
+  </si>
+  <si>
+    <t>Set de gomas elásticas</t>
+  </si>
+  <si>
+    <t>HG-JR179</t>
+  </si>
+  <si>
+    <t>Cuerda de saltar 3m con mango de plástico</t>
+  </si>
+  <si>
+    <t>HG-JR180</t>
+  </si>
+  <si>
+    <t>Cuerda de saltar 3m con mango de aluminio</t>
+  </si>
+  <si>
+    <t>HG-JWES15</t>
+  </si>
+  <si>
+    <t>Set de 3 bandas elásticas 150x15cm 0.35+0.5+0.65mm</t>
+  </si>
+  <si>
+    <t>HG-PB16B</t>
+  </si>
+  <si>
+    <t>Saco de boxeo inflable 160x65cm Negro</t>
+  </si>
+  <si>
+    <t>HG-PB16Y</t>
+  </si>
+  <si>
+    <t>Saco de boxeo inflable 160x65cm Amarillo</t>
+  </si>
+  <si>
+    <t>HG-PK04</t>
+  </si>
+  <si>
+    <t>Pesa rusa kettlebell 4KG PVC Verde</t>
+  </si>
+  <si>
+    <t>HG-PK08</t>
+  </si>
+  <si>
+    <t>Pesa rusa kettlebell 8KG PVC Amarilla</t>
+  </si>
+  <si>
+    <t>HG-PK12</t>
+  </si>
+  <si>
+    <t>Pesa rusa kettlebell 12KG PVC Azul</t>
+  </si>
+  <si>
+    <t>HG-PK16</t>
+  </si>
+  <si>
+    <t>Pesa rusa kettlebell 16KG PVC Roja</t>
+  </si>
+  <si>
+    <t>HG-PK20</t>
+  </si>
+  <si>
+    <t>Pesa rusa kettlebell 20KG PVC Gris</t>
+  </si>
+  <si>
+    <t>HG-SB25</t>
+  </si>
+  <si>
+    <t>Saco búlgaro de arena 25KG</t>
+  </si>
+  <si>
+    <t>HG-STSB</t>
+  </si>
+  <si>
+    <t>Correa de entrenamiento en suspensión Azul</t>
+  </si>
+  <si>
+    <t>HG-STSG</t>
+  </si>
+  <si>
+    <t>Correa de entrenamiento en suspensión Verde</t>
+  </si>
+  <si>
+    <t>HG-STSR</t>
+  </si>
+  <si>
+    <t>Correa de entrenamiento en suspensión Roja</t>
+  </si>
+  <si>
+    <t>HG-STSY</t>
+  </si>
+  <si>
+    <t>Correa de entrenamiento en suspensión Amarilla</t>
+  </si>
+  <si>
+    <t>HG-TK05B</t>
+  </si>
+  <si>
+    <t>Cuerdas elásticas resistencias alternativas</t>
+  </si>
+  <si>
+    <t>HG-TP01B</t>
+  </si>
+  <si>
+    <t>Cama elástica 140cm Azul</t>
+  </si>
+  <si>
+    <t>HG-TP01G</t>
+  </si>
+  <si>
+    <t>Cama elástica 140cm Verde</t>
+  </si>
+  <si>
+    <t>HG-TP01P</t>
+  </si>
+  <si>
+    <t>Cama elástica 140cm Rosa</t>
+  </si>
+  <si>
+    <t>HG-W805</t>
+  </si>
+  <si>
+    <t>Tobilleras 2x0.5KG</t>
+  </si>
+  <si>
+    <t>HG-W810</t>
+  </si>
+  <si>
+    <t>Tobilleras 2x1KG</t>
+  </si>
+  <si>
+    <t>HG-W815</t>
+  </si>
+  <si>
+    <t>Tobilleras 2x1.5KG</t>
+  </si>
+  <si>
+    <t>HG-YMN10A</t>
+  </si>
+  <si>
+    <t>Esterilla de yoga NBR 183x60cm Azul</t>
+  </si>
+  <si>
+    <t>HG-YMN10B</t>
+  </si>
+  <si>
+    <t>Esterilla de yoga NBR 183x60cm Negra</t>
+  </si>
+  <si>
+    <t>HG-YMN10P</t>
+  </si>
+  <si>
+    <t>Esterilla de yoga NBR 183x60cm Violeta</t>
+  </si>
+  <si>
+    <t>JW-AT20G1</t>
+  </si>
+  <si>
+    <t>Air Track 200*100*10 Azul</t>
+  </si>
+  <si>
+    <t>JW-AT20G2</t>
+  </si>
+  <si>
+    <t>Air Track 200*100*20 Azul</t>
+  </si>
+  <si>
+    <t>JW-AT30G1</t>
+  </si>
+  <si>
+    <t>Air Track 300*100*10 Azul</t>
+  </si>
+  <si>
+    <t>JW-AT30G2</t>
+  </si>
+  <si>
+    <t>Air Track 300*100*20 Azul</t>
+  </si>
+  <si>
+    <t>JW-AT40G1</t>
+  </si>
+  <si>
+    <t>Air Track 400*100*10 Azul</t>
+  </si>
+  <si>
+    <t>JW-AT40G2</t>
+  </si>
+  <si>
+    <t>Air Track 400*100*20 Azul</t>
+  </si>
+  <si>
+    <t>JW-AT50G2</t>
+  </si>
+  <si>
+    <t>Air Track 500*100*20 Azul</t>
+  </si>
+  <si>
+    <t>JW-DF20</t>
+  </si>
+  <si>
+    <t>Tatami puzzle 1x1m 2cm 5 líneas Azul/Rojo</t>
+  </si>
+  <si>
+    <t>JW-DF25</t>
+  </si>
+  <si>
+    <t>Tatami puzzle 1x1m 2.5cm 5 líneas Azul/Rojo</t>
+  </si>
+  <si>
+    <t>JW-DF30</t>
+  </si>
+  <si>
+    <t>Tatami puzzle 1x1m 3cm 5 líneas Azul/Rojo</t>
+  </si>
+  <si>
+    <t>JW-DF40</t>
+  </si>
+  <si>
+    <t>Tatami puzzle 1x1m 4cm 5 líneas Azul/Rojo</t>
+  </si>
+  <si>
+    <t>JW-DS25</t>
+  </si>
+  <si>
+    <t>Tatami puzzle 1x1m 2.5cm alta densidad Azul/Rojo</t>
+  </si>
+  <si>
+    <t>JW-DT20</t>
+  </si>
+  <si>
+    <t>Tatami puzzle 1x1m 2cm superficie T Azul/Rojo</t>
+  </si>
+  <si>
+    <t>JW-DT25</t>
+  </si>
+  <si>
+    <t>Tatami puzzle 1x1m 2.5cm superficie T Azul/Rojo</t>
+  </si>
+  <si>
+    <t>JW-DT40</t>
+  </si>
+  <si>
+    <t>Tatami puzzle 1x1m 4cm superficie T Azul/Rojo</t>
+  </si>
+  <si>
+    <t>JW-RT15A</t>
+  </si>
+  <si>
+    <t>Loseta de caucho 50x50cm 1.5cm Negra</t>
+  </si>
+  <si>
+    <t>JW-RT15LA</t>
+  </si>
+  <si>
+    <t>Loseta de caucho 1X1m 1.5cm Negra</t>
+  </si>
+  <si>
+    <t>JW-RT20A</t>
+  </si>
+  <si>
+    <t>Loseta de caucho 50x50cm 2cm Negra</t>
+  </si>
+  <si>
+    <t>JW-RT25A</t>
+  </si>
+  <si>
+    <t>Loseta de caucho 50x50cm 2.5cm Negra</t>
+  </si>
+  <si>
+    <t>JW-RT25LA</t>
+  </si>
+  <si>
+    <t>Loseta de caucho 1x1m 2.5cm Negra</t>
+  </si>
+  <si>
+    <t>JW-RT40A</t>
+  </si>
+  <si>
+    <t>Loseta de caucho 50x50cm 4cm Negra</t>
+  </si>
+  <si>
+    <t>JW-T60</t>
+  </si>
+  <si>
+    <t>Tatami puzzle 60x60cm 1cm Azul</t>
+  </si>
+  <si>
+    <t>PT-PT004</t>
+  </si>
+  <si>
+    <t>PET AIR-CON HOUSE</t>
+  </si>
+  <si>
+    <t>ESPAÑA</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>MÍNIMO</t>
+  </si>
+  <si>
+    <t>MÁXIMO</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
     <t>BY-BHC007H</t>
   </si>
   <si>
-    <t>Trona Gris</t>
-  </si>
-  <si>
-    <t>BY-BHC007K</t>
-  </si>
-  <si>
-    <t>Trona Caqui</t>
-  </si>
-  <si>
-    <t>BY-BHC007W</t>
-  </si>
-  <si>
-    <t>Trona Blanca</t>
-  </si>
-  <si>
-    <t>BY-BR01G</t>
-  </si>
-  <si>
-    <t>Asientos Malla Gris</t>
-  </si>
-  <si>
-    <t>BY-BR01P</t>
-  </si>
-  <si>
-    <t>Asientos Malla Rosa</t>
-  </si>
-  <si>
-    <t>BY-BTT01G</t>
-  </si>
-  <si>
-    <t>Bañera con cambiador Gris</t>
-  </si>
-  <si>
-    <t>BY-BTT01P</t>
-  </si>
-  <si>
-    <t>Bañera con cambiador Rosa</t>
-  </si>
-  <si>
     <t>BY-BTT02G</t>
   </si>
   <si>
-    <t>Bañera con soporte Gris</t>
-  </si>
-  <si>
     <t>BY-CM01G</t>
   </si>
   <si>
-    <t>Escaleras</t>
-  </si>
-  <si>
-    <t>BY-DOR01W</t>
-  </si>
-  <si>
-    <t>Valla protectora Blanca</t>
-  </si>
-  <si>
-    <t>BY-DOR07W</t>
-  </si>
-  <si>
-    <t>Extension valla 7cm Blanca</t>
-  </si>
-  <si>
-    <t>BY-DOR10W</t>
-  </si>
-  <si>
-    <t>Extension valla 10cm Blanca</t>
-  </si>
-  <si>
-    <t>BY-DOR20W</t>
-  </si>
-  <si>
-    <t>Extension valla 20cm Blanca</t>
-  </si>
-  <si>
-    <t>BY-DOR30W</t>
-  </si>
-  <si>
-    <t>Extension valla 30cm Blanca</t>
-  </si>
-  <si>
-    <t>BY-DOR45W</t>
-  </si>
-  <si>
-    <t>Extension valla 45cm Blanca</t>
-  </si>
-  <si>
-    <t>BY-DOR80W</t>
-  </si>
-  <si>
-    <t>Extension valla 80cm Blanca</t>
-  </si>
-  <si>
-    <t>BY-FBT01B</t>
-  </si>
-  <si>
-    <t>Bañera plegable para bebé Azul</t>
-  </si>
-  <si>
-    <t>BY-FBT01G</t>
-  </si>
-  <si>
-    <t>Bañera plegable para bebé Gris</t>
-  </si>
-  <si>
-    <t>BY-FBT01P</t>
-  </si>
-  <si>
-    <t>Bañera plegable para bebé Rosa</t>
-  </si>
-  <si>
-    <t>BY-FBT02G</t>
-  </si>
-  <si>
-    <t>Bañera plegable con Oso Gris</t>
-  </si>
-  <si>
-    <t>BY-FBT02V</t>
-  </si>
-  <si>
-    <t>Bañera plegable con Oso Verde</t>
-  </si>
-  <si>
-    <t>BY-FBT03B</t>
-  </si>
-  <si>
-    <t>Bañera plegable con Dinosaurio Azul</t>
-  </si>
-  <si>
-    <t>BY-FBT03G</t>
-  </si>
-  <si>
-    <t>Bañera plegable con Dinosaurio Gris</t>
-  </si>
-  <si>
-    <t>BY-FBT03P</t>
-  </si>
-  <si>
-    <t>Bañera plegable con Dinosaurio Rosa</t>
-  </si>
-  <si>
-    <t>BY-FBT04G</t>
-  </si>
-  <si>
-    <t>Bañera plegable con Rana Gris</t>
-  </si>
-  <si>
-    <t>BY-FBT04P</t>
-  </si>
-  <si>
-    <t>Bañera plegable con Rana Rosa</t>
-  </si>
-  <si>
-    <t>BY-FBT04V</t>
-  </si>
-  <si>
-    <t>Bañera plegable con Rana Verde</t>
-  </si>
-  <si>
-    <t>BY-FBT05B</t>
-  </si>
-  <si>
-    <t>Bañera plegable Simple Azul</t>
-  </si>
-  <si>
-    <t>BY-FBT05G</t>
-  </si>
-  <si>
-    <t>Bañera plegable Simple Gris</t>
-  </si>
-  <si>
-    <t>BY-FBT05P</t>
-  </si>
-  <si>
-    <t>Bañera plegable Simple Rosa</t>
-  </si>
-  <si>
-    <t>BY-FBT05V</t>
-  </si>
-  <si>
-    <t>Bañera plegable Simple Verde</t>
-  </si>
-  <si>
-    <t>BY-FM01</t>
-  </si>
-  <si>
-    <t>Alfombra Marrón/Animales</t>
-  </si>
-  <si>
-    <t>BY-FM02</t>
-  </si>
-  <si>
-    <t>Alfombra Animales/Invierno</t>
-  </si>
-  <si>
-    <t>BY-FM03</t>
-  </si>
-  <si>
-    <t>Alfombra Bosque/Pandas</t>
-  </si>
-  <si>
-    <t>BY-NT01B</t>
-  </si>
-  <si>
-    <t>Kit de uñas Azul</t>
-  </si>
-  <si>
-    <t>BY-NT01P</t>
-  </si>
-  <si>
-    <t>Kit de uñas Rosa</t>
-  </si>
-  <si>
-    <t>BY-PSL01G</t>
-  </si>
-  <si>
-    <t>Cambiador estático</t>
+    <t>BY-CP01</t>
+  </si>
+  <si>
+    <t>Colores</t>
+  </si>
+  <si>
+    <t>BY-FT01B</t>
+  </si>
+  <si>
+    <t>Termómetro Ballena</t>
+  </si>
+  <si>
+    <t>BY-FT01Y</t>
+  </si>
+  <si>
+    <t>Termómetro Pato</t>
   </si>
   <si>
     <t>BY-PT01G</t>
   </si>
   <si>
-    <t>Orinal portátil</t>
-  </si>
-  <si>
     <t>BY-PT02B</t>
   </si>
   <si>
-    <t>Orinal de plástico azul</t>
-  </si>
-  <si>
-    <t>BY-RBC01</t>
-  </si>
-  <si>
-    <t>Copa de baño para enjuagar al Bebé</t>
-  </si>
-  <si>
-    <t>BY-SBW01B</t>
-  </si>
-  <si>
-    <t>Toalla Azul</t>
-  </si>
-  <si>
-    <t>BY-SBW01BW</t>
-  </si>
-  <si>
-    <t>Toalla Marrón</t>
-  </si>
-  <si>
-    <t>BY-SBW01G</t>
-  </si>
-  <si>
-    <t>Toalla Gris</t>
-  </si>
-  <si>
-    <t>BY-SBW01P</t>
-  </si>
-  <si>
-    <t>Toalla Rosa</t>
-  </si>
-  <si>
-    <t>BY-SBW01V</t>
-  </si>
-  <si>
-    <t>Toalla Verde</t>
-  </si>
-  <si>
-    <t>BY-SBW01W</t>
-  </si>
-  <si>
-    <t>Toalla Blanca</t>
-  </si>
-  <si>
-    <t>BY-SUP01</t>
-  </si>
-  <si>
-    <t>Soporte plegable bañera estructura de hierro</t>
+    <t>BY-SR01</t>
+  </si>
+  <si>
+    <t>Estante de almacenamiento 80 x 21 x 16 cm</t>
   </si>
   <si>
     <t>BY-TIL01G</t>
-  </si>
-  <si>
-    <t>WC mini</t>
-  </si>
-  <si>
-    <t>BY-WDC01G</t>
-  </si>
-  <si>
-    <t>Cambiador portátil</t>
-  </si>
-  <si>
-    <t>HG-AD12</t>
-  </si>
-  <si>
-    <t>Mancuerna ajustable 12KG</t>
-  </si>
-  <si>
-    <t>HG-AD20</t>
-  </si>
-  <si>
-    <t>Mancuerna ajustable 20KG</t>
-  </si>
-  <si>
-    <t>HG-AD24</t>
-  </si>
-  <si>
-    <t>Mancuerna ajustable 24KG</t>
-  </si>
-  <si>
-    <t>HG-AD32</t>
-  </si>
-  <si>
-    <t>Mancuerna ajustable 32KG</t>
-  </si>
-  <si>
-    <t>HG-AD40</t>
-  </si>
-  <si>
-    <t>Mancuerna ajustable 40KG</t>
-  </si>
-  <si>
-    <t>HG-AK18</t>
-  </si>
-  <si>
-    <t>Pesa rusa kettlebell ajustable 18KG</t>
-  </si>
-  <si>
-    <t>HG-B58B</t>
-  </si>
-  <si>
-    <t>Bosu (plataforma de equilibrio) 58cm Azul</t>
-  </si>
-  <si>
-    <t>HG-B58G</t>
-  </si>
-  <si>
-    <t>Bosu (plataforma de equilibrio) 58cm Gris</t>
-  </si>
-  <si>
-    <t>HG-BPB02</t>
-  </si>
-  <si>
-    <t>Juego body pump 30mm 2 x1'25kg+2x2'5kg+2x5kg</t>
-  </si>
-  <si>
-    <t>HG-CB713</t>
-  </si>
-  <si>
-    <t>Barra de dominadas extensible 62-100cm</t>
-  </si>
-  <si>
-    <t>HG-CD020</t>
-  </si>
-  <si>
-    <t>Mancuerna hexagonal caucho 2KG</t>
-  </si>
-  <si>
-    <t>HG-CD040</t>
-  </si>
-  <si>
-    <t>Mancuerna hexagonal caucho 4KG</t>
-  </si>
-  <si>
-    <t>HG-CD060</t>
-  </si>
-  <si>
-    <t>Mancuerna hexagonal caucho 6KG</t>
-  </si>
-  <si>
-    <t>HG-CD080</t>
-  </si>
-  <si>
-    <t>Mancuerna hexagonal caucho 8KG</t>
-  </si>
-  <si>
-    <t>HG-CD100</t>
-  </si>
-  <si>
-    <t>Mancuerna hexagonal caucho 10KG</t>
-  </si>
-  <si>
-    <t>HG-CD125</t>
-  </si>
-  <si>
-    <t>Mancuerna hexagonal caucho 12.5KG</t>
-  </si>
-  <si>
-    <t>HG-CD150</t>
-  </si>
-  <si>
-    <t>Mancuerna hexagonal caucho 15KG</t>
-  </si>
-  <si>
-    <t>HG-CD175</t>
-  </si>
-  <si>
-    <t>Mancuerna hexagonal caucho 17.5KG</t>
-  </si>
-  <si>
-    <t>HG-CD200</t>
-  </si>
-  <si>
-    <t>Mancuerna hexagonal caucho 20KG</t>
-  </si>
-  <si>
-    <t>HG-CD225</t>
-  </si>
-  <si>
-    <t>Mancuerna hexagonal caucho 22.5KG</t>
-  </si>
-  <si>
-    <t>HG-CD250</t>
-  </si>
-  <si>
-    <t>Mancuerna hexagonal caucho 25KG</t>
-  </si>
-  <si>
-    <t>HG-CD275</t>
-  </si>
-  <si>
-    <t>Mancuerna hexagonal caucho 27.5KG</t>
-  </si>
-  <si>
-    <t>HG-CD300</t>
-  </si>
-  <si>
-    <t>Mancuerna hexagonal caucho 30KG</t>
-  </si>
-  <si>
-    <t>HG-DBP1</t>
-  </si>
-  <si>
-    <t>Disco body pump 1.25KG Amarillo</t>
-  </si>
-  <si>
-    <t>HG-DBP2</t>
-  </si>
-  <si>
-    <t>Disco body pump 2.50KG Verde</t>
-  </si>
-  <si>
-    <t>HG-DBP5</t>
-  </si>
-  <si>
-    <t>Disco body pump 5KG Naranja</t>
-  </si>
-  <si>
-    <t>HG-FB65A</t>
-  </si>
-  <si>
-    <t>Pelota de fitness 65cm Azul con hinchador</t>
-  </si>
-  <si>
-    <t>HG-FFS30M</t>
-  </si>
-  <si>
-    <t>Set de gomas elásticas</t>
-  </si>
-  <si>
-    <t>HG-JR179</t>
-  </si>
-  <si>
-    <t>Cuerda de saltar 3m con mango de plástico</t>
-  </si>
-  <si>
-    <t>HG-JR180</t>
-  </si>
-  <si>
-    <t>Cuerda de saltar 3m con mango de aluminio</t>
-  </si>
-  <si>
-    <t>HG-JWES15</t>
-  </si>
-  <si>
-    <t>Set de 3 bandas elásticas 150x15cm 0.35+0.5+0.65mm</t>
-  </si>
-  <si>
-    <t>HG-PB16B</t>
-  </si>
-  <si>
-    <t>Saco de boxeo inflable 160x65cm Negro</t>
-  </si>
-  <si>
-    <t>HG-PB16Y</t>
-  </si>
-  <si>
-    <t>Saco de boxeo inflable 160x65cm Amarillo</t>
-  </si>
-  <si>
-    <t>HG-PK04</t>
-  </si>
-  <si>
-    <t>Pesa rusa kettlebell 4KG PVC Verde</t>
-  </si>
-  <si>
-    <t>HG-PK08</t>
-  </si>
-  <si>
-    <t>Pesa rusa kettlebell 8KG PVC Amarilla</t>
-  </si>
-  <si>
-    <t>HG-PK12</t>
-  </si>
-  <si>
-    <t>Pesa rusa kettlebell 12KG PVC Azul</t>
-  </si>
-  <si>
-    <t>HG-PK16</t>
-  </si>
-  <si>
-    <t>Pesa rusa kettlebell 16KG PVC Roja</t>
-  </si>
-  <si>
-    <t>HG-PK20</t>
-  </si>
-  <si>
-    <t>Pesa rusa kettlebell 20KG PVC Gris</t>
-  </si>
-  <si>
-    <t>HG-SB25</t>
-  </si>
-  <si>
-    <t>Saco búlgaro de arena 25KG</t>
-  </si>
-  <si>
-    <t>HG-STSB</t>
-  </si>
-  <si>
-    <t>Correa de entrenamiento en suspensión Azul</t>
-  </si>
-  <si>
-    <t>HG-STSG</t>
-  </si>
-  <si>
-    <t>Correa de entrenamiento en suspensión Verde</t>
-  </si>
-  <si>
-    <t>HG-STSR</t>
-  </si>
-  <si>
-    <t>Correa de entrenamiento en suspensión Roja</t>
-  </si>
-  <si>
-    <t>HG-STSY</t>
-  </si>
-  <si>
-    <t>Correa de entrenamiento en suspensión Amarilla</t>
-  </si>
-  <si>
-    <t>HG-TK05B</t>
-  </si>
-  <si>
-    <t>Cuerdas elásticas resistencias alternativas</t>
-  </si>
-  <si>
-    <t>HG-TP01B</t>
-  </si>
-  <si>
-    <t>Cama elástica 140cm Azul</t>
-  </si>
-  <si>
-    <t>HG-TP01G</t>
-  </si>
-  <si>
-    <t>Cama elástica 140cm Verde</t>
-  </si>
-  <si>
-    <t>HG-TP01P</t>
-  </si>
-  <si>
-    <t>Cama elástica 140cm Rosa</t>
-  </si>
-  <si>
-    <t>HG-W805</t>
-  </si>
-  <si>
-    <t>Tobilleras 2x0.5KG</t>
-  </si>
-  <si>
-    <t>HG-W810</t>
-  </si>
-  <si>
-    <t>Tobilleras 2x1KG</t>
-  </si>
-  <si>
-    <t>HG-W815</t>
-  </si>
-  <si>
-    <t>Tobilleras 2x1.5KG</t>
-  </si>
-  <si>
-    <t>HG-YMN10A</t>
-  </si>
-  <si>
-    <t>Esterilla de yoga NBR 183x60cm Azul</t>
-  </si>
-  <si>
-    <t>HG-YMN10B</t>
-  </si>
-  <si>
-    <t>Esterilla de yoga NBR 183x60cm Negra</t>
-  </si>
-  <si>
-    <t>HG-YMN10P</t>
-  </si>
-  <si>
-    <t>Esterilla de yoga NBR 183x60cm Violeta</t>
-  </si>
-  <si>
-    <t>JW-AT20G1</t>
-  </si>
-  <si>
-    <t>Air Track 200*100*10 Azul</t>
-  </si>
-  <si>
-    <t>JW-AT20G2</t>
-  </si>
-  <si>
-    <t>Air Track 200*100*20 Azul</t>
-  </si>
-  <si>
-    <t>JW-AT30G1</t>
-  </si>
-  <si>
-    <t>Air Track 300*100*10 Azul</t>
-  </si>
-  <si>
-    <t>JW-AT30G2</t>
-  </si>
-  <si>
-    <t>Air Track 300*100*20 Azul</t>
-  </si>
-  <si>
-    <t>JW-AT40G1</t>
-  </si>
-  <si>
-    <t>Air Track 400*100*10 Azul</t>
-  </si>
-  <si>
-    <t>JW-AT40G2</t>
-  </si>
-  <si>
-    <t>Air Track 400*100*20 Azul</t>
-  </si>
-  <si>
-    <t>JW-AT50G2</t>
-  </si>
-  <si>
-    <t>Air Track 500*100*20 Azul</t>
-  </si>
-  <si>
-    <t>JW-DF20</t>
-  </si>
-  <si>
-    <t>Tatami puzzle 1x1m 2cm 5 líneas Azul/Rojo</t>
-  </si>
-  <si>
-    <t>JW-DF25</t>
-  </si>
-  <si>
-    <t>Tatami puzzle 1x1m 2.5cm 5 líneas Azul/Rojo</t>
-  </si>
-  <si>
-    <t>JW-DF30</t>
-  </si>
-  <si>
-    <t>Tatami puzzle 1x1m 3cm 5 líneas Azul/Rojo</t>
-  </si>
-  <si>
-    <t>JW-DF40</t>
-  </si>
-  <si>
-    <t>Tatami puzzle 1x1m 4cm 5 líneas Azul/Rojo</t>
-  </si>
-  <si>
-    <t>JW-DS25</t>
-  </si>
-  <si>
-    <t>Tatami puzzle 1x1m 2.5cm alta densidad Azul/Rojo</t>
-  </si>
-  <si>
-    <t>JW-DT20</t>
-  </si>
-  <si>
-    <t>Tatami puzzle 1x1m 2cm superficie T Azul/Rojo</t>
-  </si>
-  <si>
-    <t>JW-DT25</t>
-  </si>
-  <si>
-    <t>Tatami puzzle 1x1m 2.5cm superficie T Azul/Rojo</t>
-  </si>
-  <si>
-    <t>JW-DT40</t>
-  </si>
-  <si>
-    <t>Tatami puzzle 1x1m 4cm superficie T Azul/Rojo</t>
-  </si>
-  <si>
-    <t>JW-RT15A</t>
-  </si>
-  <si>
-    <t>Loseta de caucho 50x50cm 1.5cm Negra</t>
-  </si>
-  <si>
-    <t>JW-RT15LA</t>
-  </si>
-  <si>
-    <t>Loseta de caucho 1X1m 1.5cm Negra</t>
-  </si>
-  <si>
-    <t>JW-RT20A</t>
-  </si>
-  <si>
-    <t>Loseta de caucho 50x50cm 2cm Negra</t>
-  </si>
-  <si>
-    <t>JW-RT25A</t>
-  </si>
-  <si>
-    <t>Loseta de caucho 50x50cm 2.5cm Negra</t>
-  </si>
-  <si>
-    <t>JW-RT25LA</t>
-  </si>
-  <si>
-    <t>Loseta de caucho 1x1m 2.5cm Negra</t>
-  </si>
-  <si>
-    <t>JW-RT40A</t>
-  </si>
-  <si>
-    <t>Loseta de caucho 50x50cm 4cm Negra</t>
-  </si>
-  <si>
-    <t>JW-T60</t>
-  </si>
-  <si>
-    <t>Tatami puzzle 60x60cm 1cm Azul</t>
-  </si>
-  <si>
-    <t>PT-PT004</t>
-  </si>
-  <si>
-    <t>PET AIR-CON HOUSE</t>
-  </si>
-  <si>
-    <t>ESPAÑA</t>
-  </si>
-  <si>
-    <t>PORTUGAL</t>
-  </si>
-  <si>
-    <t>MÍNIMO</t>
-  </si>
-  <si>
-    <t>MÁXIMO</t>
-  </si>
-  <si>
-    <t>PROMEDIO</t>
-  </si>
-  <si>
-    <t>BY-CP01</t>
-  </si>
-  <si>
-    <t>Colores</t>
-  </si>
-  <si>
-    <t>BY-FT01B</t>
-  </si>
-  <si>
-    <t>Termómetro Ballena</t>
-  </si>
-  <si>
-    <t>BY-FT01Y</t>
-  </si>
-  <si>
-    <t>Termómetro Pato</t>
-  </si>
-  <si>
-    <t>BY-SR01</t>
-  </si>
-  <si>
-    <t>Estante de almacenamiento 80 x 21 x 16 cm</t>
   </si>
   <si>
     <t>BY-TY01R</t>
@@ -1052,12 +1070,18 @@
     </font>
     <font/>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -1132,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1149,6 +1173,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1719,7 +1746,7 @@
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1880,7 +1907,7 @@
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1903,7 +1930,7 @@
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2570,7 +2597,7 @@
       </c>
     </row>
     <row r="48" ht="22.5" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -2593,7 +2620,7 @@
       </c>
     </row>
     <row r="49" ht="22.5" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2634,7 +2661,7 @@
       <c r="F50" s="4">
         <v>0.5</v>
       </c>
-      <c r="G50" s="6"/>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" ht="22.5" customHeight="1">
       <c r="A51" s="3" t="s">
@@ -2798,7 +2825,7 @@
       </c>
     </row>
     <row r="58" ht="22.5" customHeight="1">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -4423,7 +4450,7 @@
       <c r="E128" s="4">
         <v>50.0</v>
       </c>
-      <c r="F128" s="7"/>
+      <c r="F128" s="8"/>
       <c r="G128" s="5">
         <v>100.0</v>
       </c>
@@ -4444,7 +4471,7 @@
       <c r="E129" s="4">
         <v>100.0</v>
       </c>
-      <c r="F129" s="7"/>
+      <c r="F129" s="8"/>
       <c r="G129" s="5">
         <v>100.0</v>
       </c>
@@ -4465,7 +4492,7 @@
       <c r="E130" s="4">
         <v>50.0</v>
       </c>
-      <c r="F130" s="7"/>
+      <c r="F130" s="8"/>
       <c r="G130" s="5">
         <v>100.0</v>
       </c>
@@ -4486,7 +4513,7 @@
       <c r="E131" s="4">
         <v>50.0</v>
       </c>
-      <c r="F131" s="7"/>
+      <c r="F131" s="8"/>
       <c r="G131" s="5">
         <v>100.0</v>
       </c>
@@ -4507,7 +4534,7 @@
       <c r="E132" s="4">
         <v>100.0</v>
       </c>
-      <c r="F132" s="7"/>
+      <c r="F132" s="8"/>
       <c r="G132" s="5">
         <v>100.0</v>
       </c>
@@ -4528,7 +4555,7 @@
       <c r="E133" s="4">
         <v>50.0</v>
       </c>
-      <c r="F133" s="7"/>
+      <c r="F133" s="8"/>
       <c r="G133" s="5">
         <v>100.0</v>
       </c>
@@ -4549,7 +4576,7 @@
       <c r="E134" s="4">
         <v>65.0</v>
       </c>
-      <c r="F134" s="7"/>
+      <c r="F134" s="8"/>
       <c r="G134" s="5">
         <v>12.0</v>
       </c>
@@ -4561,10 +4588,10 @@
       <c r="B135" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
       <c r="G135" s="5">
         <v>1.0</v>
       </c>
@@ -4599,2942 +4626,2942 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="16">
         <v>4.24</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
         <v>4.72</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="17">
         <f t="shared" ref="E3:E164" si="1">AVERAGE(C3:D3)</f>
         <v>4.48</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="16">
         <v>4.24</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
         <v>4.72</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <f t="shared" si="1"/>
         <v>4.48</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="16">
         <v>4.24</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="16">
         <v>4.72</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="17">
         <f t="shared" si="1"/>
         <v>4.48</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <v>3.74</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="16">
         <v>4.16</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="17">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="16">
         <v>3.74</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="16">
         <v>4.16</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="17">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="16">
         <v>3.74</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="16">
         <v>4.16</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="17">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="16">
         <v>3.74</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="16">
         <v>4.16</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="17">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="16">
         <v>7.59</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="16">
         <v>10.05</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="17">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="16">
         <v>7.59</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="16">
         <v>10.05</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="17">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="16">
         <v>7.59</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="16">
         <v>10.05</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="17">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="16">
         <v>9.37</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="16">
         <v>12.85</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="17">
         <f t="shared" si="1"/>
         <v>11.11</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="16">
         <v>9.37</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="16">
         <v>12.85</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="17">
         <f t="shared" si="1"/>
         <v>11.11</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19">
-      <c r="A19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20">
-      <c r="A20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="A21" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="16">
         <v>4.49</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="16">
         <v>4.99</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="17">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="16">
         <v>4.49</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="16">
         <v>4.99</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="17">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="16">
         <v>4.49</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="16">
         <v>4.99</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="17">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="16">
         <v>4.49</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="16">
         <v>4.99</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="17">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="16">
         <v>4.49</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="16">
         <v>4.99</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="17">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="16">
         <v>4.49</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="16">
         <v>4.99</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="17">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="16">
         <v>4.49</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="16">
         <v>4.99</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="17">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="16">
         <v>4.49</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="16">
         <v>4.99</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="17">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="16">
         <v>4.49</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="16">
         <v>4.99</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="17">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="16">
         <v>4.49</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="16">
         <v>4.99</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="17">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="16">
         <v>4.49</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="16">
         <v>4.99</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="17">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="16">
         <v>5.57</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="16">
         <v>6.55</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="17">
         <f t="shared" si="1"/>
         <v>6.06</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="16">
         <v>5.57</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="16">
         <v>6.55</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="17">
         <f t="shared" si="1"/>
         <v>6.06</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="16">
         <v>5.57</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="16">
         <v>6.55</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="17">
         <f t="shared" si="1"/>
         <v>6.06</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="16">
         <v>5.57</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="16">
         <v>6.55</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="17">
         <f t="shared" si="1"/>
         <v>6.06</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
     </row>
     <row r="46">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
     </row>
     <row r="47">
-      <c r="A47" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
+      <c r="A47" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
     </row>
     <row r="48">
-      <c r="A48" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
+      <c r="A48" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
     </row>
     <row r="49">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
     </row>
     <row r="50">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
     </row>
     <row r="51">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
     </row>
     <row r="52">
-      <c r="A52" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="14" t="s">
+      <c r="A52" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
     </row>
     <row r="53">
-      <c r="A53" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="14" t="s">
+      <c r="A53" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="16">
         <v>4.49</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="16">
         <v>4.99</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="17">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
     </row>
     <row r="54">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="55">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
     </row>
     <row r="56">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
     </row>
     <row r="58">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
     </row>
     <row r="60">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
     </row>
     <row r="61">
-      <c r="A61" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
+      <c r="A61" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
     </row>
     <row r="62">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
     </row>
     <row r="63">
-      <c r="A63" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B63" s="14" t="s">
+      <c r="A63" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
     </row>
     <row r="64">
-      <c r="A64" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
+      <c r="A64" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
     </row>
     <row r="65">
-      <c r="A65" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
+      <c r="A65" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
     </row>
     <row r="66">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
     </row>
     <row r="67">
-      <c r="A67" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
+      <c r="A67" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
     </row>
     <row r="68">
-      <c r="A68" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
+      <c r="A68" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
     </row>
     <row r="69">
-      <c r="A69" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
+      <c r="A69" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
     </row>
     <row r="70">
-      <c r="A70" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
+      <c r="A70" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
     </row>
     <row r="71">
-      <c r="A71" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
+      <c r="A71" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
     </row>
     <row r="72">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="16">
         <v>7.59</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="16">
         <v>10.05</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="17">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
     </row>
     <row r="73">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="16">
         <v>11.45</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="16">
         <v>16.45</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="17">
         <f t="shared" si="1"/>
         <v>13.95</v>
       </c>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
     </row>
     <row r="74">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="16">
         <v>11.45</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="16">
         <v>16.52</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="17">
         <f t="shared" si="1"/>
         <v>13.985</v>
       </c>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
     </row>
     <row r="75">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="16">
         <v>14.22</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="16">
         <v>21.36</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="17">
         <f t="shared" si="1"/>
         <v>17.79</v>
       </c>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
     </row>
     <row r="76">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="16">
         <v>17.1</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="16">
         <v>25.72</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="17">
         <f t="shared" si="1"/>
         <v>21.41</v>
       </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
     </row>
     <row r="77">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="16">
         <v>9.37</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="16">
         <v>12.85</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E77" s="17">
         <f t="shared" si="1"/>
         <v>11.11</v>
       </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
     </row>
     <row r="78">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="16">
         <v>7.59</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="16">
         <v>10.05</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E78" s="17">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
     </row>
     <row r="79">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="16">
         <v>7.59</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="16">
         <v>10.05</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E79" s="17">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
     </row>
     <row r="80">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
     </row>
     <row r="81">
-      <c r="A81" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
+      <c r="A81" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
     </row>
     <row r="82">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
     </row>
     <row r="83">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
     </row>
     <row r="84">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
     </row>
     <row r="85">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
     </row>
     <row r="86">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
     </row>
     <row r="87">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
     </row>
     <row r="88">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
     </row>
     <row r="89">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
     </row>
     <row r="90">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
     </row>
     <row r="91">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
     </row>
     <row r="92">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
     </row>
     <row r="93">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
     </row>
     <row r="94">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
     </row>
     <row r="95">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
     </row>
     <row r="96">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
     </row>
     <row r="97">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
     </row>
     <row r="98">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
     </row>
     <row r="99">
-      <c r="A99" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
+      <c r="A99" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
     </row>
     <row r="100">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
     </row>
     <row r="101">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
     </row>
     <row r="102">
-      <c r="A102" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
+      <c r="A102" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
     </row>
     <row r="103">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
     </row>
     <row r="104">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
     </row>
     <row r="105">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
     </row>
     <row r="106">
-      <c r="A106" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
+      <c r="A106" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
     </row>
     <row r="107">
-      <c r="A107" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
+      <c r="A107" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
     </row>
     <row r="108">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
     </row>
     <row r="109">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
     </row>
     <row r="110">
-      <c r="A110" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
+      <c r="A110" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
     </row>
     <row r="111">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
     </row>
     <row r="112">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
     </row>
     <row r="113">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
     </row>
     <row r="114">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
     </row>
     <row r="115">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
     </row>
     <row r="116">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
     </row>
     <row r="117">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
     </row>
     <row r="118">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
     </row>
     <row r="119">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
     </row>
     <row r="120">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
     </row>
     <row r="121">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
     </row>
     <row r="122">
-      <c r="A122" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
+      <c r="A122" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
     </row>
     <row r="123">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
     </row>
     <row r="124">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
     </row>
     <row r="125">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
     </row>
     <row r="126">
-      <c r="A126" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
+      <c r="A126" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
     </row>
     <row r="127">
-      <c r="A127" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
+      <c r="A127" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
     </row>
     <row r="128">
-      <c r="A128" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
+      <c r="A128" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
     </row>
     <row r="129">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F129" s="16"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F129" s="17"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
     </row>
     <row r="130">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F130" s="16"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F130" s="17"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
     </row>
     <row r="131">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F131" s="16"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F131" s="17"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
     </row>
     <row r="132">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F132" s="16"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F132" s="17"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
     </row>
     <row r="133">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F133" s="16"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F133" s="17"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
     </row>
     <row r="134">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
     </row>
     <row r="135">
-      <c r="A135" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
+      <c r="A135" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="17"/>
     </row>
     <row r="136">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F136" s="16"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="17"/>
     </row>
     <row r="137">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16"/>
-      <c r="H137" s="16"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="17"/>
     </row>
     <row r="138">
-      <c r="A138" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
-      <c r="H138" s="16"/>
+      <c r="A138" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
     </row>
     <row r="139">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
+      <c r="H139" s="17"/>
     </row>
     <row r="140">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
     </row>
     <row r="141">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="16"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="17"/>
     </row>
     <row r="142">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="16"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="17"/>
     </row>
     <row r="143">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F143" s="16"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="16"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
     </row>
     <row r="144">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C144" s="16"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F144" s="16"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="16"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="17"/>
     </row>
     <row r="145">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F145" s="16"/>
-      <c r="G145" s="16"/>
-      <c r="H145" s="16"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
     </row>
     <row r="146">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B146" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F146" s="16"/>
-      <c r="G146" s="16"/>
-      <c r="H146" s="16"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="17"/>
     </row>
     <row r="147">
-      <c r="A147" s="14" t="s">
+      <c r="A147" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F147" s="16"/>
-      <c r="G147" s="16"/>
-      <c r="H147" s="16"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="17"/>
     </row>
     <row r="148">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F148" s="16"/>
-      <c r="G148" s="16"/>
-      <c r="H148" s="16"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="17"/>
     </row>
     <row r="149">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
     </row>
     <row r="150">
-      <c r="A150" s="14" t="s">
+      <c r="A150" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F150" s="16"/>
-      <c r="G150" s="16"/>
-      <c r="H150" s="16"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
     </row>
     <row r="151">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F151" s="16"/>
-      <c r="G151" s="16"/>
-      <c r="H151" s="16"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="17"/>
     </row>
     <row r="152">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F152" s="16"/>
-      <c r="G152" s="16"/>
-      <c r="H152" s="16"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="17"/>
     </row>
     <row r="153">
-      <c r="A153" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="16"/>
+      <c r="A153" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="17"/>
     </row>
     <row r="154">
-      <c r="A154" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F154" s="16"/>
-      <c r="G154" s="16"/>
-      <c r="H154" s="16"/>
+      <c r="A154" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="17"/>
     </row>
     <row r="155">
-      <c r="A155" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="B155" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F155" s="16"/>
-      <c r="G155" s="16"/>
-      <c r="H155" s="16"/>
+      <c r="A155" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17"/>
+      <c r="H155" s="17"/>
     </row>
     <row r="156">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B156" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F156" s="16"/>
-      <c r="G156" s="16"/>
-      <c r="H156" s="16"/>
+      <c r="B156" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="17"/>
     </row>
     <row r="157">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F157" s="16"/>
-      <c r="G157" s="16"/>
-      <c r="H157" s="16"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
     </row>
     <row r="158">
-      <c r="A158" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F158" s="16"/>
-      <c r="G158" s="16"/>
-      <c r="H158" s="16"/>
+      <c r="A158" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
     </row>
     <row r="159">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F159" s="16"/>
-      <c r="G159" s="16"/>
-      <c r="H159" s="16"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
     </row>
     <row r="160">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F160" s="16"/>
-      <c r="G160" s="16"/>
-      <c r="H160" s="16"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
     </row>
     <row r="161">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F161" s="16"/>
-      <c r="G161" s="16"/>
-      <c r="H161" s="16"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="17"/>
     </row>
     <row r="162">
-      <c r="A162" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F162" s="16"/>
-      <c r="G162" s="16"/>
-      <c r="H162" s="16"/>
+      <c r="A162" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F162" s="17"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
     </row>
     <row r="163">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F163" s="16"/>
-      <c r="G163" s="16"/>
-      <c r="H163" s="16"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
     </row>
     <row r="164">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F164" s="16"/>
-      <c r="G164" s="16"/>
-      <c r="H164" s="16"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="344">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>UDS./BULTO</t>
+  </si>
+  <si>
+    <t>EXCLUIR</t>
   </si>
   <si>
     <t>BY-BBS01C</t>
@@ -1156,7 +1159,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1165,6 +1168,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1286,8 +1292,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G135" displayName="MEDIDAS" name="MEDIDAS" id="1">
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H135" displayName="MEDIDAS" name="MEDIDAS" id="1">
+  <tableColumns count="8">
     <tableColumn name="CÓDIGO" id="1"/>
     <tableColumn name="DESCRIPCIÓN" id="2"/>
     <tableColumn name="GROSOR" id="3"/>
@@ -1295,6 +1301,7 @@
     <tableColumn name="LARGO" id="5"/>
     <tableColumn name="PESO" id="6"/>
     <tableColumn name="UDS./BULTO" id="7"/>
+    <tableColumn name="EXCLUIR" id="8"/>
   </tableColumns>
   <tableStyleInfo name="MEDIDAS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -1537,13 +1544,16 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <v>34.0</v>
@@ -1560,13 +1570,14 @@
       <c r="G2" s="5">
         <v>4.0</v>
       </c>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4">
         <v>34.0</v>
@@ -1583,13 +1594,14 @@
       <c r="G3" s="5">
         <v>4.0</v>
       </c>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
         <v>34.0</v>
@@ -1606,13 +1618,14 @@
       <c r="G4" s="5">
         <v>4.0</v>
       </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4">
         <v>38.0</v>
@@ -1629,13 +1642,14 @@
       <c r="G5" s="5">
         <v>60.0</v>
       </c>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
         <v>38.0</v>
@@ -1652,13 +1666,14 @@
       <c r="G6" s="5">
         <v>60.0</v>
       </c>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <v>38.0</v>
@@ -1675,13 +1690,14 @@
       <c r="G7" s="5">
         <v>60.0</v>
       </c>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4">
         <v>38.0</v>
@@ -1698,13 +1714,14 @@
       <c r="G8" s="5">
         <v>60.0</v>
       </c>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4">
         <v>75.5</v>
@@ -1721,13 +1738,14 @@
       <c r="G9" s="5">
         <v>5.0</v>
       </c>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4">
         <v>75.5</v>
@@ -1744,13 +1762,14 @@
       <c r="G10" s="5">
         <v>5.0</v>
       </c>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" ht="22.5" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>25</v>
+      <c r="A11" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4">
         <v>53.0</v>
@@ -1767,13 +1786,14 @@
       <c r="G11" s="5">
         <v>1.0</v>
       </c>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4">
         <v>53.0</v>
@@ -1790,13 +1810,14 @@
       <c r="G12" s="5">
         <v>1.0</v>
       </c>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4">
         <v>53.0</v>
@@ -1813,13 +1834,14 @@
       <c r="G13" s="5">
         <v>1.0</v>
       </c>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4">
         <v>31.5</v>
@@ -1836,13 +1858,14 @@
       <c r="G14" s="5">
         <v>10.0</v>
       </c>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4">
         <v>31.5</v>
@@ -1859,13 +1882,14 @@
       <c r="G15" s="5">
         <v>10.0</v>
       </c>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4">
         <v>91.5</v>
@@ -1882,13 +1906,14 @@
       <c r="G16" s="5">
         <v>1.0</v>
       </c>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4">
         <v>91.5</v>
@@ -1905,13 +1930,14 @@
       <c r="G17" s="5">
         <v>1.0</v>
       </c>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>39</v>
+      <c r="A18" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4">
         <v>58.0</v>
@@ -1928,13 +1954,14 @@
       <c r="G18" s="5">
         <v>1.0</v>
       </c>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" ht="22.5" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>41</v>
+      <c r="A19" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4">
         <v>37.0</v>
@@ -1951,13 +1978,14 @@
       <c r="G19" s="5">
         <v>10.0</v>
       </c>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4">
         <v>81.5</v>
@@ -1974,13 +2002,14 @@
       <c r="G20" s="5">
         <v>6.0</v>
       </c>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4">
         <v>77.5</v>
@@ -1997,13 +2026,14 @@
       <c r="G21" s="5">
         <v>10.0</v>
       </c>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4">
         <v>77.5</v>
@@ -2020,13 +2050,14 @@
       <c r="G22" s="5">
         <v>10.0</v>
       </c>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="4">
         <v>77.5</v>
@@ -2043,13 +2074,14 @@
       <c r="G23" s="5">
         <v>10.0</v>
       </c>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="4">
         <v>78.0</v>
@@ -2066,13 +2098,14 @@
       <c r="G24" s="5">
         <v>10.0</v>
       </c>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="4">
         <v>80.0</v>
@@ -2089,13 +2122,14 @@
       <c r="G25" s="5">
         <v>10.0</v>
       </c>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4">
         <v>83.0</v>
@@ -2112,13 +2146,14 @@
       <c r="G26" s="5">
         <v>10.0</v>
       </c>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="4">
         <v>30.0</v>
@@ -2135,13 +2170,14 @@
       <c r="G27" s="5">
         <v>4.0</v>
       </c>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" ht="22.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="4">
         <v>30.0</v>
@@ -2158,13 +2194,14 @@
       <c r="G28" s="5">
         <v>4.0</v>
       </c>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="4">
         <v>30.0</v>
@@ -2181,13 +2218,14 @@
       <c r="G29" s="5">
         <v>4.0</v>
       </c>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" ht="22.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="4">
         <v>30.0</v>
@@ -2204,13 +2242,14 @@
       <c r="G30" s="5">
         <v>4.0</v>
       </c>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" ht="22.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4">
         <v>30.0</v>
@@ -2227,13 +2266,14 @@
       <c r="G31" s="5">
         <v>4.0</v>
       </c>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" ht="22.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="4">
         <v>30.0</v>
@@ -2250,13 +2290,14 @@
       <c r="G32" s="5">
         <v>4.0</v>
       </c>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" ht="22.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="4">
         <v>30.0</v>
@@ -2273,13 +2314,14 @@
       <c r="G33" s="5">
         <v>4.0</v>
       </c>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" ht="22.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="4">
         <v>30.0</v>
@@ -2296,13 +2338,14 @@
       <c r="G34" s="5">
         <v>4.0</v>
       </c>
+      <c r="H34" s="6"/>
     </row>
     <row r="35" ht="22.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="4">
         <v>30.0</v>
@@ -2319,13 +2362,14 @@
       <c r="G35" s="5">
         <v>4.0</v>
       </c>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" ht="22.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="4">
         <v>30.0</v>
@@ -2342,13 +2386,14 @@
       <c r="G36" s="5">
         <v>4.0</v>
       </c>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" ht="22.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="4">
         <v>30.0</v>
@@ -2365,13 +2410,14 @@
       <c r="G37" s="5">
         <v>4.0</v>
       </c>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" ht="22.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="4">
         <v>47.0</v>
@@ -2388,13 +2434,14 @@
       <c r="G38" s="5">
         <v>4.0</v>
       </c>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" ht="22.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="4">
         <v>47.0</v>
@@ -2411,13 +2458,14 @@
       <c r="G39" s="5">
         <v>4.0</v>
       </c>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" ht="22.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="4">
         <v>47.0</v>
@@ -2434,13 +2482,14 @@
       <c r="G40" s="5">
         <v>4.0</v>
       </c>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" ht="22.5" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="4">
         <v>47.0</v>
@@ -2457,13 +2506,14 @@
       <c r="G41" s="5">
         <v>4.0</v>
       </c>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" ht="22.5" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="4">
         <v>77.0</v>
@@ -2480,13 +2530,14 @@
       <c r="G42" s="5">
         <v>5.0</v>
       </c>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" ht="22.5" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="4">
         <v>92.0</v>
@@ -2503,13 +2554,14 @@
       <c r="G43" s="5">
         <v>5.0</v>
       </c>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" ht="22.5" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" s="4">
         <v>92.0</v>
@@ -2526,13 +2578,14 @@
       <c r="G44" s="5">
         <v>5.0</v>
       </c>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" ht="22.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" s="4">
         <v>16.0</v>
@@ -2549,13 +2602,14 @@
       <c r="G45" s="5">
         <v>50.0</v>
       </c>
+      <c r="H45" s="6"/>
     </row>
     <row r="46" ht="22.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" s="4">
         <v>16.0</v>
@@ -2572,13 +2626,14 @@
       <c r="G46" s="5">
         <v>50.0</v>
       </c>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" ht="22.5" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" s="4">
         <v>50.0</v>
@@ -2595,13 +2650,14 @@
       <c r="G47" s="5">
         <v>8.0</v>
       </c>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" ht="22.5" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>99</v>
+      <c r="A48" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="4">
         <v>26.5</v>
@@ -2618,13 +2674,16 @@
       <c r="G48" s="5">
         <v>10.0</v>
       </c>
+      <c r="H48" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="49" ht="22.5" customHeight="1">
-      <c r="A49" s="6" t="s">
-        <v>101</v>
+      <c r="A49" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C49" s="4">
         <v>32.0</v>
@@ -2641,13 +2700,14 @@
       <c r="G49" s="5">
         <v>4.0</v>
       </c>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" ht="22.5" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C50" s="4">
         <v>10.0</v>
@@ -2661,14 +2721,15 @@
       <c r="F50" s="4">
         <v>0.5</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" ht="22.5" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C51" s="4">
         <v>32.0</v>
@@ -2685,13 +2746,14 @@
       <c r="G51" s="5">
         <v>3.0</v>
       </c>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" ht="22.5" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C52" s="4">
         <v>32.0</v>
@@ -2708,13 +2770,14 @@
       <c r="G52" s="5">
         <v>3.0</v>
       </c>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" ht="22.5" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C53" s="4">
         <v>32.0</v>
@@ -2731,13 +2794,14 @@
       <c r="G53" s="5">
         <v>3.0</v>
       </c>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" ht="22.5" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54" s="4">
         <v>32.0</v>
@@ -2754,13 +2818,14 @@
       <c r="G54" s="5">
         <v>3.0</v>
       </c>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" ht="22.5" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C55" s="4">
         <v>32.0</v>
@@ -2777,13 +2842,14 @@
       <c r="G55" s="5">
         <v>3.0</v>
       </c>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" ht="22.5" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C56" s="4">
         <v>32.0</v>
@@ -2800,13 +2866,14 @@
       <c r="G56" s="5">
         <v>3.0</v>
       </c>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" ht="22.5" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C57" s="4">
         <v>57.5</v>
@@ -2823,13 +2890,14 @@
       <c r="G57" s="5">
         <v>2.0</v>
       </c>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" ht="22.5" customHeight="1">
-      <c r="A58" s="6" t="s">
-        <v>119</v>
+      <c r="A58" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C58" s="4">
         <v>43.5</v>
@@ -2846,13 +2914,14 @@
       <c r="G58" s="5">
         <v>2.0</v>
       </c>
+      <c r="H58" s="6"/>
     </row>
     <row r="59" ht="22.5" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" s="4">
         <v>30.0</v>
@@ -2869,13 +2938,14 @@
       <c r="G59" s="5">
         <v>10.0</v>
       </c>
+      <c r="H59" s="6"/>
     </row>
     <row r="60" ht="22.5" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C60" s="4">
         <v>38.5</v>
@@ -2892,13 +2962,14 @@
       <c r="G60" s="5">
         <v>1.0</v>
       </c>
+      <c r="H60" s="6"/>
     </row>
     <row r="61" ht="22.5" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C61" s="4">
         <v>50.0</v>
@@ -2915,13 +2986,14 @@
       <c r="G61" s="5">
         <v>1.0</v>
       </c>
+      <c r="H61" s="6"/>
     </row>
     <row r="62" ht="22.5" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C62" s="4">
         <v>55.0</v>
@@ -2938,13 +3010,14 @@
       <c r="G62" s="5">
         <v>1.0</v>
       </c>
+      <c r="H62" s="6"/>
     </row>
     <row r="63" ht="22.5" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C63" s="4">
         <v>52.5</v>
@@ -2961,13 +3034,14 @@
       <c r="G63" s="5">
         <v>1.0</v>
       </c>
+      <c r="H63" s="6"/>
     </row>
     <row r="64" ht="22.5" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C64" s="4">
         <v>58.0</v>
@@ -2984,13 +3058,14 @@
       <c r="G64" s="5">
         <v>1.0</v>
       </c>
+      <c r="H64" s="6"/>
     </row>
     <row r="65" ht="22.5" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C65" s="4">
         <v>33.0</v>
@@ -3007,13 +3082,14 @@
       <c r="G65" s="5">
         <v>1.0</v>
       </c>
+      <c r="H65" s="6"/>
     </row>
     <row r="66" ht="22.5" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66" s="4">
         <v>62.0</v>
@@ -3030,13 +3106,14 @@
       <c r="G66" s="5">
         <v>1.0</v>
       </c>
+      <c r="H66" s="6"/>
     </row>
     <row r="67" ht="22.5" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C67" s="4">
         <v>62.0</v>
@@ -3053,13 +3130,14 @@
       <c r="G67" s="5">
         <v>1.0</v>
       </c>
+      <c r="H67" s="6"/>
     </row>
     <row r="68" ht="22.5" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C68" s="4">
         <v>145.0</v>
@@ -3076,13 +3154,14 @@
       <c r="G68" s="5">
         <v>0.5</v>
       </c>
+      <c r="H68" s="6"/>
     </row>
     <row r="69" ht="22.5" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C69" s="4">
         <v>65.0</v>
@@ -3099,13 +3178,14 @@
       <c r="G69" s="5">
         <v>10.0</v>
       </c>
+      <c r="H69" s="6"/>
     </row>
     <row r="70" ht="22.5" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C70" s="4">
         <v>26.0</v>
@@ -3122,13 +3202,14 @@
       <c r="G70" s="5">
         <v>1.0</v>
       </c>
+      <c r="H70" s="6"/>
     </row>
     <row r="71" ht="22.5" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C71" s="4">
         <v>27.5</v>
@@ -3145,13 +3226,14 @@
       <c r="G71" s="5">
         <v>1.0</v>
       </c>
+      <c r="H71" s="6"/>
     </row>
     <row r="72" ht="22.5" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C72" s="4">
         <v>30.0</v>
@@ -3168,13 +3250,14 @@
       <c r="G72" s="5">
         <v>1.0</v>
       </c>
+      <c r="H72" s="6"/>
     </row>
     <row r="73" ht="22.5" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C73" s="4">
         <v>31.5</v>
@@ -3191,13 +3274,14 @@
       <c r="G73" s="5">
         <v>1.0</v>
       </c>
+      <c r="H73" s="6"/>
     </row>
     <row r="74" ht="22.5" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C74" s="4">
         <v>34.0</v>
@@ -3214,13 +3298,14 @@
       <c r="G74" s="5">
         <v>1.0</v>
       </c>
+      <c r="H74" s="6"/>
     </row>
     <row r="75" ht="22.5" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C75" s="4">
         <v>35.0</v>
@@ -3237,13 +3322,14 @@
       <c r="G75" s="5">
         <v>1.0</v>
       </c>
+      <c r="H75" s="6"/>
     </row>
     <row r="76" ht="22.5" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C76" s="4">
         <v>36.0</v>
@@ -3260,13 +3346,14 @@
       <c r="G76" s="5">
         <v>1.0</v>
       </c>
+      <c r="H76" s="6"/>
     </row>
     <row r="77" ht="22.5" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C77" s="4">
         <v>37.0</v>
@@ -3283,13 +3370,14 @@
       <c r="G77" s="5">
         <v>1.0</v>
       </c>
+      <c r="H77" s="6"/>
     </row>
     <row r="78" ht="22.5" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C78" s="4">
         <v>37.5</v>
@@ -3306,13 +3394,14 @@
       <c r="G78" s="5">
         <v>1.0</v>
       </c>
+      <c r="H78" s="6"/>
     </row>
     <row r="79" ht="22.5" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C79" s="4">
         <v>39.0</v>
@@ -3329,13 +3418,14 @@
       <c r="G79" s="5">
         <v>1.0</v>
       </c>
+      <c r="H79" s="6"/>
     </row>
     <row r="80" ht="22.5" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C80" s="4">
         <v>40.0</v>
@@ -3352,13 +3442,14 @@
       <c r="G80" s="5">
         <v>1.0</v>
       </c>
+      <c r="H80" s="6"/>
     </row>
     <row r="81" ht="22.5" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C81" s="4">
         <v>41.0</v>
@@ -3375,13 +3466,14 @@
       <c r="G81" s="5">
         <v>1.0</v>
       </c>
+      <c r="H81" s="6"/>
     </row>
     <row r="82" ht="22.5" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C82" s="4">
         <v>41.0</v>
@@ -3398,13 +3490,14 @@
       <c r="G82" s="5">
         <v>1.0</v>
       </c>
+      <c r="H82" s="6"/>
     </row>
     <row r="83" ht="22.5" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C83" s="4">
         <v>15.0</v>
@@ -3421,13 +3514,14 @@
       <c r="G83" s="5">
         <v>1.0</v>
       </c>
+      <c r="H83" s="6"/>
     </row>
     <row r="84" ht="22.5" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C84" s="4">
         <v>18.0</v>
@@ -3444,13 +3538,14 @@
       <c r="G84" s="5">
         <v>1.0</v>
       </c>
+      <c r="H84" s="6"/>
     </row>
     <row r="85" ht="22.5" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C85" s="4">
         <v>21.0</v>
@@ -3467,13 +3562,14 @@
       <c r="G85" s="5">
         <v>1.0</v>
       </c>
+      <c r="H85" s="6"/>
     </row>
     <row r="86" ht="22.5" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C86" s="4">
         <v>26.0</v>
@@ -3490,13 +3586,14 @@
       <c r="G86" s="5">
         <v>10.0</v>
       </c>
+      <c r="H86" s="6"/>
     </row>
     <row r="87" ht="22.5" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C87" s="4">
         <v>15.0</v>
@@ -3513,13 +3610,14 @@
       <c r="G87" s="5">
         <v>100.0</v>
       </c>
+      <c r="H87" s="6"/>
     </row>
     <row r="88" ht="22.5" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C88" s="4">
         <v>17.0</v>
@@ -3536,13 +3634,14 @@
       <c r="G88" s="5">
         <v>50.0</v>
       </c>
+      <c r="H88" s="6"/>
     </row>
     <row r="89" ht="22.5" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C89" s="4">
         <v>17.0</v>
@@ -3559,13 +3658,14 @@
       <c r="G89" s="5">
         <v>50.0</v>
       </c>
+      <c r="H89" s="6"/>
     </row>
     <row r="90" ht="22.5" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C90" s="4">
         <v>15.0</v>
@@ -3582,13 +3682,14 @@
       <c r="G90" s="5">
         <v>50.0</v>
       </c>
+      <c r="H90" s="6"/>
     </row>
     <row r="91" ht="22.5" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C91" s="4">
         <v>25.0</v>
@@ -3605,13 +3706,14 @@
       <c r="G91" s="5">
         <v>10.0</v>
       </c>
+      <c r="H91" s="6"/>
     </row>
     <row r="92" ht="22.5" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C92" s="4">
         <v>25.0</v>
@@ -3628,13 +3730,14 @@
       <c r="G92" s="5">
         <v>10.0</v>
       </c>
+      <c r="H92" s="6"/>
     </row>
     <row r="93" ht="22.5" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C93" s="4">
         <v>26.5</v>
@@ -3651,13 +3754,14 @@
       <c r="G93" s="5">
         <v>1.0</v>
       </c>
+      <c r="H93" s="6"/>
     </row>
     <row r="94" ht="22.5" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C94" s="4">
         <v>29.0</v>
@@ -3674,13 +3778,14 @@
       <c r="G94" s="5">
         <v>1.0</v>
       </c>
+      <c r="H94" s="6"/>
     </row>
     <row r="95" ht="22.5" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C95" s="4">
         <v>29.0</v>
@@ -3697,13 +3802,14 @@
       <c r="G95" s="5">
         <v>1.0</v>
       </c>
+      <c r="H95" s="6"/>
     </row>
     <row r="96" ht="22.5" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C96" s="4">
         <v>31.5</v>
@@ -3720,13 +3826,14 @@
       <c r="G96" s="5">
         <v>1.0</v>
       </c>
+      <c r="H96" s="6"/>
     </row>
     <row r="97" ht="22.5" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C97" s="4">
         <v>36.0</v>
@@ -3743,13 +3850,14 @@
       <c r="G97" s="5">
         <v>1.0</v>
       </c>
+      <c r="H97" s="6"/>
     </row>
     <row r="98" ht="22.5" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C98" s="4">
         <v>59.0</v>
@@ -3766,13 +3874,14 @@
       <c r="G98" s="5">
         <v>1.0</v>
       </c>
+      <c r="H98" s="6"/>
     </row>
     <row r="99" ht="22.5" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C99" s="4">
         <v>25.5</v>
@@ -3789,13 +3898,14 @@
       <c r="G99" s="5">
         <v>10.0</v>
       </c>
+      <c r="H99" s="6"/>
     </row>
     <row r="100" ht="22.5" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C100" s="4">
         <v>25.5</v>
@@ -3812,13 +3922,14 @@
       <c r="G100" s="5">
         <v>10.0</v>
       </c>
+      <c r="H100" s="6"/>
     </row>
     <row r="101" ht="22.5" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C101" s="4">
         <v>25.5</v>
@@ -3835,13 +3946,14 @@
       <c r="G101" s="5">
         <v>10.0</v>
       </c>
+      <c r="H101" s="6"/>
     </row>
     <row r="102" ht="22.5" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C102" s="4">
         <v>25.5</v>
@@ -3858,13 +3970,14 @@
       <c r="G102" s="5">
         <v>10.0</v>
       </c>
+      <c r="H102" s="6"/>
     </row>
     <row r="103" ht="22.5" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C103" s="4">
         <v>25.0</v>
@@ -3881,13 +3994,14 @@
       <c r="G103" s="5">
         <v>50.0</v>
       </c>
+      <c r="H103" s="6"/>
     </row>
     <row r="104" ht="22.5" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C104" s="4">
         <v>83.5</v>
@@ -3904,13 +4018,14 @@
       <c r="G104" s="5">
         <v>1.0</v>
       </c>
+      <c r="H104" s="6"/>
     </row>
     <row r="105" ht="22.5" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C105" s="4">
         <v>83.5</v>
@@ -3927,13 +4042,14 @@
       <c r="G105" s="5">
         <v>1.0</v>
       </c>
+      <c r="H105" s="6"/>
     </row>
     <row r="106" ht="22.5" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C106" s="4">
         <v>83.5</v>
@@ -3950,13 +4066,14 @@
       <c r="G106" s="5">
         <v>1.0</v>
       </c>
+      <c r="H106" s="6"/>
     </row>
     <row r="107" ht="22.5" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C107" s="4">
         <v>20.0</v>
@@ -3973,13 +4090,14 @@
       <c r="G107" s="5">
         <v>10.0</v>
       </c>
+      <c r="H107" s="6"/>
     </row>
     <row r="108" ht="22.5" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C108" s="4">
         <v>27.0</v>
@@ -3996,13 +4114,14 @@
       <c r="G108" s="5">
         <v>10.0</v>
       </c>
+      <c r="H108" s="6"/>
     </row>
     <row r="109" ht="22.5" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C109" s="4">
         <v>28.0</v>
@@ -4019,13 +4138,14 @@
       <c r="G109" s="5">
         <v>6.0</v>
       </c>
+      <c r="H109" s="6"/>
     </row>
     <row r="110" ht="22.5" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C110" s="4">
         <v>60.0</v>
@@ -4042,13 +4162,14 @@
       <c r="G110" s="5">
         <v>10.0</v>
       </c>
+      <c r="H110" s="6"/>
     </row>
     <row r="111" ht="22.5" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C111" s="4">
         <v>60.0</v>
@@ -4065,13 +4186,14 @@
       <c r="G111" s="5">
         <v>10.0</v>
       </c>
+      <c r="H111" s="6"/>
     </row>
     <row r="112" ht="22.5" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C112" s="4">
         <v>60.0</v>
@@ -4088,13 +4210,14 @@
       <c r="G112" s="5">
         <v>10.0</v>
       </c>
+      <c r="H112" s="6"/>
     </row>
     <row r="113" ht="22.5" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C113" s="4">
         <v>74.5</v>
@@ -4111,13 +4234,14 @@
       <c r="G113" s="5">
         <v>1.0</v>
       </c>
+      <c r="H113" s="6"/>
     </row>
     <row r="114" ht="22.5" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C114" s="4">
         <v>75.0</v>
@@ -4134,13 +4258,14 @@
       <c r="G114" s="5">
         <v>1.0</v>
       </c>
+      <c r="H114" s="6"/>
     </row>
     <row r="115" ht="22.5" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C115" s="4">
         <v>75.0</v>
@@ -4157,13 +4282,14 @@
       <c r="G115" s="5">
         <v>1.0</v>
       </c>
+      <c r="H115" s="6"/>
     </row>
     <row r="116" ht="22.5" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C116" s="4">
         <v>75.0</v>
@@ -4180,13 +4306,14 @@
       <c r="G116" s="5">
         <v>1.0</v>
       </c>
+      <c r="H116" s="6"/>
     </row>
     <row r="117" ht="22.5" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C117" s="4">
         <v>75.0</v>
@@ -4203,13 +4330,14 @@
       <c r="G117" s="5">
         <v>1.0</v>
       </c>
+      <c r="H117" s="6"/>
     </row>
     <row r="118" ht="22.5" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C118" s="4">
         <v>75.0</v>
@@ -4226,13 +4354,14 @@
       <c r="G118" s="5">
         <v>1.0</v>
       </c>
+      <c r="H118" s="6"/>
     </row>
     <row r="119" ht="22.5" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C119" s="4">
         <v>75.5</v>
@@ -4249,13 +4378,14 @@
       <c r="G119" s="5">
         <v>1.0</v>
       </c>
+      <c r="H119" s="6"/>
     </row>
     <row r="120" ht="22.5" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C120" s="4">
         <v>2.0</v>
@@ -4272,13 +4402,14 @@
       <c r="G120" s="5">
         <v>11.0</v>
       </c>
+      <c r="H120" s="6"/>
     </row>
     <row r="121" ht="22.5" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C121" s="4">
         <v>2.5</v>
@@ -4295,13 +4426,14 @@
       <c r="G121" s="5">
         <v>6.0</v>
       </c>
+      <c r="H121" s="6"/>
     </row>
     <row r="122" ht="22.5" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C122" s="4">
         <v>3.0</v>
@@ -4318,13 +4450,14 @@
       <c r="G122" s="5">
         <v>6.0</v>
       </c>
+      <c r="H122" s="6"/>
     </row>
     <row r="123" ht="22.5" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C123" s="4">
         <v>4.0</v>
@@ -4341,13 +4474,14 @@
       <c r="G123" s="5">
         <v>5.0</v>
       </c>
+      <c r="H123" s="6"/>
     </row>
     <row r="124" ht="22.5" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C124" s="4">
         <v>2.5</v>
@@ -4364,13 +4498,14 @@
       <c r="G124" s="5">
         <v>6.0</v>
       </c>
+      <c r="H124" s="6"/>
     </row>
     <row r="125" ht="22.5" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C125" s="4">
         <v>2.0</v>
@@ -4387,13 +4522,14 @@
       <c r="G125" s="5">
         <v>11.0</v>
       </c>
+      <c r="H125" s="6"/>
     </row>
     <row r="126" ht="22.5" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C126" s="4">
         <v>2.5</v>
@@ -4410,13 +4546,14 @@
       <c r="G126" s="5">
         <v>6.0</v>
       </c>
+      <c r="H126" s="6"/>
     </row>
     <row r="127" ht="22.5" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C127" s="4">
         <v>4.0</v>
@@ -4433,13 +4570,14 @@
       <c r="G127" s="5">
         <v>5.0</v>
       </c>
+      <c r="H127" s="6"/>
     </row>
     <row r="128" ht="22.5" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C128" s="4">
         <v>1.5</v>
@@ -4450,17 +4588,18 @@
       <c r="E128" s="4">
         <v>50.0</v>
       </c>
-      <c r="F128" s="8"/>
+      <c r="F128" s="9"/>
       <c r="G128" s="5">
         <v>100.0</v>
       </c>
+      <c r="H128" s="6"/>
     </row>
     <row r="129" ht="22.5" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C129" s="4">
         <v>1.5</v>
@@ -4471,17 +4610,18 @@
       <c r="E129" s="4">
         <v>100.0</v>
       </c>
-      <c r="F129" s="8"/>
+      <c r="F129" s="9"/>
       <c r="G129" s="5">
         <v>100.0</v>
       </c>
+      <c r="H129" s="6"/>
     </row>
     <row r="130" ht="22.5" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C130" s="4">
         <v>2.0</v>
@@ -4492,17 +4632,18 @@
       <c r="E130" s="4">
         <v>50.0</v>
       </c>
-      <c r="F130" s="8"/>
+      <c r="F130" s="9"/>
       <c r="G130" s="5">
         <v>100.0</v>
       </c>
+      <c r="H130" s="6"/>
     </row>
     <row r="131" ht="22.5" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C131" s="4">
         <v>2.5</v>
@@ -4513,17 +4654,18 @@
       <c r="E131" s="4">
         <v>50.0</v>
       </c>
-      <c r="F131" s="8"/>
+      <c r="F131" s="9"/>
       <c r="G131" s="5">
         <v>100.0</v>
       </c>
+      <c r="H131" s="6"/>
     </row>
     <row r="132" ht="22.5" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C132" s="4">
         <v>2.5</v>
@@ -4534,17 +4676,18 @@
       <c r="E132" s="4">
         <v>100.0</v>
       </c>
-      <c r="F132" s="8"/>
+      <c r="F132" s="9"/>
       <c r="G132" s="5">
         <v>100.0</v>
       </c>
+      <c r="H132" s="6"/>
     </row>
     <row r="133" ht="22.5" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C133" s="4">
         <v>4.0</v>
@@ -4555,17 +4698,18 @@
       <c r="E133" s="4">
         <v>50.0</v>
       </c>
-      <c r="F133" s="8"/>
+      <c r="F133" s="9"/>
       <c r="G133" s="5">
         <v>100.0</v>
       </c>
+      <c r="H133" s="6"/>
     </row>
     <row r="134" ht="22.5" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C134" s="4">
         <v>4.0</v>
@@ -4576,25 +4720,27 @@
       <c r="E134" s="4">
         <v>65.0</v>
       </c>
-      <c r="F134" s="8"/>
+      <c r="F134" s="9"/>
       <c r="G134" s="5">
         <v>12.0</v>
       </c>
+      <c r="H134" s="6"/>
     </row>
     <row r="135" ht="22.5" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
       <c r="G135" s="5">
         <v>1.0</v>
       </c>
+      <c r="H135" s="6"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4626,2942 +4772,2942 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>279</v>
       </c>
+      <c r="H2" s="15" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="16">
+      <c r="B3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="17">
         <v>4.24</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="17">
         <v>4.72</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="18">
         <f t="shared" ref="E3:E164" si="1">AVERAGE(C3:D3)</f>
         <v>4.48</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16">
+      <c r="B4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="17">
         <v>4.24</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="17">
         <v>4.72</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="18">
         <f t="shared" si="1"/>
         <v>4.48</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="16">
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17">
         <v>4.24</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="17">
         <v>4.72</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="18">
         <f t="shared" si="1"/>
         <v>4.48</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="16">
+      <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="17">
         <v>3.74</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <v>4.16</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="18">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="16">
+      <c r="B7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="17">
         <v>3.74</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="17">
         <v>4.16</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="18">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="16">
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="17">
         <v>3.74</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <v>4.16</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="18">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16">
+      <c r="B9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="17">
         <v>3.74</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="17">
         <v>4.16</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="18">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="B10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="B11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="A12" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="17">
         <v>7.59</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="17">
         <v>10.05</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="18">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="16">
+      <c r="B13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <v>7.59</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="17">
         <v>10.05</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="18">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="16">
+      <c r="B14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="17">
         <v>7.59</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="17">
         <v>10.05</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="18">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="B15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="B16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="16">
+      <c r="B17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="17">
         <v>9.37</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="17">
         <v>12.85</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="18">
         <f t="shared" si="1"/>
         <v>11.11</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="16">
+      <c r="B18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="17">
         <v>9.37</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="17">
         <v>12.85</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="18">
         <f t="shared" si="1"/>
         <v>11.11</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="A19" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="A20" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="B21" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="B22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="B23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="B24" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="B25" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="B26" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="B27" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28">
-      <c r="A28" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="B28" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29">
-      <c r="A29" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="16">
+      <c r="B29" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="17">
         <v>4.49</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="17">
         <v>4.99</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="18">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30">
-      <c r="A30" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="16">
+      <c r="B30" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="17">
         <v>4.49</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="17">
         <v>4.99</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="18">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31">
-      <c r="A31" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="16">
+      <c r="B31" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="17">
         <v>4.49</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="17">
         <v>4.99</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="18">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32">
-      <c r="A32" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="16">
+      <c r="B32" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="17">
         <v>4.49</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="17">
         <v>4.99</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="18">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33">
-      <c r="A33" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="16">
+      <c r="B33" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="17">
         <v>4.49</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="17">
         <v>4.99</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="18">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34">
-      <c r="A34" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="16">
+      <c r="B34" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="17">
         <v>4.49</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="17">
         <v>4.99</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="18">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35">
-      <c r="A35" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="16">
+      <c r="B35" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="17">
         <v>4.49</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="17">
         <v>4.99</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="18">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36">
-      <c r="A36" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="16">
+      <c r="B36" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="17">
         <v>4.49</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="17">
         <v>4.99</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="18">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37">
-      <c r="A37" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="16">
+      <c r="B37" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="17">
         <v>4.49</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="17">
         <v>4.99</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="18">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38">
-      <c r="A38" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="16">
+      <c r="B38" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="17">
         <v>4.49</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="17">
         <v>4.99</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="18">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39">
-      <c r="A39" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="16">
+      <c r="B39" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="17">
         <v>4.49</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="17">
         <v>4.99</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="18">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40">
-      <c r="A40" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="16">
+      <c r="B40" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="17">
         <v>5.57</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="17">
         <v>6.55</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="18">
         <f t="shared" si="1"/>
         <v>6.06</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41">
-      <c r="A41" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="16">
+      <c r="B41" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="17">
         <v>5.57</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="17">
         <v>6.55</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="18">
         <f t="shared" si="1"/>
         <v>6.06</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42">
-      <c r="A42" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="16">
+      <c r="B42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="17">
         <v>5.57</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="17">
         <v>6.55</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="18">
         <f t="shared" si="1"/>
         <v>6.06</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43">
-      <c r="A43" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="16">
+      <c r="B43" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="17">
         <v>5.57</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="17">
         <v>6.55</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="18">
         <f t="shared" si="1"/>
         <v>6.06</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44">
-      <c r="A44" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="B44" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45">
-      <c r="A45" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
+      <c r="B45" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46">
-      <c r="A46" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
+      <c r="B46" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47">
-      <c r="A47" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
+      <c r="B47" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48">
-      <c r="A48" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="B48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
+      <c r="B48" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
     </row>
     <row r="49">
-      <c r="A49" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
+      <c r="B49" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
     </row>
     <row r="50">
-      <c r="A50" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
+      <c r="B50" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51">
-      <c r="A51" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
+      <c r="B51" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
     </row>
     <row r="52">
-      <c r="A52" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
+      <c r="A52" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
     </row>
     <row r="53">
-      <c r="A53" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="16">
+      <c r="A53" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="17">
         <v>4.49</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="17">
         <v>4.99</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="18">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
     </row>
     <row r="54">
-      <c r="A54" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
+      <c r="B54" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
     </row>
     <row r="55">
-      <c r="A55" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="15" t="s">
+      <c r="A55" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
+      <c r="B55" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
     </row>
     <row r="56">
-      <c r="A56" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+      <c r="B56" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
     </row>
     <row r="57">
-      <c r="A57" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="15" t="s">
+      <c r="A57" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
+      <c r="B57" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
     </row>
     <row r="58">
-      <c r="A58" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="15" t="s">
+      <c r="A58" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
+      <c r="B58" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
     </row>
     <row r="59">
-      <c r="A59" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="15" t="s">
+      <c r="A59" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
+      <c r="B59" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
     </row>
     <row r="60">
-      <c r="A60" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" s="15" t="s">
+      <c r="A60" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+      <c r="B60" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
     </row>
     <row r="61">
-      <c r="A61" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="B61" s="15" t="s">
+      <c r="A61" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
+      <c r="B61" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
     </row>
     <row r="62">
-      <c r="A62" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" s="15" t="s">
+      <c r="A62" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
+      <c r="B62" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
     </row>
     <row r="63">
-      <c r="A63" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
+      <c r="A63" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
     </row>
     <row r="64">
-      <c r="A64" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="B64" s="15" t="s">
+      <c r="A64" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
+      <c r="B64" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
     </row>
     <row r="65">
-      <c r="A65" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B65" s="15" t="s">
+      <c r="A65" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
+      <c r="B65" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
     </row>
     <row r="66">
-      <c r="A66" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="15" t="s">
+      <c r="A66" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
+      <c r="B66" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
     </row>
     <row r="67">
-      <c r="A67" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="B67" s="15" t="s">
+      <c r="A67" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
+      <c r="B67" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
     </row>
     <row r="68">
-      <c r="A68" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B68" s="15" t="s">
+      <c r="A68" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
+      <c r="B68" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
     </row>
     <row r="69">
-      <c r="A69" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B69" s="15" t="s">
+      <c r="A69" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
+      <c r="B69" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
     </row>
     <row r="70">
-      <c r="A70" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B70" s="15" t="s">
+      <c r="A70" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
+      <c r="B70" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
     </row>
     <row r="71">
-      <c r="A71" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="B71" s="15" t="s">
+      <c r="A71" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
+      <c r="B71" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
     </row>
     <row r="72">
-      <c r="A72" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" s="15" t="s">
+      <c r="A72" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="16">
+      <c r="B72" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="17">
         <v>7.59</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D72" s="17">
         <v>10.05</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="18">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
     </row>
     <row r="73">
-      <c r="A73" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" s="15" t="s">
+      <c r="A73" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="16">
+      <c r="B73" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="17">
         <v>11.45</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73" s="17">
         <v>16.45</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="18">
         <f t="shared" si="1"/>
         <v>13.95</v>
       </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
     </row>
     <row r="74">
-      <c r="A74" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="15" t="s">
+      <c r="A74" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C74" s="16">
+      <c r="B74" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="17">
         <v>11.45</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="17">
         <v>16.52</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="18">
         <f t="shared" si="1"/>
         <v>13.985</v>
       </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
     </row>
     <row r="75">
-      <c r="A75" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B75" s="15" t="s">
+      <c r="A75" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C75" s="16">
+      <c r="B75" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="17">
         <v>14.22</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="17">
         <v>21.36</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="18">
         <f t="shared" si="1"/>
         <v>17.79</v>
       </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
     </row>
     <row r="76">
-      <c r="A76" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="15" t="s">
+      <c r="A76" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="16">
+      <c r="B76" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="17">
         <v>17.1</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="17">
         <v>25.72</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="18">
         <f t="shared" si="1"/>
         <v>21.41</v>
       </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
     </row>
     <row r="77">
-      <c r="A77" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B77" s="15" t="s">
+      <c r="A77" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C77" s="16">
+      <c r="B77" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="17">
         <v>9.37</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77" s="17">
         <v>12.85</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="18">
         <f t="shared" si="1"/>
         <v>11.11</v>
       </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
     </row>
     <row r="78">
-      <c r="A78" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B78" s="15" t="s">
+      <c r="A78" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C78" s="16">
+      <c r="B78" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="17">
         <v>7.59</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D78" s="17">
         <v>10.05</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="18">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
     </row>
     <row r="79">
-      <c r="A79" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B79" s="15" t="s">
+      <c r="A79" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="16">
+      <c r="B79" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="17">
         <v>7.59</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D79" s="17">
         <v>10.05</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E79" s="18">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
     </row>
     <row r="80">
-      <c r="A80" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B80" s="15" t="s">
+      <c r="A80" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
+      <c r="B80" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
     </row>
     <row r="81">
-      <c r="A81" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="B81" s="15" t="s">
+      <c r="A81" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
+      <c r="B81" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
     </row>
     <row r="82">
-      <c r="A82" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B82" s="15" t="s">
+      <c r="A82" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
+      <c r="B82" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
     </row>
     <row r="83">
-      <c r="A83" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B83" s="15" t="s">
+      <c r="A83" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
+      <c r="B83" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
     </row>
     <row r="84">
-      <c r="A84" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B84" s="15" t="s">
+      <c r="A84" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
+      <c r="B84" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
     </row>
     <row r="85">
-      <c r="A85" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B85" s="15" t="s">
+      <c r="A85" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
+      <c r="B85" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
     </row>
     <row r="86">
-      <c r="A86" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86" s="15" t="s">
+      <c r="A86" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
+      <c r="B86" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
     </row>
     <row r="87">
-      <c r="A87" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B87" s="15" t="s">
+      <c r="A87" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
+      <c r="B87" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
     </row>
     <row r="88">
-      <c r="A88" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B88" s="15" t="s">
+      <c r="A88" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
+      <c r="B88" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
     </row>
     <row r="89">
-      <c r="A89" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B89" s="15" t="s">
+      <c r="A89" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
+      <c r="B89" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
     </row>
     <row r="90">
-      <c r="A90" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B90" s="15" t="s">
+      <c r="A90" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
+      <c r="B90" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
     </row>
     <row r="91">
-      <c r="A91" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B91" s="15" t="s">
+      <c r="A91" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
+      <c r="B91" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
     </row>
     <row r="92">
-      <c r="A92" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B92" s="15" t="s">
+      <c r="A92" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
+      <c r="B92" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
     </row>
     <row r="93">
-      <c r="A93" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B93" s="15" t="s">
+      <c r="A93" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
+      <c r="B93" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
     </row>
     <row r="94">
-      <c r="A94" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B94" s="15" t="s">
+      <c r="A94" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
+      <c r="B94" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
     </row>
     <row r="95">
-      <c r="A95" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B95" s="15" t="s">
+      <c r="A95" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
+      <c r="B95" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
     </row>
     <row r="96">
-      <c r="A96" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B96" s="15" t="s">
+      <c r="A96" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
+      <c r="B96" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
     </row>
     <row r="97">
-      <c r="A97" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B97" s="15" t="s">
+      <c r="A97" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
+      <c r="B97" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
     </row>
     <row r="98">
-      <c r="A98" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B98" s="15" t="s">
+      <c r="A98" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
+      <c r="B98" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
     </row>
     <row r="99">
-      <c r="A99" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B99" s="15" t="s">
+      <c r="A99" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
+      <c r="B99" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
     </row>
     <row r="100">
-      <c r="A100" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B100" s="15" t="s">
+      <c r="A100" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
+      <c r="B100" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
     </row>
     <row r="101">
-      <c r="A101" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B101" s="15" t="s">
+      <c r="A101" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
+      <c r="B101" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
     </row>
     <row r="102">
-      <c r="A102" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B102" s="15" t="s">
+      <c r="A102" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
+      <c r="B102" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
     </row>
     <row r="103">
-      <c r="A103" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B103" s="15" t="s">
+      <c r="A103" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
+      <c r="B103" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
     </row>
     <row r="104">
-      <c r="A104" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B104" s="15" t="s">
+      <c r="A104" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
+      <c r="B104" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
     </row>
     <row r="105">
-      <c r="A105" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B105" s="15" t="s">
+      <c r="A105" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
+      <c r="B105" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
     </row>
     <row r="106">
-      <c r="A106" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="B106" s="15" t="s">
+      <c r="A106" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
+      <c r="B106" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
     </row>
     <row r="107">
-      <c r="A107" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="B107" s="15" t="s">
+      <c r="A107" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
+      <c r="B107" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
     </row>
     <row r="108">
-      <c r="A108" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B108" s="15" t="s">
+      <c r="A108" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
+      <c r="B108" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
     </row>
     <row r="109">
-      <c r="A109" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B109" s="15" t="s">
+      <c r="A109" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
+      <c r="B109" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
     </row>
     <row r="110">
-      <c r="A110" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="B110" s="15" t="s">
+      <c r="A110" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
+      <c r="B110" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
     </row>
     <row r="111">
-      <c r="A111" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B111" s="15" t="s">
+      <c r="A111" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
+      <c r="B111" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
     </row>
     <row r="112">
-      <c r="A112" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B112" s="15" t="s">
+      <c r="A112" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
+      <c r="B112" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
     </row>
     <row r="113">
-      <c r="A113" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B113" s="15" t="s">
+      <c r="A113" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
+      <c r="B113" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
     </row>
     <row r="114">
-      <c r="A114" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B114" s="15" t="s">
+      <c r="A114" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
+      <c r="B114" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
     </row>
     <row r="115">
-      <c r="A115" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B115" s="15" t="s">
+      <c r="A115" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
+      <c r="B115" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
     </row>
     <row r="116">
-      <c r="A116" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B116" s="15" t="s">
+      <c r="A116" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="17"/>
+      <c r="B116" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
     </row>
     <row r="117">
-      <c r="A117" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B117" s="15" t="s">
+      <c r="A117" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17"/>
+      <c r="B117" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
     </row>
     <row r="118">
-      <c r="A118" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B118" s="15" t="s">
+      <c r="A118" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
+      <c r="B118" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
     </row>
     <row r="119">
-      <c r="A119" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B119" s="15" t="s">
+      <c r="A119" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
+      <c r="B119" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
     </row>
     <row r="120">
-      <c r="A120" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B120" s="15" t="s">
+      <c r="A120" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="17"/>
+      <c r="B120" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
     </row>
     <row r="121">
-      <c r="A121" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B121" s="15" t="s">
+      <c r="A121" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17"/>
+      <c r="B121" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
     </row>
     <row r="122">
-      <c r="A122" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="B122" s="15" t="s">
+      <c r="A122" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="17"/>
+      <c r="B122" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
     </row>
     <row r="123">
-      <c r="A123" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="B123" s="15" t="s">
+      <c r="A123" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="17"/>
+      <c r="B123" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
     </row>
     <row r="124">
-      <c r="A124" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B124" s="15" t="s">
+      <c r="A124" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="17"/>
+      <c r="B124" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
     </row>
     <row r="125">
-      <c r="A125" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B125" s="15" t="s">
+      <c r="A125" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
-      <c r="H125" s="17"/>
+      <c r="B125" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
     </row>
     <row r="126">
-      <c r="A126" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B126" s="15" t="s">
+      <c r="A126" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="17"/>
+      <c r="B126" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
     </row>
     <row r="127">
-      <c r="A127" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="B127" s="15" t="s">
+      <c r="A127" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="17"/>
+      <c r="B127" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
     </row>
     <row r="128">
-      <c r="A128" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="B128" s="15" t="s">
+      <c r="A128" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="17"/>
+      <c r="B128" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
     </row>
     <row r="129">
-      <c r="A129" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="B129" s="15" t="s">
+      <c r="A129" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F129" s="17"/>
-      <c r="G129" s="16"/>
-      <c r="H129" s="16"/>
+      <c r="B129" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F129" s="18"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
     </row>
     <row r="130">
-      <c r="A130" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B130" s="15" t="s">
+      <c r="A130" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F130" s="17"/>
-      <c r="G130" s="16"/>
-      <c r="H130" s="16"/>
+      <c r="B130" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F130" s="18"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
     </row>
     <row r="131">
-      <c r="A131" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B131" s="15" t="s">
+      <c r="A131" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F131" s="17"/>
-      <c r="G131" s="16"/>
-      <c r="H131" s="16"/>
+      <c r="B131" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F131" s="18"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
     </row>
     <row r="132">
-      <c r="A132" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B132" s="15" t="s">
+      <c r="A132" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F132" s="17"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
+      <c r="B132" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F132" s="18"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
     </row>
     <row r="133">
-      <c r="A133" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B133" s="15" t="s">
+      <c r="A133" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F133" s="17"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
+      <c r="B133" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F133" s="18"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
     </row>
     <row r="134">
-      <c r="A134" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B134" s="15" t="s">
+      <c r="A134" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F134" s="17"/>
-      <c r="G134" s="17"/>
-      <c r="H134" s="17"/>
+      <c r="B134" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
     </row>
     <row r="135">
-      <c r="A135" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="B135" s="15" t="s">
+      <c r="A135" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F135" s="17"/>
-      <c r="G135" s="17"/>
-      <c r="H135" s="17"/>
+      <c r="B135" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
     </row>
     <row r="136">
-      <c r="A136" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B136" s="15" t="s">
+      <c r="A136" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F136" s="17"/>
-      <c r="G136" s="17"/>
-      <c r="H136" s="17"/>
+      <c r="B136" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
     </row>
     <row r="137">
-      <c r="A137" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B137" s="15" t="s">
+      <c r="A137" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F137" s="17"/>
-      <c r="G137" s="17"/>
-      <c r="H137" s="17"/>
+      <c r="B137" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C137" s="18"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18"/>
+      <c r="H137" s="18"/>
     </row>
     <row r="138">
-      <c r="A138" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="B138" s="15" t="s">
+      <c r="A138" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F138" s="17"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
+      <c r="B138" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
     </row>
     <row r="139">
-      <c r="A139" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B139" s="15" t="s">
+      <c r="A139" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
-      <c r="E139" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F139" s="17"/>
-      <c r="G139" s="17"/>
-      <c r="H139" s="17"/>
+      <c r="B139" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
     </row>
     <row r="140">
-      <c r="A140" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B140" s="15" t="s">
+      <c r="A140" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17"/>
-      <c r="H140" s="17"/>
+      <c r="B140" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
     </row>
     <row r="141">
-      <c r="A141" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B141" s="15" t="s">
+      <c r="A141" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F141" s="17"/>
-      <c r="G141" s="17"/>
-      <c r="H141" s="17"/>
+      <c r="B141" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
     </row>
     <row r="142">
-      <c r="A142" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B142" s="15" t="s">
+      <c r="A142" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F142" s="17"/>
-      <c r="G142" s="17"/>
-      <c r="H142" s="17"/>
+      <c r="B142" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C142" s="18"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
     </row>
     <row r="143">
-      <c r="A143" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B143" s="15" t="s">
+      <c r="A143" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="17"/>
+      <c r="B143" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C143" s="18"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
     </row>
     <row r="144">
-      <c r="A144" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B144" s="15" t="s">
+      <c r="A144" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="17"/>
+      <c r="B144" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="18"/>
     </row>
     <row r="145">
-      <c r="A145" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="B145" s="15" t="s">
+      <c r="A145" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F145" s="17"/>
-      <c r="G145" s="17"/>
-      <c r="H145" s="17"/>
+      <c r="B145" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F145" s="18"/>
+      <c r="G145" s="18"/>
+      <c r="H145" s="18"/>
     </row>
     <row r="146">
-      <c r="A146" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B146" s="15" t="s">
+      <c r="A146" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F146" s="17"/>
-      <c r="G146" s="17"/>
-      <c r="H146" s="17"/>
+      <c r="B146" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18"/>
+      <c r="H146" s="18"/>
     </row>
     <row r="147">
-      <c r="A147" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="B147" s="15" t="s">
+      <c r="A147" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F147" s="17"/>
-      <c r="G147" s="17"/>
-      <c r="H147" s="17"/>
+      <c r="B147" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C147" s="18"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F147" s="18"/>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18"/>
     </row>
     <row r="148">
-      <c r="A148" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B148" s="15" t="s">
+      <c r="A148" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F148" s="17"/>
-      <c r="G148" s="17"/>
-      <c r="H148" s="17"/>
+      <c r="B148" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C148" s="18"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
     </row>
     <row r="149">
-      <c r="A149" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="B149" s="15" t="s">
+      <c r="A149" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
-      <c r="H149" s="17"/>
+      <c r="B149" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
     </row>
     <row r="150">
-      <c r="A150" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="B150" s="15" t="s">
+      <c r="A150" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F150" s="17"/>
-      <c r="G150" s="17"/>
-      <c r="H150" s="17"/>
+      <c r="B150" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
     </row>
     <row r="151">
-      <c r="A151" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B151" s="15" t="s">
+      <c r="A151" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17"/>
+      <c r="B151" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
     </row>
     <row r="152">
-      <c r="A152" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="B152" s="15" t="s">
+      <c r="A152" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F152" s="17"/>
-      <c r="G152" s="17"/>
-      <c r="H152" s="17"/>
+      <c r="B152" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F152" s="18"/>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
     </row>
     <row r="153">
-      <c r="A153" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="B153" s="15" t="s">
+      <c r="A153" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F153" s="17"/>
-      <c r="G153" s="17"/>
-      <c r="H153" s="17"/>
+      <c r="B153" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
     </row>
     <row r="154">
-      <c r="A154" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="B154" s="15" t="s">
+      <c r="A154" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F154" s="17"/>
-      <c r="G154" s="17"/>
-      <c r="H154" s="17"/>
+      <c r="B154" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
     </row>
     <row r="155">
-      <c r="A155" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="B155" s="15" t="s">
+      <c r="A155" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F155" s="17"/>
-      <c r="G155" s="17"/>
-      <c r="H155" s="17"/>
+      <c r="B155" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
     </row>
     <row r="156">
-      <c r="A156" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B156" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F156" s="17"/>
-      <c r="G156" s="17"/>
-      <c r="H156" s="17"/>
+      <c r="A156" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F156" s="18"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="18"/>
     </row>
     <row r="157">
-      <c r="A157" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="B157" s="15" t="s">
+      <c r="A157" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F157" s="17"/>
-      <c r="G157" s="17"/>
-      <c r="H157" s="17"/>
+      <c r="B157" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C157" s="18"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F157" s="18"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="18"/>
     </row>
     <row r="158">
-      <c r="A158" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="B158" s="15" t="s">
+      <c r="A158" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F158" s="17"/>
-      <c r="G158" s="17"/>
-      <c r="H158" s="17"/>
+      <c r="B158" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
     </row>
     <row r="159">
-      <c r="A159" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B159" s="15" t="s">
+      <c r="A159" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F159" s="17"/>
-      <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
+      <c r="B159" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C159" s="18"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
     </row>
     <row r="160">
-      <c r="A160" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B160" s="15" t="s">
+      <c r="A160" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F160" s="17"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
+      <c r="B160" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F160" s="18"/>
+      <c r="G160" s="18"/>
+      <c r="H160" s="18"/>
     </row>
     <row r="161">
-      <c r="A161" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="B161" s="15" t="s">
+      <c r="A161" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F161" s="17"/>
-      <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
+      <c r="B161" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F161" s="18"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
     </row>
     <row r="162">
-      <c r="A162" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="B162" s="15" t="s">
+      <c r="A162" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F162" s="17"/>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
+      <c r="B162" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F162" s="18"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
     </row>
     <row r="163">
-      <c r="A163" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B163" s="15" t="s">
+      <c r="A163" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F163" s="17"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
+      <c r="B163" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C163" s="18"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F163" s="18"/>
+      <c r="G163" s="18"/>
+      <c r="H163" s="18"/>
     </row>
     <row r="164">
-      <c r="A164" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="B164" s="15" t="s">
+      <c r="A164" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
+      <c r="B164" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C164" s="18"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F164" s="18"/>
+      <c r="G164" s="18"/>
+      <c r="H164" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -4,7 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="MEDIDAS" sheetId="1" r:id="rId5"/>
-    <sheet state="visible" name="PRECIOS" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="Hoja 3" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="PRECIOS" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="751">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -1956,6 +1957,249 @@
   </si>
   <si>
     <t>Ankle weights 2x1.5KG</t>
+  </si>
+  <si>
+    <t>Nombre del producto</t>
+  </si>
+  <si>
+    <t>SKU de comerciante</t>
+  </si>
+  <si>
+    <t>Atributos</t>
+  </si>
+  <si>
+    <t>Bañera Bebé Plegable Portátil con Termómetro Integrado, Cojín Reductor Antideslizante y Patas Estables, Diseño Ergonómico Compacto para Recién Nacidos, Disponible en Varios Colores | Entrega en 48-72h</t>
+  </si>
+  <si>
+    <t>BY-FBT05GN</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>Bañera Plegable para Bebés Recién Nacidos | Con Cojín Reductor en Forma de Oso | Termómetro Integrado | Base Estable con Patas Antideslizantes | Varios Colores Disponibles | Entrega 48-72h</t>
+  </si>
+  <si>
+    <t>BY-FBT02GN</t>
+  </si>
+  <si>
+    <t>Bañera Bebé 5 en 1 Plegable con Soporte, Cambiador, Desagüe y Opción de Cojín Reductor + Bandeja | Diseño Ergonómico, Ligero y Flexible | Apto Para Recién Nacido | Disponible en Varios Colores | Entrega en 48-72h</t>
+  </si>
+  <si>
+    <t>BY-BTT01G1</t>
+  </si>
+  <si>
+    <t>Gris Pro</t>
+  </si>
+  <si>
+    <t>Rosa Standard</t>
+  </si>
+  <si>
+    <t>BY-BTT01P1</t>
+  </si>
+  <si>
+    <t>Rosa Pro</t>
+  </si>
+  <si>
+    <t>Gris Standard</t>
+  </si>
+  <si>
+    <t>Toalla de Baño para Bebé con Capucha | Toalla Suave y Absorbente | Albornoz Infantil Ideal para Recién Nacidos y Niños | Ligera, Cálida y Fácil de Lavar | Entrega en 48-72h</t>
+  </si>
+  <si>
+    <t>BY-SBW01GN</t>
+  </si>
+  <si>
+    <t>Pack 2 Toallas de Baño para Bebé con Capucha | Toalla Suave y Absorbente | Albornoz Infantil Ideal para Recién Nacidos y Niños | Ligera, Cálida y Fácil de Lavar | Entrega en 48-72h</t>
+  </si>
+  <si>
+    <t>BY-SBW01W/G</t>
+  </si>
+  <si>
+    <t>Gris/Blanco</t>
+  </si>
+  <si>
+    <t>BY-SBW01P/B</t>
+  </si>
+  <si>
+    <t>Rosa/Azul</t>
+  </si>
+  <si>
+    <t>BY-SBW01GN/BW</t>
+  </si>
+  <si>
+    <t>Marron/Verde</t>
+  </si>
+  <si>
+    <t>Bañera de Bebé Essencs con Cojín Reductor y Soporte Plegable BATHBY | Pack Completo para Recién Nacidos | Bañera Ligera, Compacta y Ergonómica | Soporte Elevado, Estable y Fácil de Guardar</t>
+  </si>
+  <si>
+    <t>BY-SUP01-FBT05B</t>
+  </si>
+  <si>
+    <t>Bañera con Soporte Azul</t>
+  </si>
+  <si>
+    <t>BY-SUP01-FBT05G</t>
+  </si>
+  <si>
+    <t>Bañera con Soporte Gris</t>
+  </si>
+  <si>
+    <t>BY-SUP01-FBT05V</t>
+  </si>
+  <si>
+    <t>Bañera con Soporte Verde</t>
+  </si>
+  <si>
+    <t>BY-SUP01-FBT05P</t>
+  </si>
+  <si>
+    <t>Bañera con Soporte Rosa</t>
+  </si>
+  <si>
+    <t>Barrera para Niños y Mascotas 75–84 cm | Instalación sin Tornillos | Cierre Automático | Apertura Bidireccional | Ideal para Puertas, Pasillos y Escaleras</t>
+  </si>
+  <si>
+    <t>DOR04G</t>
+  </si>
+  <si>
+    <t>Extensión (20cm)</t>
+  </si>
+  <si>
+    <t>DOR07G</t>
+  </si>
+  <si>
+    <t>Extensión (80cm)</t>
+  </si>
+  <si>
+    <t>DOR01G</t>
+  </si>
+  <si>
+    <t>Blanco</t>
+  </si>
+  <si>
+    <t>DOR03G</t>
+  </si>
+  <si>
+    <t>Extensión (10cm)</t>
+  </si>
+  <si>
+    <t>DOR05G</t>
+  </si>
+  <si>
+    <t>Extensión (30cm)</t>
+  </si>
+  <si>
+    <t>DOR02G</t>
+  </si>
+  <si>
+    <t>Extensión (7cm)</t>
+  </si>
+  <si>
+    <t>DOR06G</t>
+  </si>
+  <si>
+    <t>Extensión (45cm)</t>
+  </si>
+  <si>
+    <t>HxG Pesas para tobillo y muñecas con correas ajustables para ejercicios de fitness. Tobilleras con peso 1kg. (Set 2 Pesas) Tu casa es tu gimnasio.</t>
+  </si>
+  <si>
+    <t>HG-W81000</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Mancuerna Ajustable de 3,5kgs a 32kgs – 1 Unidad | Diseño Ergonómico, Revestimiento de Caucho, Ideal para Casa y Gimnasio, entrega de 48 a 72 horas</t>
+  </si>
+  <si>
+    <t>AD32</t>
+  </si>
+  <si>
+    <t>Negro</t>
+  </si>
+  <si>
+    <t>Mancuerna Ajustable de 3kgs a 20kgs – 1 Unidad | Diseño Ergonómico, Revestimiento de Caucho, Ideal para Casa y Gimnasio, entrega de 48 a 72 horas</t>
+  </si>
+  <si>
+    <t>HG-AD20MAL</t>
+  </si>
+  <si>
+    <t>Mancuerna Ajustable de 2,5kgs a 24kgs – 1 Unidad | Diseño Ergonómico, Revestimiento de Caucho, Ideal para Casa y Gimnasio, entrega de 48 a 72 horas</t>
+  </si>
+  <si>
+    <t>HG-AD24MAL</t>
+  </si>
+  <si>
+    <t>Mancuerna Ajustable de 5kgs a 40kgs – 1 Unidad | Diseño Ergonómico, Revestimiento de Caucho, Ideal para Casa y Gimnasio, entrega de 48 a 72 horas</t>
+  </si>
+  <si>
+    <t>AD40</t>
+  </si>
+  <si>
+    <t>Mancuerna Ajustable de 2kgs a 12kgs – 1 Unidad | Diseño Ergonómico, Revestimiento de Caucho, Ideal para Casa y Gimnasio</t>
+  </si>
+  <si>
+    <t>Bandas de Suspensión Tipo TRX en Colores Rojo, Azul, Amarillo y Verde – Sistema de Entrenamiento en Suspensión Ajustable para Entrenamiento Funcional, Fuerza y Estabilidad en Casa o Gimnasio | Entrega en 48-72 h</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>Rojo</t>
+  </si>
+  <si>
+    <t>Fitball de 65 cm con Inflador Incluido – Pelota de Ejercicio Antideslizante y Antiestallido para Yoga, Pilates, Rehabilitación y Entrenamiento Funcional en Casa o Gimnasio | Entrega en 48-72 h</t>
+  </si>
+  <si>
+    <t>Comba de Aluminio con Cable de Acero Resistente y Mango Ergonómico – Colores Aluminio, Rojo, Negro, Azul y Amarillo – Ajustable en Longitud hasta 3 metros para Entrenamientos de Alta Velocidad, Saltos y Cardio Eficiente | Entrega en 48-72 h</t>
+  </si>
+  <si>
+    <t>HG-JR180AM</t>
+  </si>
+  <si>
+    <t>HG-JR180G</t>
+  </si>
+  <si>
+    <t>Aluminio</t>
+  </si>
+  <si>
+    <t>HG-JR180R</t>
+  </si>
+  <si>
+    <t>HG-JR180N</t>
+  </si>
+  <si>
+    <t>HG-JR180AZ</t>
+  </si>
+  <si>
+    <t>Comba de PVC con Cable de Acero y Mango Ergonómico – Disponible en Colores Rojo, Azul, Negro y Amarillo – Ajustable en Longitud hasta 3 metros para Entrenamientos de Alta Velocidad, Saltos y Cardio | Entrega en 48-72 h</t>
+  </si>
+  <si>
+    <t>Tatami puzzle reversible en varios colores de 2 cm de grosor en goma EVA antideslizante, colchoneta deportiva de suelo para artes marciales, juegos infantiles, entrenamiento en casa, 100x100 cm con bordes incluidos, entrega de 48 a 72 horas.</t>
+  </si>
+  <si>
+    <t>Marron/Beige</t>
+  </si>
+  <si>
+    <t>Blanco/Verde oliva</t>
+  </si>
+  <si>
+    <t>Madera</t>
+  </si>
+  <si>
+    <t>Negro/Rojo</t>
+  </si>
+  <si>
+    <t>Verde/Amarillo</t>
+  </si>
+  <si>
+    <t>Lila/Naranja</t>
+  </si>
+  <si>
+    <t>Negro/Gris</t>
   </si>
   <si>
     <t>ESPAÑA</t>
@@ -2031,7 +2275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2049,22 +2293,66 @@
     </font>
     <font>
       <b/>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font/>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -2117,25 +2405,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2160,25 +2434,52 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2254,6 +2555,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2475,6 +2780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8066,6 +8372,9 @@
       <c r="H321" s="4"/>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -8074,6 +8383,880 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="77.25"/>
+    <col customWidth="1" min="2" max="2" width="23.63"/>
+    <col customWidth="1" min="3" max="3" width="20.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="11" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="11" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="11" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="14"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8087,2942 +9270,2942 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
+      <c r="C1" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="20" t="s">
+        <v>730</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
-        <v>650</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>651</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>652</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>650</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>651</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>652</v>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="26">
         <v>4.24</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="26">
         <v>4.72</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="27">
         <f t="shared" ref="E3:E164" si="1">AVERAGE(C3:D3)</f>
         <v>4.48</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="26">
         <v>4.24</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="26">
         <v>4.72</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="27">
         <f t="shared" si="1"/>
         <v>4.48</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="26">
         <v>4.24</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="26">
         <v>4.72</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="27">
         <f t="shared" si="1"/>
         <v>4.48</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="26">
         <v>3.74</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="26">
         <v>4.16</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="27">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="26">
         <v>3.74</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="26">
         <v>4.16</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="27">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="26">
         <v>3.74</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="26">
         <v>4.16</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="27">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="26">
         <v>3.74</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="26">
         <v>4.16</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="27">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="26">
         <v>7.59</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="26">
         <v>10.05</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="27">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>654</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="26">
         <v>7.59</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="26">
         <v>10.05</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="27">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="26">
         <v>7.59</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="26">
         <v>10.05</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="27">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="26">
         <v>9.37</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="26">
         <v>12.85</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="27">
         <f t="shared" si="1"/>
         <v>11.11</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="26">
         <v>9.37</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="26">
         <v>12.85</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="27">
         <f t="shared" si="1"/>
         <v>11.11</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19">
-      <c r="A19" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20">
-      <c r="A20" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="25" t="s">
+        <v>738</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23">
-      <c r="A23" s="14" t="s">
-        <v>658</v>
-      </c>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="25" t="s">
+        <v>739</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24">
-      <c r="A24" s="14" t="s">
-        <v>659</v>
-      </c>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="25" t="s">
+        <v>740</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25">
-      <c r="A25" s="14" t="s">
-        <v>660</v>
-      </c>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26">
-      <c r="A26" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27">
-      <c r="A27" s="14" t="s">
-        <v>662</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28">
-      <c r="A28" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="26">
         <v>4.49</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="26">
         <v>4.99</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="27">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="26">
         <v>4.49</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="26">
         <v>4.99</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="27">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="26">
         <v>4.49</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="26">
         <v>4.99</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="27">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="26">
         <v>4.49</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="26">
         <v>4.99</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="27">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="26">
         <v>4.49</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="26">
         <v>4.99</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="27">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="26">
         <v>4.49</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="26">
         <v>4.99</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="27">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="26">
         <v>4.49</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="26">
         <v>4.99</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="27">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="26">
         <v>4.49</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="26">
         <v>4.99</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="27">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="26">
         <v>4.49</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="26">
         <v>4.99</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="27">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="38">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="26">
         <v>4.49</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="26">
         <v>4.99</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="27">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="26">
         <v>4.49</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="26">
         <v>4.99</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="27">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="26">
         <v>5.57</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="26">
         <v>6.55</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="27">
         <f t="shared" si="1"/>
         <v>6.06</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="26">
         <v>5.57</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="26">
         <v>6.55</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="27">
         <f t="shared" si="1"/>
         <v>6.06</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="26">
         <v>5.57</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="26">
         <v>6.55</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="27">
         <f t="shared" si="1"/>
         <v>6.06</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
     </row>
     <row r="43">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="26">
         <v>5.57</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="26">
         <v>6.55</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="27">
         <f t="shared" si="1"/>
         <v>6.06</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
     </row>
     <row r="44">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
     </row>
     <row r="45">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
     </row>
     <row r="46">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
     </row>
     <row r="47">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
     </row>
     <row r="48">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
     </row>
     <row r="49">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
     </row>
     <row r="50">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
     </row>
     <row r="51">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
     </row>
     <row r="52">
-      <c r="A52" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="B52" s="14" t="s">
+      <c r="A52" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="B52" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
     </row>
     <row r="53">
-      <c r="A53" s="14" t="s">
-        <v>665</v>
-      </c>
-      <c r="B53" s="14" t="s">
+      <c r="A53" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B53" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="26">
         <v>4.49</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="26">
         <v>4.99</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="27">
         <f t="shared" si="1"/>
         <v>4.74</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
     </row>
     <row r="54">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
     </row>
     <row r="55">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
     </row>
     <row r="56">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
     </row>
     <row r="57">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
     </row>
     <row r="58">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
     </row>
     <row r="59">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
     </row>
     <row r="60">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
     </row>
     <row r="61">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
     </row>
     <row r="62">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
     </row>
     <row r="63">
-      <c r="A63" s="14" t="s">
-        <v>666</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>667</v>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
+      <c r="A63" s="25" t="s">
+        <v>747</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
     </row>
     <row r="64">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
     </row>
     <row r="65">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
     </row>
     <row r="66">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
     </row>
     <row r="67">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
     </row>
     <row r="68">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
     </row>
     <row r="69">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
     </row>
     <row r="70">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
     </row>
     <row r="71">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
     </row>
     <row r="72">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="26">
         <v>7.59</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="26">
         <v>10.05</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="27">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
     </row>
     <row r="73">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="26">
         <v>11.45</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="26">
         <v>16.45</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="27">
         <f t="shared" si="1"/>
         <v>13.95</v>
       </c>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
     </row>
     <row r="74">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="26">
         <v>11.45</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="26">
         <v>16.52</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="27">
         <f t="shared" si="1"/>
         <v>13.985</v>
       </c>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
     </row>
     <row r="75">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="26">
         <v>14.22</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="26">
         <v>21.36</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="27">
         <f t="shared" si="1"/>
         <v>17.79</v>
       </c>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
     </row>
     <row r="76">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="26">
         <v>17.1</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="26">
         <v>25.72</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="27">
         <f t="shared" si="1"/>
         <v>21.41</v>
       </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
     </row>
     <row r="77">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="26">
         <v>9.37</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="26">
         <v>12.85</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E77" s="27">
         <f t="shared" si="1"/>
         <v>11.11</v>
       </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
     </row>
     <row r="78">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="26">
         <v>7.59</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="26">
         <v>10.05</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E78" s="27">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
     </row>
     <row r="79">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="26">
         <v>7.59</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="26">
         <v>10.05</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E79" s="27">
         <f t="shared" si="1"/>
         <v>8.82</v>
       </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
     </row>
     <row r="80">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
     </row>
     <row r="81">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
     </row>
     <row r="82">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
     </row>
     <row r="83">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
     </row>
     <row r="84">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
     </row>
     <row r="85">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
     </row>
     <row r="86">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
     </row>
     <row r="87">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
     </row>
     <row r="88">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
     </row>
     <row r="89">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
     </row>
     <row r="90">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
     </row>
     <row r="91">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
     </row>
     <row r="92">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
     </row>
     <row r="93">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
     </row>
     <row r="94">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
     </row>
     <row r="95">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
     </row>
     <row r="96">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
     </row>
     <row r="97">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
     </row>
     <row r="98">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
     </row>
     <row r="99">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
     </row>
     <row r="100">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
     </row>
     <row r="101">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
     </row>
     <row r="102">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
     </row>
     <row r="103">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
     </row>
     <row r="104">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
     </row>
     <row r="105">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
     </row>
     <row r="106">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
     </row>
     <row r="107">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
     </row>
     <row r="108">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
     </row>
     <row r="109">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
     </row>
     <row r="110">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
     </row>
     <row r="111">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
     </row>
     <row r="112">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
     </row>
     <row r="113">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
     </row>
     <row r="114">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
     </row>
     <row r="115">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
     </row>
     <row r="116">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
     </row>
     <row r="117">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
     </row>
     <row r="118">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
     </row>
     <row r="119">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
     </row>
     <row r="120">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
     </row>
     <row r="121">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
     </row>
     <row r="122">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
     </row>
     <row r="123">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
     </row>
     <row r="124">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
     </row>
     <row r="125">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
     </row>
     <row r="126">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
     </row>
     <row r="127">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
     </row>
     <row r="128">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
     </row>
     <row r="129">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F129" s="16"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F129" s="27"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
     </row>
     <row r="130">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F130" s="16"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F130" s="27"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="26"/>
     </row>
     <row r="131">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F131" s="16"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F131" s="27"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
     </row>
     <row r="132">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F132" s="16"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F132" s="27"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="26"/>
     </row>
     <row r="133">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F133" s="16"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F133" s="27"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="26"/>
     </row>
     <row r="134">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
     </row>
     <row r="135">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
     </row>
     <row r="136">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F136" s="16"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F136" s="27"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
     </row>
     <row r="137">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16"/>
-      <c r="H137" s="16"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F137" s="27"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27"/>
     </row>
     <row r="138">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
-      <c r="H138" s="16"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
     </row>
     <row r="139">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F139" s="27"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
     </row>
     <row r="140">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F140" s="27"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
     </row>
     <row r="141">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="16"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F141" s="27"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
     </row>
     <row r="142">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="16"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="27"/>
+      <c r="E142" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F142" s="27"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
     </row>
     <row r="143">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F143" s="16"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="16"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F143" s="27"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
     </row>
     <row r="144">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="C144" s="16"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F144" s="16"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="16"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F144" s="27"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
     </row>
     <row r="145">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F145" s="16"/>
-      <c r="G145" s="16"/>
-      <c r="H145" s="16"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F145" s="27"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="27"/>
     </row>
     <row r="146">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B146" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F146" s="16"/>
-      <c r="G146" s="16"/>
-      <c r="H146" s="16"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F146" s="27"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
     </row>
     <row r="147">
-      <c r="A147" s="14" t="s">
+      <c r="A147" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F147" s="16"/>
-      <c r="G147" s="16"/>
-      <c r="H147" s="16"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F147" s="27"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="27"/>
     </row>
     <row r="148">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F148" s="16"/>
-      <c r="G148" s="16"/>
-      <c r="H148" s="16"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
     </row>
     <row r="149">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
     </row>
     <row r="150">
-      <c r="A150" s="14" t="s">
+      <c r="A150" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F150" s="16"/>
-      <c r="G150" s="16"/>
-      <c r="H150" s="16"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F150" s="27"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27"/>
     </row>
     <row r="151">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F151" s="16"/>
-      <c r="G151" s="16"/>
-      <c r="H151" s="16"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F151" s="27"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="27"/>
     </row>
     <row r="152">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="25" t="s">
         <v>512</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F152" s="16"/>
-      <c r="G152" s="16"/>
-      <c r="H152" s="16"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="27"/>
     </row>
     <row r="153">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="25" t="s">
         <v>514</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="16"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="27"/>
     </row>
     <row r="154">
-      <c r="A154" s="14" t="s">
+      <c r="A154" s="25" t="s">
         <v>516</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F154" s="16"/>
-      <c r="G154" s="16"/>
-      <c r="H154" s="16"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
     </row>
     <row r="155">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F155" s="16"/>
-      <c r="G155" s="16"/>
-      <c r="H155" s="16"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
     </row>
     <row r="156">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F156" s="16"/>
-      <c r="G156" s="16"/>
-      <c r="H156" s="16"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
     </row>
     <row r="157">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="25" t="s">
         <v>523</v>
       </c>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F157" s="16"/>
-      <c r="G157" s="16"/>
-      <c r="H157" s="16"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F157" s="27"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
     </row>
     <row r="158">
-      <c r="A158" s="14" t="s">
+      <c r="A158" s="25" t="s">
         <v>524</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="25" t="s">
         <v>525</v>
       </c>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F158" s="16"/>
-      <c r="G158" s="16"/>
-      <c r="H158" s="16"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
     </row>
     <row r="159">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="25" t="s">
         <v>527</v>
       </c>
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F159" s="16"/>
-      <c r="G159" s="16"/>
-      <c r="H159" s="16"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
     </row>
     <row r="160">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="25" t="s">
         <v>529</v>
       </c>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F160" s="16"/>
-      <c r="G160" s="16"/>
-      <c r="H160" s="16"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
     </row>
     <row r="161">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="25" t="s">
         <v>531</v>
       </c>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F161" s="16"/>
-      <c r="G161" s="16"/>
-      <c r="H161" s="16"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
     </row>
     <row r="162">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="25" t="s">
         <v>533</v>
       </c>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F162" s="16"/>
-      <c r="G162" s="16"/>
-      <c r="H162" s="16"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
     </row>
     <row r="163">
-      <c r="A163" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="B163" s="14" t="s">
+      <c r="A163" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="B163" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F163" s="16"/>
-      <c r="G163" s="16"/>
-      <c r="H163" s="16"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F163" s="27"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
     </row>
     <row r="164">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="B164" s="14" t="s">
-        <v>669</v>
-      </c>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F164" s="16"/>
-      <c r="G164" s="16"/>
-      <c r="H164" s="16"/>
+      <c r="B164" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="C164" s="27"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F164" s="27"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="1020">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -2648,6 +2648,9 @@
   </si>
   <si>
     <t>JW-8T20B</t>
+  </si>
+  <si>
+    <t>JW-F20</t>
   </si>
   <si>
     <t>JW-PPT04</t>
@@ -3610,7 +3613,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E298" displayName="Tabla_1" name="Tabla_1" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E299" displayName="Tabla_1" name="Tabla_1" id="2">
   <tableColumns count="5">
     <tableColumn name="old_sku" id="1"/>
     <tableColumn name="new_sku" id="2"/>
@@ -12060,35 +12063,33 @@
         <v>878</v>
       </c>
       <c r="B217" s="33" t="s">
-        <v>604</v>
+        <v>416</v>
       </c>
       <c r="C217" s="30"/>
       <c r="D217" s="30"/>
       <c r="E217" s="30"/>
     </row>
     <row r="218" ht="22.5" customHeight="1">
-      <c r="A218" s="39" t="s">
+      <c r="A218" s="28" t="s">
+        <v>879</v>
+      </c>
+      <c r="B218" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="C218" s="30"/>
+      <c r="D218" s="30"/>
+      <c r="E218" s="30"/>
+    </row>
+    <row r="219" ht="22.5" customHeight="1">
+      <c r="A219" s="39" t="s">
         <v>534</v>
       </c>
-      <c r="B218" s="40"/>
-      <c r="C218" s="41"/>
-      <c r="D218" s="41">
+      <c r="B219" s="40"/>
+      <c r="C219" s="41"/>
+      <c r="D219" s="41">
         <v>4.0</v>
       </c>
-      <c r="E218" s="41"/>
-    </row>
-    <row r="219" ht="22.5" customHeight="1">
-      <c r="A219" s="37" t="s">
-        <v>879</v>
-      </c>
-      <c r="B219" s="45" t="s">
-        <v>534</v>
-      </c>
-      <c r="C219" s="38"/>
-      <c r="D219" s="38">
-        <v>12.0</v>
-      </c>
-      <c r="E219" s="38"/>
+      <c r="E219" s="41"/>
     </row>
     <row r="220" ht="22.5" customHeight="1">
       <c r="A220" s="37" t="s">
@@ -12099,7 +12100,7 @@
       </c>
       <c r="C220" s="38"/>
       <c r="D220" s="38">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E220" s="38"/>
     </row>
@@ -12112,7 +12113,7 @@
       </c>
       <c r="C221" s="38"/>
       <c r="D221" s="38">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="E221" s="38"/>
     </row>
@@ -12125,7 +12126,7 @@
       </c>
       <c r="C222" s="38"/>
       <c r="D222" s="38">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="E222" s="38"/>
     </row>
@@ -12138,7 +12139,7 @@
       </c>
       <c r="C223" s="38"/>
       <c r="D223" s="38">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="E223" s="38"/>
     </row>
@@ -12151,7 +12152,7 @@
       </c>
       <c r="C224" s="38"/>
       <c r="D224" s="38">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="E224" s="38"/>
     </row>
@@ -12164,7 +12165,7 @@
       </c>
       <c r="C225" s="38"/>
       <c r="D225" s="38">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="E225" s="38"/>
     </row>
@@ -12177,7 +12178,7 @@
       </c>
       <c r="C226" s="38"/>
       <c r="D226" s="38">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="E226" s="38"/>
     </row>
@@ -12190,7 +12191,7 @@
       </c>
       <c r="C227" s="38"/>
       <c r="D227" s="38">
-        <v>40.0</v>
+        <v>4.0</v>
       </c>
       <c r="E227" s="38"/>
     </row>
@@ -12203,7 +12204,7 @@
       </c>
       <c r="C228" s="38"/>
       <c r="D228" s="38">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="E228" s="38"/>
     </row>
@@ -12216,7 +12217,7 @@
       </c>
       <c r="C229" s="38"/>
       <c r="D229" s="38">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="E229" s="38"/>
     </row>
@@ -12229,33 +12230,33 @@
       </c>
       <c r="C230" s="38"/>
       <c r="D230" s="38">
+        <v>48.0</v>
+      </c>
+      <c r="E230" s="38"/>
+    </row>
+    <row r="231" ht="22.5" customHeight="1">
+      <c r="A231" s="37" t="s">
+        <v>891</v>
+      </c>
+      <c r="B231" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="C231" s="38"/>
+      <c r="D231" s="38">
         <v>8.0</v>
       </c>
-      <c r="E230" s="38"/>
-    </row>
-    <row r="231" ht="22.5" customHeight="1">
-      <c r="A231" s="39" t="s">
+      <c r="E231" s="38"/>
+    </row>
+    <row r="232" ht="22.5" customHeight="1">
+      <c r="A232" s="39" t="s">
         <v>536</v>
       </c>
-      <c r="B231" s="40"/>
-      <c r="C231" s="41"/>
-      <c r="D231" s="41">
+      <c r="B232" s="40"/>
+      <c r="C232" s="41"/>
+      <c r="D232" s="41">
         <v>4.0</v>
       </c>
-      <c r="E231" s="41"/>
-    </row>
-    <row r="232" ht="22.5" customHeight="1">
-      <c r="A232" s="37" t="s">
-        <v>891</v>
-      </c>
-      <c r="B232" s="45" t="s">
-        <v>536</v>
-      </c>
-      <c r="C232" s="38"/>
-      <c r="D232" s="38">
-        <v>12.0</v>
-      </c>
-      <c r="E232" s="38"/>
+      <c r="E232" s="41"/>
     </row>
     <row r="233" ht="22.5" customHeight="1">
       <c r="A233" s="37" t="s">
@@ -12266,7 +12267,7 @@
       </c>
       <c r="C233" s="38"/>
       <c r="D233" s="38">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E233" s="38"/>
     </row>
@@ -12279,7 +12280,7 @@
       </c>
       <c r="C234" s="38"/>
       <c r="D234" s="38">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="E234" s="38"/>
     </row>
@@ -12292,7 +12293,7 @@
       </c>
       <c r="C235" s="38"/>
       <c r="D235" s="38">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="E235" s="38"/>
     </row>
@@ -12305,7 +12306,7 @@
       </c>
       <c r="C236" s="38"/>
       <c r="D236" s="38">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="E236" s="38"/>
     </row>
@@ -12318,7 +12319,7 @@
       </c>
       <c r="C237" s="38"/>
       <c r="D237" s="38">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="E237" s="38"/>
     </row>
@@ -12331,7 +12332,7 @@
       </c>
       <c r="C238" s="38"/>
       <c r="D238" s="38">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="E238" s="38"/>
     </row>
@@ -12344,7 +12345,7 @@
       </c>
       <c r="C239" s="38"/>
       <c r="D239" s="38">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="E239" s="38"/>
     </row>
@@ -12357,7 +12358,7 @@
       </c>
       <c r="C240" s="38"/>
       <c r="D240" s="38">
-        <v>40.0</v>
+        <v>4.0</v>
       </c>
       <c r="E240" s="38"/>
     </row>
@@ -12370,7 +12371,7 @@
       </c>
       <c r="C241" s="38"/>
       <c r="D241" s="38">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="E241" s="38"/>
     </row>
@@ -12383,7 +12384,7 @@
       </c>
       <c r="C242" s="38"/>
       <c r="D242" s="38">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="E242" s="38"/>
     </row>
@@ -12396,33 +12397,33 @@
       </c>
       <c r="C243" s="38"/>
       <c r="D243" s="38">
+        <v>48.0</v>
+      </c>
+      <c r="E243" s="38"/>
+    </row>
+    <row r="244" ht="22.5" customHeight="1">
+      <c r="A244" s="37" t="s">
+        <v>903</v>
+      </c>
+      <c r="B244" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C244" s="38"/>
+      <c r="D244" s="38">
         <v>8.0</v>
       </c>
-      <c r="E243" s="38"/>
-    </row>
-    <row r="244" ht="22.5" customHeight="1">
-      <c r="A244" s="39" t="s">
+      <c r="E244" s="38"/>
+    </row>
+    <row r="245" ht="22.5" customHeight="1">
+      <c r="A245" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="B244" s="40"/>
-      <c r="C244" s="41"/>
-      <c r="D244" s="41">
+      <c r="B245" s="40"/>
+      <c r="C245" s="41"/>
+      <c r="D245" s="41">
         <v>4.0</v>
       </c>
-      <c r="E244" s="41"/>
-    </row>
-    <row r="245" ht="22.5" customHeight="1">
-      <c r="A245" s="37" t="s">
-        <v>903</v>
-      </c>
-      <c r="B245" s="45" t="s">
-        <v>538</v>
-      </c>
-      <c r="C245" s="38"/>
-      <c r="D245" s="38">
-        <v>12.0</v>
-      </c>
-      <c r="E245" s="38"/>
+      <c r="E245" s="41"/>
     </row>
     <row r="246" ht="22.5" customHeight="1">
       <c r="A246" s="37" t="s">
@@ -12433,7 +12434,7 @@
       </c>
       <c r="C246" s="38"/>
       <c r="D246" s="38">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E246" s="38"/>
     </row>
@@ -12446,7 +12447,7 @@
       </c>
       <c r="C247" s="38"/>
       <c r="D247" s="38">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="E247" s="38"/>
     </row>
@@ -12459,7 +12460,7 @@
       </c>
       <c r="C248" s="38"/>
       <c r="D248" s="38">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="E248" s="38"/>
     </row>
@@ -12472,7 +12473,7 @@
       </c>
       <c r="C249" s="38"/>
       <c r="D249" s="38">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="E249" s="38"/>
     </row>
@@ -12485,7 +12486,7 @@
       </c>
       <c r="C250" s="38"/>
       <c r="D250" s="38">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="E250" s="38"/>
     </row>
@@ -12498,7 +12499,7 @@
       </c>
       <c r="C251" s="38"/>
       <c r="D251" s="38">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="E251" s="38"/>
     </row>
@@ -12511,7 +12512,7 @@
       </c>
       <c r="C252" s="38"/>
       <c r="D252" s="38">
-        <v>40.0</v>
+        <v>4.0</v>
       </c>
       <c r="E252" s="38"/>
     </row>
@@ -12524,7 +12525,7 @@
       </c>
       <c r="C253" s="38"/>
       <c r="D253" s="38">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="E253" s="38"/>
     </row>
@@ -12537,7 +12538,7 @@
       </c>
       <c r="C254" s="38"/>
       <c r="D254" s="38">
-        <v>44.0</v>
+        <v>32.0</v>
       </c>
       <c r="E254" s="38"/>
     </row>
@@ -12550,7 +12551,7 @@
       </c>
       <c r="C255" s="38"/>
       <c r="D255" s="38">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="E255" s="38"/>
     </row>
@@ -12563,33 +12564,33 @@
       </c>
       <c r="C256" s="38"/>
       <c r="D256" s="38">
+        <v>48.0</v>
+      </c>
+      <c r="E256" s="38"/>
+    </row>
+    <row r="257" ht="22.5" customHeight="1">
+      <c r="A257" s="37" t="s">
+        <v>915</v>
+      </c>
+      <c r="B257" s="45" t="s">
+        <v>538</v>
+      </c>
+      <c r="C257" s="38"/>
+      <c r="D257" s="38">
         <v>8.0</v>
       </c>
-      <c r="E256" s="38"/>
-    </row>
-    <row r="257" ht="22.5" customHeight="1">
-      <c r="A257" s="39" t="s">
+      <c r="E257" s="38"/>
+    </row>
+    <row r="258" ht="22.5" customHeight="1">
+      <c r="A258" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="B257" s="40"/>
-      <c r="C257" s="41"/>
-      <c r="D257" s="41">
+      <c r="B258" s="40"/>
+      <c r="C258" s="41"/>
+      <c r="D258" s="41">
         <v>4.0</v>
       </c>
-      <c r="E257" s="41"/>
-    </row>
-    <row r="258" ht="22.5" customHeight="1">
-      <c r="A258" s="37" t="s">
-        <v>915</v>
-      </c>
-      <c r="B258" s="45" t="s">
-        <v>540</v>
-      </c>
-      <c r="C258" s="38"/>
-      <c r="D258" s="38">
-        <v>12.0</v>
-      </c>
-      <c r="E258" s="38"/>
+      <c r="E258" s="41"/>
     </row>
     <row r="259" ht="22.5" customHeight="1">
       <c r="A259" s="37" t="s">
@@ -12600,7 +12601,7 @@
       </c>
       <c r="C259" s="38"/>
       <c r="D259" s="38">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E259" s="38"/>
     </row>
@@ -12613,7 +12614,7 @@
       </c>
       <c r="C260" s="38"/>
       <c r="D260" s="38">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="E260" s="38"/>
     </row>
@@ -12626,7 +12627,7 @@
       </c>
       <c r="C261" s="38"/>
       <c r="D261" s="38">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="E261" s="38"/>
     </row>
@@ -12639,7 +12640,7 @@
       </c>
       <c r="C262" s="38"/>
       <c r="D262" s="38">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="E262" s="38"/>
     </row>
@@ -12652,7 +12653,7 @@
       </c>
       <c r="C263" s="38"/>
       <c r="D263" s="38">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="E263" s="38"/>
     </row>
@@ -12665,7 +12666,7 @@
       </c>
       <c r="C264" s="38"/>
       <c r="D264" s="38">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="E264" s="38"/>
     </row>
@@ -12678,7 +12679,7 @@
       </c>
       <c r="C265" s="38"/>
       <c r="D265" s="38">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="E265" s="38"/>
     </row>
@@ -12691,7 +12692,7 @@
       </c>
       <c r="C266" s="38"/>
       <c r="D266" s="38">
-        <v>40.0</v>
+        <v>4.0</v>
       </c>
       <c r="E266" s="38"/>
     </row>
@@ -12704,7 +12705,7 @@
       </c>
       <c r="C267" s="38"/>
       <c r="D267" s="38">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="E267" s="38"/>
     </row>
@@ -12717,7 +12718,7 @@
       </c>
       <c r="C268" s="38"/>
       <c r="D268" s="38">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="E268" s="38"/>
     </row>
@@ -12730,33 +12731,33 @@
       </c>
       <c r="C269" s="38"/>
       <c r="D269" s="38">
+        <v>48.0</v>
+      </c>
+      <c r="E269" s="38"/>
+    </row>
+    <row r="270" ht="22.5" customHeight="1">
+      <c r="A270" s="37" t="s">
+        <v>927</v>
+      </c>
+      <c r="B270" s="45" t="s">
+        <v>540</v>
+      </c>
+      <c r="C270" s="38"/>
+      <c r="D270" s="38">
         <v>8.0</v>
       </c>
-      <c r="E269" s="38"/>
-    </row>
-    <row r="270" ht="22.5" customHeight="1">
-      <c r="A270" s="39" t="s">
+      <c r="E270" s="38"/>
+    </row>
+    <row r="271" ht="22.5" customHeight="1">
+      <c r="A271" s="39" t="s">
         <v>542</v>
       </c>
-      <c r="B270" s="40"/>
-      <c r="C270" s="41"/>
-      <c r="D270" s="41">
+      <c r="B271" s="40"/>
+      <c r="C271" s="41"/>
+      <c r="D271" s="41">
         <v>4.0</v>
       </c>
-      <c r="E270" s="41"/>
-    </row>
-    <row r="271" ht="22.5" customHeight="1">
-      <c r="A271" s="37" t="s">
-        <v>927</v>
-      </c>
-      <c r="B271" s="45" t="s">
-        <v>542</v>
-      </c>
-      <c r="C271" s="38"/>
-      <c r="D271" s="38">
-        <v>12.0</v>
-      </c>
-      <c r="E271" s="38"/>
+      <c r="E271" s="41"/>
     </row>
     <row r="272" ht="22.5" customHeight="1">
       <c r="A272" s="37" t="s">
@@ -12767,7 +12768,7 @@
       </c>
       <c r="C272" s="38"/>
       <c r="D272" s="38">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E272" s="38"/>
     </row>
@@ -12780,7 +12781,7 @@
       </c>
       <c r="C273" s="38"/>
       <c r="D273" s="38">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="E273" s="38"/>
     </row>
@@ -12793,7 +12794,7 @@
       </c>
       <c r="C274" s="38"/>
       <c r="D274" s="38">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="E274" s="38"/>
     </row>
@@ -12806,7 +12807,7 @@
       </c>
       <c r="C275" s="38"/>
       <c r="D275" s="38">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="E275" s="38"/>
     </row>
@@ -12819,7 +12820,7 @@
       </c>
       <c r="C276" s="38"/>
       <c r="D276" s="38">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="E276" s="38"/>
     </row>
@@ -12832,7 +12833,7 @@
       </c>
       <c r="C277" s="38"/>
       <c r="D277" s="38">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="E277" s="38"/>
     </row>
@@ -12845,7 +12846,7 @@
       </c>
       <c r="C278" s="38"/>
       <c r="D278" s="38">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="E278" s="38"/>
     </row>
@@ -12858,7 +12859,7 @@
       </c>
       <c r="C279" s="38"/>
       <c r="D279" s="38">
-        <v>40.0</v>
+        <v>4.0</v>
       </c>
       <c r="E279" s="38"/>
     </row>
@@ -12871,7 +12872,7 @@
       </c>
       <c r="C280" s="38"/>
       <c r="D280" s="38">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="E280" s="38"/>
     </row>
@@ -12884,7 +12885,7 @@
       </c>
       <c r="C281" s="38"/>
       <c r="D281" s="38">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="E281" s="38"/>
     </row>
@@ -12897,33 +12898,33 @@
       </c>
       <c r="C282" s="38"/>
       <c r="D282" s="38">
+        <v>48.0</v>
+      </c>
+      <c r="E282" s="38"/>
+    </row>
+    <row r="283" ht="22.5" customHeight="1">
+      <c r="A283" s="37" t="s">
+        <v>939</v>
+      </c>
+      <c r="B283" s="45" t="s">
+        <v>542</v>
+      </c>
+      <c r="C283" s="38"/>
+      <c r="D283" s="38">
         <v>8.0</v>
       </c>
-      <c r="E282" s="38"/>
-    </row>
-    <row r="283" ht="22.5" customHeight="1">
-      <c r="A283" s="39" t="s">
+      <c r="E283" s="38"/>
+    </row>
+    <row r="284" ht="22.5" customHeight="1">
+      <c r="A284" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="B283" s="40"/>
-      <c r="C283" s="41"/>
-      <c r="D283" s="41">
+      <c r="B284" s="40"/>
+      <c r="C284" s="41"/>
+      <c r="D284" s="41">
         <v>4.0</v>
       </c>
-      <c r="E283" s="41"/>
-    </row>
-    <row r="284" ht="22.5" customHeight="1">
-      <c r="A284" s="37" t="s">
-        <v>939</v>
-      </c>
-      <c r="B284" s="45" t="s">
-        <v>544</v>
-      </c>
-      <c r="C284" s="38"/>
-      <c r="D284" s="38">
-        <v>12.0</v>
-      </c>
-      <c r="E284" s="38"/>
+      <c r="E284" s="41"/>
     </row>
     <row r="285" ht="22.5" customHeight="1">
       <c r="A285" s="37" t="s">
@@ -12934,7 +12935,7 @@
       </c>
       <c r="C285" s="38"/>
       <c r="D285" s="38">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E285" s="38"/>
     </row>
@@ -12947,7 +12948,7 @@
       </c>
       <c r="C286" s="38"/>
       <c r="D286" s="38">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="E286" s="38"/>
     </row>
@@ -12960,7 +12961,7 @@
       </c>
       <c r="C287" s="38"/>
       <c r="D287" s="38">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="E287" s="38"/>
     </row>
@@ -12973,7 +12974,7 @@
       </c>
       <c r="C288" s="38"/>
       <c r="D288" s="38">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="E288" s="38"/>
     </row>
@@ -12986,7 +12987,7 @@
       </c>
       <c r="C289" s="38"/>
       <c r="D289" s="38">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="E289" s="38"/>
     </row>
@@ -12999,7 +13000,7 @@
       </c>
       <c r="C290" s="38"/>
       <c r="D290" s="38">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="E290" s="38"/>
     </row>
@@ -13012,7 +13013,7 @@
       </c>
       <c r="C291" s="38"/>
       <c r="D291" s="38">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="E291" s="38"/>
     </row>
@@ -13025,7 +13026,7 @@
       </c>
       <c r="C292" s="38"/>
       <c r="D292" s="38">
-        <v>40.0</v>
+        <v>4.0</v>
       </c>
       <c r="E292" s="38"/>
     </row>
@@ -13038,7 +13039,7 @@
       </c>
       <c r="C293" s="38"/>
       <c r="D293" s="38">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="E293" s="38"/>
     </row>
@@ -13051,7 +13052,7 @@
       </c>
       <c r="C294" s="38"/>
       <c r="D294" s="38">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="E294" s="38"/>
     </row>
@@ -13064,27 +13065,29 @@
       </c>
       <c r="C295" s="38"/>
       <c r="D295" s="38">
+        <v>48.0</v>
+      </c>
+      <c r="E295" s="38"/>
+    </row>
+    <row r="296" ht="22.5" customHeight="1">
+      <c r="A296" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="B296" s="45" t="s">
+        <v>544</v>
+      </c>
+      <c r="C296" s="38"/>
+      <c r="D296" s="38">
         <v>8.0</v>
       </c>
-      <c r="E295" s="38"/>
-    </row>
-    <row r="296" ht="22.5" customHeight="1">
-      <c r="A296" s="28" t="s">
-        <v>951</v>
-      </c>
-      <c r="B296" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C296" s="29"/>
-      <c r="D296" s="29"/>
-      <c r="E296" s="29"/>
+      <c r="E296" s="38"/>
     </row>
     <row r="297" ht="22.5" customHeight="1">
       <c r="A297" s="28" t="s">
         <v>952</v>
       </c>
       <c r="B297" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C297" s="29"/>
       <c r="D297" s="29"/>
@@ -13095,18 +13098,22 @@
         <v>953</v>
       </c>
       <c r="B298" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C298" s="29"/>
       <c r="D298" s="29"/>
       <c r="E298" s="29"/>
     </row>
-    <row r="299">
-      <c r="A299" s="46"/>
-      <c r="B299" s="47"/>
-      <c r="C299" s="48"/>
-      <c r="D299" s="48"/>
-      <c r="E299" s="48"/>
+    <row r="299" ht="22.5" customHeight="1">
+      <c r="A299" s="28" t="s">
+        <v>954</v>
+      </c>
+      <c r="B299" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C299" s="29"/>
+      <c r="D299" s="29"/>
+      <c r="E299" s="29"/>
     </row>
     <row r="300">
       <c r="A300" s="46"/>
@@ -17272,6 +17279,13 @@
       <c r="C894" s="48"/>
       <c r="D894" s="48"/>
       <c r="E894" s="48"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="46"/>
+      <c r="B895" s="47"/>
+      <c r="C895" s="48"/>
+      <c r="D895" s="48"/>
+      <c r="E895" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -17324,24 +17338,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="49" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="50" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>762</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
@@ -17369,13 +17383,13 @@
     </row>
     <row r="3">
       <c r="A3" s="50" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>758</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
@@ -17403,275 +17417,275 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>737</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>740</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="52" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B8" s="52" t="s">
         <v>766</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="52" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B9" s="52" t="s">
         <v>772</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B10" s="52" t="s">
         <v>770</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="52" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B11" s="52" t="s">
         <v>767</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="52" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>774</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="52" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B13" s="52" t="s">
         <v>777</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="52" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B14" s="52" t="s">
         <v>784</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="52" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B15" s="52" t="s">
         <v>781</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="52" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B16" s="52" t="s">
         <v>791</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="52" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>794</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="52" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B18" s="52" t="s">
         <v>788</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="52" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>790</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="52" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B20" s="52" t="s">
         <v>792</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="52" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B21" s="52" t="s">
         <v>789</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="52" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B22" s="52" t="s">
         <v>793</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="52" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="52" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>707</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="52" t="s">
+        <v>989</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>990</v>
+      </c>
+      <c r="C25" s="52" t="s">
         <v>988</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>989</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="52" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="52" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B27" s="52" t="s">
         <v>708</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="53" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B28" s="54"/>
       <c r="C28" s="53" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
@@ -17699,11 +17713,11 @@
     </row>
     <row r="29">
       <c r="A29" s="56" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B29" s="57"/>
       <c r="C29" s="56" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D29" s="58"/>
       <c r="E29" s="58"/>
@@ -17731,11 +17745,11 @@
     </row>
     <row r="30">
       <c r="A30" s="56" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B30" s="57"/>
       <c r="C30" s="56" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D30" s="58"/>
       <c r="E30" s="58"/>
@@ -17763,11 +17777,11 @@
     </row>
     <row r="31">
       <c r="A31" s="56" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B31" s="57"/>
       <c r="C31" s="56" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
@@ -17795,11 +17809,11 @@
     </row>
     <row r="32">
       <c r="A32" s="56" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B32" s="57"/>
       <c r="C32" s="56" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D32" s="58"/>
       <c r="E32" s="58"/>
@@ -17827,11 +17841,11 @@
     </row>
     <row r="33">
       <c r="A33" s="53" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B33" s="54"/>
       <c r="C33" s="53" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
@@ -17859,102 +17873,102 @@
     </row>
     <row r="34">
       <c r="A34" s="52" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B34" s="52" t="s">
         <v>811</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="52" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B35" s="52" t="s">
         <v>813</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="52" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B36" s="52" t="s">
         <v>815</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="52" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B37" s="52" t="s">
         <v>814</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="52" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B38" s="52" t="s">
         <v>812</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="52" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B39" s="59"/>
       <c r="C39" s="52" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="52" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B40" s="59"/>
       <c r="C40" s="52" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="52" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B41" s="59"/>
       <c r="C41" s="52" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="52" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B42" s="59"/>
       <c r="C42" s="52" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="53" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="53" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
@@ -17982,11 +17996,11 @@
     </row>
     <row r="44">
       <c r="A44" s="53" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B44" s="54"/>
       <c r="C44" s="53" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
@@ -18014,11 +18028,11 @@
     </row>
     <row r="45">
       <c r="A45" s="53" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B45" s="54"/>
       <c r="C45" s="53" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
@@ -18046,11 +18060,11 @@
     </row>
     <row r="46">
       <c r="A46" s="53" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B46" s="54"/>
       <c r="C46" s="53" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D46" s="55"/>
       <c r="E46" s="55"/>
@@ -18078,11 +18092,11 @@
     </row>
     <row r="47">
       <c r="A47" s="53" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B47" s="54"/>
       <c r="C47" s="53" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D47" s="55"/>
       <c r="E47" s="55"/>
@@ -18110,11 +18124,11 @@
     </row>
     <row r="48">
       <c r="A48" s="53" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B48" s="54"/>
       <c r="C48" s="53" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D48" s="55"/>
       <c r="E48" s="55"/>
@@ -18142,11 +18156,11 @@
     </row>
     <row r="49">
       <c r="A49" s="53" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B49" s="54"/>
       <c r="C49" s="53" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D49" s="55"/>
       <c r="E49" s="55"/>
@@ -18201,12 +18215,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D1" s="62"/>
       <c r="E1" s="63"/>
       <c r="F1" s="61" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G1" s="62"/>
       <c r="H1" s="63"/>
@@ -18215,22 +18229,22 @@
       <c r="A2" s="64"/>
       <c r="B2" s="64"/>
       <c r="C2" s="65" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D2" s="65" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F2" s="65" t="s">
         <v>1012</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="G2" s="65" t="s">
         <v>1013</v>
       </c>
-      <c r="F2" s="65" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G2" s="65" t="s">
-        <v>1012</v>
-      </c>
       <c r="H2" s="65" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="3">
@@ -18437,7 +18451,7 @@
     </row>
     <row r="13">
       <c r="A13" s="66" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B13" s="66" t="s">
         <v>39</v>
@@ -18458,7 +18472,7 @@
     </row>
     <row r="14">
       <c r="A14" s="66" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B14" s="66" t="s">
         <v>41</v>
@@ -19370,7 +19384,7 @@
         <v>785</v>
       </c>
       <c r="B63" s="66" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C63" s="68"/>
       <c r="D63" s="68"/>
@@ -21099,7 +21113,7 @@
     </row>
     <row r="163">
       <c r="A163" s="66" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B163" s="66" t="s">
         <v>535</v>
@@ -21119,7 +21133,7 @@
         <v>604</v>
       </c>
       <c r="B164" s="66" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C164" s="68"/>
       <c r="D164" s="68"/>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="1044">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -2213,6 +2213,9 @@
   </si>
   <si>
     <t>BY-BER05G</t>
+  </si>
+  <si>
+    <t>BY-BER90G</t>
   </si>
   <si>
     <t>BY-BHC007H</t>
@@ -3685,7 +3688,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E322" displayName="Tabla_1" name="Tabla_1" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E323" displayName="Tabla_1" name="Tabla_1" id="2">
   <tableColumns count="5">
     <tableColumn name="old_sku" id="1"/>
     <tableColumn name="new_sku" id="2"/>
@@ -10445,7 +10448,7 @@
         <v>733</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C77" s="29"/>
       <c r="D77" s="29"/>
@@ -10456,7 +10459,7 @@
         <v>734</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="29"/>
@@ -10467,7 +10470,7 @@
         <v>735</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="29"/>
@@ -10478,28 +10481,26 @@
         <v>736</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>724</v>
+        <v>40</v>
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
     </row>
     <row r="81" ht="22.5" customHeight="1">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="28" t="s">
         <v>737</v>
       </c>
-      <c r="B81" s="31" t="s">
-        <v>699</v>
-      </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32" t="s">
-        <v>738</v>
-      </c>
+      <c r="B81" s="28" t="s">
+        <v>724</v>
+      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
     </row>
     <row r="82" ht="22.5" customHeight="1">
       <c r="A82" s="31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B82" s="31" t="s">
         <v>699</v>
@@ -10507,7 +10508,7 @@
       <c r="C82" s="32"/>
       <c r="D82" s="32"/>
       <c r="E82" s="32" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="83" ht="22.5" customHeight="1">
@@ -10515,31 +10516,33 @@
         <v>740</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C83" s="32"/>
       <c r="D83" s="32"/>
       <c r="E83" s="32" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="84" ht="22.5" customHeight="1">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="31" t="s">
         <v>741</v>
       </c>
-      <c r="B84" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
+      <c r="B84" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="85" ht="22.5" customHeight="1">
       <c r="A85" s="28" t="s">
         <v>742</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C85" s="29"/>
       <c r="D85" s="29"/>
@@ -10550,7 +10553,7 @@
         <v>743</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="C86" s="29"/>
       <c r="D86" s="29"/>
@@ -10561,7 +10564,7 @@
         <v>744</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="C87" s="29"/>
       <c r="D87" s="29"/>
@@ -10572,7 +10575,7 @@
         <v>745</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C88" s="29"/>
       <c r="D88" s="29"/>
@@ -10583,7 +10586,7 @@
         <v>746</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C89" s="29"/>
       <c r="D89" s="29"/>
@@ -10594,7 +10597,7 @@
         <v>747</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C90" s="29"/>
       <c r="D90" s="29"/>
@@ -10605,7 +10608,7 @@
         <v>748</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C91" s="29"/>
       <c r="D91" s="29"/>
@@ -10616,7 +10619,7 @@
         <v>749</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C92" s="29"/>
       <c r="D92" s="29"/>
@@ -10627,7 +10630,7 @@
         <v>750</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C93" s="29"/>
       <c r="D93" s="29"/>
@@ -10637,8 +10640,8 @@
       <c r="A94" s="28" t="s">
         <v>751</v>
       </c>
-      <c r="B94" s="33" t="s">
-        <v>66</v>
+      <c r="B94" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="C94" s="29"/>
       <c r="D94" s="29"/>
@@ -10648,8 +10651,8 @@
       <c r="A95" s="28" t="s">
         <v>752</v>
       </c>
-      <c r="B95" s="34" t="s">
-        <v>68</v>
+      <c r="B95" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="C95" s="29"/>
       <c r="D95" s="29"/>
@@ -10660,7 +10663,7 @@
         <v>753</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C96" s="29"/>
       <c r="D96" s="29"/>
@@ -10671,7 +10674,7 @@
         <v>754</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C97" s="29"/>
       <c r="D97" s="29"/>
@@ -10682,7 +10685,7 @@
         <v>755</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C98" s="29"/>
       <c r="D98" s="29"/>
@@ -10693,7 +10696,7 @@
         <v>756</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C99" s="29"/>
       <c r="D99" s="29"/>
@@ -10703,8 +10706,8 @@
       <c r="A100" s="28" t="s">
         <v>757</v>
       </c>
-      <c r="B100" s="28" t="s">
-        <v>78</v>
+      <c r="B100" s="34" t="s">
+        <v>76</v>
       </c>
       <c r="C100" s="29"/>
       <c r="D100" s="29"/>
@@ -10715,7 +10718,7 @@
         <v>758</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C101" s="29"/>
       <c r="D101" s="29"/>
@@ -10726,7 +10729,7 @@
         <v>759</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>760</v>
+        <v>86</v>
       </c>
       <c r="C102" s="29"/>
       <c r="D102" s="29"/>
@@ -10734,10 +10737,10 @@
     </row>
     <row r="103" ht="22.5" customHeight="1">
       <c r="A103" s="28" t="s">
+        <v>760</v>
+      </c>
+      <c r="B103" s="28" t="s">
         <v>761</v>
-      </c>
-      <c r="B103" s="28" t="s">
-        <v>98</v>
       </c>
       <c r="C103" s="29"/>
       <c r="D103" s="29"/>
@@ -10748,7 +10751,7 @@
         <v>762</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C104" s="29"/>
       <c r="D104" s="29"/>
@@ -10759,7 +10762,7 @@
         <v>763</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="C105" s="29"/>
       <c r="D105" s="29"/>
@@ -10770,7 +10773,7 @@
         <v>764</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C106" s="29"/>
       <c r="D106" s="29"/>
@@ -10792,114 +10795,112 @@
         <v>766</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C108" s="29"/>
       <c r="D108" s="29"/>
       <c r="E108" s="29"/>
     </row>
     <row r="109" ht="22.5" customHeight="1">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="28" t="s">
         <v>767</v>
       </c>
-      <c r="B109" s="35" t="s">
-        <v>768</v>
-      </c>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="32" t="s">
-        <v>769</v>
-      </c>
+      <c r="B109" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
     </row>
     <row r="110" ht="22.5" customHeight="1">
       <c r="A110" s="31" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C110" s="36"/>
       <c r="D110" s="36"/>
       <c r="E110" s="32" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="111" ht="22.5" customHeight="1">
       <c r="A111" s="31" t="s">
+        <v>771</v>
+      </c>
+      <c r="B111" s="35" t="s">
         <v>772</v>
-      </c>
-      <c r="B111" s="35" t="s">
-        <v>773</v>
       </c>
       <c r="C111" s="36"/>
       <c r="D111" s="36"/>
       <c r="E111" s="32" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="112" ht="22.5" customHeight="1">
       <c r="A112" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="B112" s="35" t="s">
         <v>774</v>
-      </c>
-      <c r="B112" s="35" t="s">
-        <v>775</v>
       </c>
       <c r="C112" s="36"/>
       <c r="D112" s="36"/>
       <c r="E112" s="32" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="113" ht="22.5" customHeight="1">
       <c r="A113" s="31" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C113" s="36"/>
       <c r="D113" s="36"/>
       <c r="E113" s="32" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="114" ht="22.5" customHeight="1">
       <c r="A114" s="31" t="s">
+        <v>778</v>
+      </c>
+      <c r="B114" s="35" t="s">
         <v>779</v>
-      </c>
-      <c r="B114" s="35" t="s">
-        <v>780</v>
       </c>
       <c r="C114" s="36"/>
       <c r="D114" s="36"/>
       <c r="E114" s="32" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="115" ht="22.5" customHeight="1">
       <c r="A115" s="31" t="s">
+        <v>780</v>
+      </c>
+      <c r="B115" s="35" t="s">
         <v>781</v>
-      </c>
-      <c r="B115" s="35" t="s">
-        <v>782</v>
       </c>
       <c r="C115" s="36"/>
       <c r="D115" s="36"/>
       <c r="E115" s="32" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="116" ht="22.5" customHeight="1">
       <c r="A116" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="B116" s="35" t="s">
         <v>783</v>
-      </c>
-      <c r="B116" s="35" t="s">
-        <v>782</v>
       </c>
       <c r="C116" s="36"/>
       <c r="D116" s="36"/>
       <c r="E116" s="32" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="117" ht="22.5" customHeight="1">
@@ -10907,31 +10908,33 @@
         <v>784</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C117" s="36"/>
       <c r="D117" s="36"/>
       <c r="E117" s="32" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="118" ht="22.5" customHeight="1">
-      <c r="A118" s="28" t="s">
+      <c r="A118" s="31" t="s">
         <v>785</v>
       </c>
-      <c r="B118" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
+      <c r="B118" s="35" t="s">
+        <v>781</v>
+      </c>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="32" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="119" ht="22.5" customHeight="1">
       <c r="A119" s="28" t="s">
         <v>786</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C119" s="29"/>
       <c r="D119" s="29"/>
@@ -10941,8 +10944,8 @@
       <c r="A120" s="28" t="s">
         <v>787</v>
       </c>
-      <c r="B120" s="33" t="s">
-        <v>78</v>
+      <c r="B120" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="C120" s="29"/>
       <c r="D120" s="29"/>
@@ -10952,8 +10955,8 @@
       <c r="A121" s="28" t="s">
         <v>788</v>
       </c>
-      <c r="B121" s="28" t="s">
-        <v>60</v>
+      <c r="B121" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="C121" s="29"/>
       <c r="D121" s="29"/>
@@ -10964,7 +10967,7 @@
         <v>789</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C122" s="29"/>
       <c r="D122" s="29"/>
@@ -10975,7 +10978,7 @@
         <v>790</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C123" s="29"/>
       <c r="D123" s="29"/>
@@ -10986,7 +10989,7 @@
         <v>791</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C124" s="29"/>
       <c r="D124" s="29"/>
@@ -10997,7 +11000,7 @@
         <v>792</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C125" s="29"/>
       <c r="D125" s="29"/>
@@ -11008,7 +11011,7 @@
         <v>793</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C126" s="29"/>
       <c r="D126" s="29"/>
@@ -11019,7 +11022,7 @@
         <v>794</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C127" s="29"/>
       <c r="D127" s="29"/>
@@ -11029,8 +11032,8 @@
       <c r="A128" s="28" t="s">
         <v>795</v>
       </c>
-      <c r="B128" s="33" t="s">
-        <v>78</v>
+      <c r="B128" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="C128" s="29"/>
       <c r="D128" s="29"/>
@@ -11040,8 +11043,8 @@
       <c r="A129" s="28" t="s">
         <v>796</v>
       </c>
-      <c r="B129" s="28" t="s">
-        <v>110</v>
+      <c r="B129" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="C129" s="29"/>
       <c r="D129" s="29"/>
@@ -11052,7 +11055,7 @@
         <v>797</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C130" s="29"/>
       <c r="D130" s="29"/>
@@ -11063,31 +11066,29 @@
         <v>798</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C131" s="29"/>
       <c r="D131" s="29"/>
       <c r="E131" s="29"/>
     </row>
     <row r="132" ht="22.5" customHeight="1">
-      <c r="A132" s="37" t="s">
+      <c r="A132" s="28" t="s">
         <v>799</v>
       </c>
-      <c r="B132" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="C132" s="38"/>
-      <c r="D132" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="E132" s="38"/>
+      <c r="B132" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
     </row>
     <row r="133" ht="22.5" customHeight="1">
       <c r="A133" s="37" t="s">
         <v>800</v>
       </c>
       <c r="B133" s="37" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C133" s="38"/>
       <c r="D133" s="38">
@@ -11096,22 +11097,24 @@
       <c r="E133" s="38"/>
     </row>
     <row r="134" ht="22.5" customHeight="1">
-      <c r="A134" s="28" t="s">
+      <c r="A134" s="37" t="s">
         <v>801</v>
       </c>
-      <c r="B134" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="29"/>
+      <c r="B134" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C134" s="38"/>
+      <c r="D134" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="E134" s="38"/>
     </row>
     <row r="135" ht="22.5" customHeight="1">
       <c r="A135" s="28" t="s">
         <v>802</v>
       </c>
       <c r="B135" s="28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C135" s="29"/>
       <c r="D135" s="29"/>
@@ -11122,7 +11125,7 @@
         <v>803</v>
       </c>
       <c r="B136" s="28" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C136" s="29"/>
       <c r="D136" s="29"/>
@@ -11133,7 +11136,7 @@
         <v>804</v>
       </c>
       <c r="B137" s="28" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C137" s="29"/>
       <c r="D137" s="29"/>
@@ -11144,7 +11147,7 @@
         <v>805</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C138" s="29"/>
       <c r="D138" s="29"/>
@@ -11155,26 +11158,26 @@
         <v>806</v>
       </c>
       <c r="B139" s="28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C139" s="29"/>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
     </row>
     <row r="140" ht="22.5" customHeight="1">
-      <c r="A140" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="B140" s="40"/>
-      <c r="C140" s="41"/>
-      <c r="D140" s="41">
-        <v>2.0</v>
-      </c>
-      <c r="E140" s="41"/>
+      <c r="A140" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="B140" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
     </row>
     <row r="141" ht="22.5" customHeight="1">
       <c r="A141" s="39" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B141" s="40"/>
       <c r="C141" s="41"/>
@@ -11185,7 +11188,7 @@
     </row>
     <row r="142" ht="22.5" customHeight="1">
       <c r="A142" s="39" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B142" s="40"/>
       <c r="C142" s="41"/>
@@ -11196,7 +11199,7 @@
     </row>
     <row r="143" ht="22.5" customHeight="1">
       <c r="A143" s="39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B143" s="40"/>
       <c r="C143" s="41"/>
@@ -11207,7 +11210,7 @@
     </row>
     <row r="144" ht="22.5" customHeight="1">
       <c r="A144" s="39" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B144" s="40"/>
       <c r="C144" s="41"/>
@@ -11218,7 +11221,7 @@
     </row>
     <row r="145" ht="22.5" customHeight="1">
       <c r="A145" s="39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B145" s="40"/>
       <c r="C145" s="41"/>
@@ -11228,15 +11231,15 @@
       <c r="E145" s="41"/>
     </row>
     <row r="146" ht="22.5" customHeight="1">
-      <c r="A146" s="42" t="s">
-        <v>807</v>
-      </c>
-      <c r="B146" s="43"/>
-      <c r="C146" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="D146" s="43"/>
-      <c r="E146" s="43"/>
+      <c r="A146" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="B146" s="40"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="E146" s="41"/>
     </row>
     <row r="147" ht="22.5" customHeight="1">
       <c r="A147" s="42" t="s">
@@ -11277,7 +11280,7 @@
       </c>
       <c r="B150" s="43"/>
       <c r="C150" s="44" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D150" s="43"/>
       <c r="E150" s="43"/>
@@ -11327,35 +11330,33 @@
       <c r="E154" s="43"/>
     </row>
     <row r="155" ht="22.5" customHeight="1">
-      <c r="A155" s="28" t="s">
+      <c r="A155" s="42" t="s">
         <v>816</v>
       </c>
-      <c r="B155" s="28" t="s">
+      <c r="B155" s="43"/>
+      <c r="C155" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="D155" s="43"/>
+      <c r="E155" s="43"/>
+    </row>
+    <row r="156" ht="22.5" customHeight="1">
+      <c r="A156" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="B156" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="C155" s="29"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29"/>
-    </row>
-    <row r="156" ht="22.5" customHeight="1">
-      <c r="A156" s="37" t="s">
-        <v>817</v>
-      </c>
-      <c r="B156" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="C156" s="38"/>
-      <c r="D156" s="38">
-        <v>10.0</v>
-      </c>
-      <c r="E156" s="38"/>
+      <c r="C156" s="29"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29"/>
     </row>
     <row r="157" ht="22.5" customHeight="1">
       <c r="A157" s="37" t="s">
         <v>818</v>
       </c>
       <c r="B157" s="45" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C157" s="38"/>
       <c r="D157" s="38">
@@ -11368,7 +11369,7 @@
         <v>819</v>
       </c>
       <c r="B158" s="45" t="s">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="C158" s="38"/>
       <c r="D158" s="38">
@@ -11381,7 +11382,7 @@
         <v>820</v>
       </c>
       <c r="B159" s="45" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C159" s="38"/>
       <c r="D159" s="38">
@@ -11394,11 +11395,11 @@
         <v>821</v>
       </c>
       <c r="B160" s="45" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="C160" s="38"/>
       <c r="D160" s="38">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="E160" s="38"/>
     </row>
@@ -11407,7 +11408,7 @@
         <v>822</v>
       </c>
       <c r="B161" s="45" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C161" s="38"/>
       <c r="D161" s="38">
@@ -11420,7 +11421,7 @@
         <v>823</v>
       </c>
       <c r="B162" s="45" t="s">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="C162" s="38"/>
       <c r="D162" s="38">
@@ -11433,7 +11434,7 @@
         <v>824</v>
       </c>
       <c r="B163" s="45" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C163" s="38"/>
       <c r="D163" s="38">
@@ -11446,11 +11447,11 @@
         <v>825</v>
       </c>
       <c r="B164" s="45" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="C164" s="38"/>
       <c r="D164" s="38">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="E164" s="38"/>
     </row>
@@ -11459,7 +11460,7 @@
         <v>826</v>
       </c>
       <c r="B165" s="45" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C165" s="38"/>
       <c r="D165" s="38">
@@ -11472,7 +11473,7 @@
         <v>827</v>
       </c>
       <c r="B166" s="45" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C166" s="38"/>
       <c r="D166" s="38">
@@ -11485,7 +11486,7 @@
         <v>828</v>
       </c>
       <c r="B167" s="45" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C167" s="38"/>
       <c r="D167" s="38">
@@ -11498,7 +11499,7 @@
         <v>829</v>
       </c>
       <c r="B168" s="45" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C168" s="38"/>
       <c r="D168" s="38">
@@ -11511,7 +11512,7 @@
         <v>830</v>
       </c>
       <c r="B169" s="45" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C169" s="38"/>
       <c r="D169" s="38">
@@ -11524,7 +11525,7 @@
         <v>831</v>
       </c>
       <c r="B170" s="45" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C170" s="38"/>
       <c r="D170" s="38">
@@ -11537,7 +11538,7 @@
         <v>832</v>
       </c>
       <c r="B171" s="45" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C171" s="38"/>
       <c r="D171" s="38">
@@ -11550,11 +11551,11 @@
         <v>833</v>
       </c>
       <c r="B172" s="45" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="C172" s="38"/>
       <c r="D172" s="38">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E172" s="38"/>
     </row>
@@ -11563,7 +11564,7 @@
         <v>834</v>
       </c>
       <c r="B173" s="45" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C173" s="38"/>
       <c r="D173" s="38">
@@ -11576,7 +11577,7 @@
         <v>835</v>
       </c>
       <c r="B174" s="45" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C174" s="38"/>
       <c r="D174" s="38">
@@ -11589,7 +11590,7 @@
         <v>836</v>
       </c>
       <c r="B175" s="45" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C175" s="38"/>
       <c r="D175" s="38">
@@ -11602,7 +11603,7 @@
         <v>837</v>
       </c>
       <c r="B176" s="45" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C176" s="38"/>
       <c r="D176" s="38">
@@ -11615,7 +11616,7 @@
         <v>838</v>
       </c>
       <c r="B177" s="45" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C177" s="38"/>
       <c r="D177" s="38">
@@ -11628,7 +11629,7 @@
         <v>839</v>
       </c>
       <c r="B178" s="45" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C178" s="38"/>
       <c r="D178" s="38">
@@ -11641,7 +11642,7 @@
         <v>840</v>
       </c>
       <c r="B179" s="45" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C179" s="38"/>
       <c r="D179" s="38">
@@ -11654,7 +11655,7 @@
         <v>841</v>
       </c>
       <c r="B180" s="45" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C180" s="38"/>
       <c r="D180" s="38">
@@ -11667,7 +11668,7 @@
         <v>842</v>
       </c>
       <c r="B181" s="45" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C181" s="38"/>
       <c r="D181" s="38">
@@ -11680,7 +11681,7 @@
         <v>843</v>
       </c>
       <c r="B182" s="45" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="C182" s="38"/>
       <c r="D182" s="38">
@@ -11693,7 +11694,7 @@
         <v>844</v>
       </c>
       <c r="B183" s="45" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C183" s="38"/>
       <c r="D183" s="38">
@@ -11706,11 +11707,11 @@
         <v>845</v>
       </c>
       <c r="B184" s="45" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="C184" s="38"/>
       <c r="D184" s="38">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E184" s="38"/>
     </row>
@@ -11719,7 +11720,7 @@
         <v>846</v>
       </c>
       <c r="B185" s="45" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C185" s="38"/>
       <c r="D185" s="38">
@@ -11732,7 +11733,7 @@
         <v>847</v>
       </c>
       <c r="B186" s="45" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C186" s="38"/>
       <c r="D186" s="38">
@@ -11758,7 +11759,7 @@
         <v>849</v>
       </c>
       <c r="B188" s="45" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C188" s="38"/>
       <c r="D188" s="38">
@@ -11771,7 +11772,7 @@
         <v>850</v>
       </c>
       <c r="B189" s="45" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C189" s="38"/>
       <c r="D189" s="38">
@@ -11784,7 +11785,7 @@
         <v>851</v>
       </c>
       <c r="B190" s="45" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C190" s="38"/>
       <c r="D190" s="38">
@@ -11797,7 +11798,7 @@
         <v>852</v>
       </c>
       <c r="B191" s="45" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C191" s="38"/>
       <c r="D191" s="38">
@@ -11810,7 +11811,7 @@
         <v>853</v>
       </c>
       <c r="B192" s="45" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C192" s="38"/>
       <c r="D192" s="38">
@@ -11823,7 +11824,7 @@
         <v>854</v>
       </c>
       <c r="B193" s="45" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C193" s="38"/>
       <c r="D193" s="38">
@@ -11836,7 +11837,7 @@
         <v>855</v>
       </c>
       <c r="B194" s="45" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="C194" s="38"/>
       <c r="D194" s="38">
@@ -11849,7 +11850,7 @@
         <v>856</v>
       </c>
       <c r="B195" s="45" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C195" s="38"/>
       <c r="D195" s="38">
@@ -11862,11 +11863,11 @@
         <v>857</v>
       </c>
       <c r="B196" s="45" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="C196" s="38"/>
       <c r="D196" s="38">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E196" s="38"/>
     </row>
@@ -11875,7 +11876,7 @@
         <v>858</v>
       </c>
       <c r="B197" s="45" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C197" s="38"/>
       <c r="D197" s="38">
@@ -11888,7 +11889,7 @@
         <v>859</v>
       </c>
       <c r="B198" s="45" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C198" s="38"/>
       <c r="D198" s="38">
@@ -11901,7 +11902,7 @@
         <v>860</v>
       </c>
       <c r="B199" s="45" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C199" s="38"/>
       <c r="D199" s="38">
@@ -11914,7 +11915,7 @@
         <v>861</v>
       </c>
       <c r="B200" s="45" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C200" s="38"/>
       <c r="D200" s="38">
@@ -11927,7 +11928,7 @@
         <v>862</v>
       </c>
       <c r="B201" s="45" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C201" s="38"/>
       <c r="D201" s="38">
@@ -11940,7 +11941,7 @@
         <v>863</v>
       </c>
       <c r="B202" s="45" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C202" s="38"/>
       <c r="D202" s="38">
@@ -11953,7 +11954,7 @@
         <v>864</v>
       </c>
       <c r="B203" s="45" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C203" s="38"/>
       <c r="D203" s="38">
@@ -11966,11 +11967,11 @@
         <v>865</v>
       </c>
       <c r="B204" s="45" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="C204" s="38"/>
       <c r="D204" s="38">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E204" s="38"/>
     </row>
@@ -11979,7 +11980,7 @@
         <v>866</v>
       </c>
       <c r="B205" s="45" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C205" s="38"/>
       <c r="D205" s="38">
@@ -11992,7 +11993,7 @@
         <v>867</v>
       </c>
       <c r="B206" s="45" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C206" s="38"/>
       <c r="D206" s="38">
@@ -12005,7 +12006,7 @@
         <v>868</v>
       </c>
       <c r="B207" s="45" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C207" s="38"/>
       <c r="D207" s="38">
@@ -12018,7 +12019,7 @@
         <v>869</v>
       </c>
       <c r="B208" s="45" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C208" s="38"/>
       <c r="D208" s="38">
@@ -12031,7 +12032,7 @@
         <v>870</v>
       </c>
       <c r="B209" s="45" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C209" s="38"/>
       <c r="D209" s="38">
@@ -12044,7 +12045,7 @@
         <v>871</v>
       </c>
       <c r="B210" s="45" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C210" s="38"/>
       <c r="D210" s="38">
@@ -12057,7 +12058,7 @@
         <v>872</v>
       </c>
       <c r="B211" s="45" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="C211" s="38"/>
       <c r="D211" s="38">
@@ -12070,7 +12071,7 @@
         <v>873</v>
       </c>
       <c r="B212" s="45" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C212" s="38"/>
       <c r="D212" s="38">
@@ -12083,11 +12084,11 @@
         <v>874</v>
       </c>
       <c r="B213" s="45" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="C213" s="38"/>
       <c r="D213" s="38">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E213" s="38"/>
     </row>
@@ -12096,7 +12097,7 @@
         <v>875</v>
       </c>
       <c r="B214" s="45" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C214" s="38"/>
       <c r="D214" s="38">
@@ -12109,7 +12110,7 @@
         <v>876</v>
       </c>
       <c r="B215" s="45" t="s">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="C215" s="38"/>
       <c r="D215" s="38">
@@ -12122,7 +12123,7 @@
         <v>877</v>
       </c>
       <c r="B216" s="45" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C216" s="38"/>
       <c r="D216" s="38">
@@ -12131,22 +12132,24 @@
       <c r="E216" s="38"/>
     </row>
     <row r="217" ht="22.5" customHeight="1">
-      <c r="A217" s="28" t="s">
+      <c r="A217" s="37" t="s">
         <v>878</v>
       </c>
-      <c r="B217" s="33" t="s">
+      <c r="B217" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="C217" s="38"/>
+      <c r="D217" s="38">
+        <v>8.0</v>
+      </c>
+      <c r="E217" s="38"/>
+    </row>
+    <row r="218" ht="22.5" customHeight="1">
+      <c r="A218" s="28" t="s">
+        <v>879</v>
+      </c>
+      <c r="B218" s="33" t="s">
         <v>416</v>
-      </c>
-      <c r="C217" s="30"/>
-      <c r="D217" s="30"/>
-      <c r="E217" s="30"/>
-    </row>
-    <row r="218" ht="22.5" customHeight="1">
-      <c r="A218" s="46" t="s">
-        <v>879</v>
-      </c>
-      <c r="B218" s="33" t="s">
-        <v>418</v>
       </c>
       <c r="C218" s="30"/>
       <c r="D218" s="30"/>
@@ -12157,7 +12160,7 @@
         <v>880</v>
       </c>
       <c r="B219" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C219" s="30"/>
       <c r="D219" s="30"/>
@@ -12168,7 +12171,7 @@
         <v>881</v>
       </c>
       <c r="B220" s="33" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C220" s="30"/>
       <c r="D220" s="30"/>
@@ -12179,7 +12182,7 @@
         <v>882</v>
       </c>
       <c r="B221" s="33" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C221" s="30"/>
       <c r="D221" s="30"/>
@@ -12190,7 +12193,7 @@
         <v>883</v>
       </c>
       <c r="B222" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C222" s="30"/>
       <c r="D222" s="30"/>
@@ -12201,7 +12204,7 @@
         <v>884</v>
       </c>
       <c r="B223" s="33" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C223" s="30"/>
       <c r="D223" s="30"/>
@@ -12212,7 +12215,7 @@
         <v>885</v>
       </c>
       <c r="B224" s="33" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C224" s="30"/>
       <c r="D224" s="30"/>
@@ -12223,7 +12226,7 @@
         <v>886</v>
       </c>
       <c r="B225" s="33" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C225" s="30"/>
       <c r="D225" s="30"/>
@@ -12234,7 +12237,7 @@
         <v>887</v>
       </c>
       <c r="B226" s="33" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C226" s="30"/>
       <c r="D226" s="30"/>
@@ -12245,7 +12248,7 @@
         <v>888</v>
       </c>
       <c r="B227" s="33" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C227" s="30"/>
       <c r="D227" s="30"/>
@@ -12256,7 +12259,7 @@
         <v>889</v>
       </c>
       <c r="B228" s="33" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C228" s="30"/>
       <c r="D228" s="30"/>
@@ -12267,7 +12270,7 @@
         <v>890</v>
       </c>
       <c r="B229" s="33" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C229" s="30"/>
       <c r="D229" s="30"/>
@@ -12278,7 +12281,7 @@
         <v>891</v>
       </c>
       <c r="B230" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C230" s="30"/>
       <c r="D230" s="30"/>
@@ -12289,7 +12292,7 @@
         <v>892</v>
       </c>
       <c r="B231" s="33" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C231" s="30"/>
       <c r="D231" s="30"/>
@@ -12300,29 +12303,29 @@
         <v>893</v>
       </c>
       <c r="B232" s="33" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C232" s="30"/>
       <c r="D232" s="30"/>
       <c r="E232" s="30"/>
     </row>
     <row r="233" ht="22.5" customHeight="1">
-      <c r="A233" s="28" t="s">
+      <c r="A233" s="46" t="s">
         <v>894</v>
       </c>
       <c r="B233" s="33" t="s">
-        <v>604</v>
+        <v>462</v>
       </c>
       <c r="C233" s="30"/>
       <c r="D233" s="30"/>
       <c r="E233" s="30"/>
     </row>
     <row r="234" ht="22.5" customHeight="1">
-      <c r="A234" s="46" t="s">
+      <c r="A234" s="28" t="s">
         <v>895</v>
       </c>
       <c r="B234" s="33" t="s">
-        <v>468</v>
+        <v>604</v>
       </c>
       <c r="C234" s="30"/>
       <c r="D234" s="30"/>
@@ -12333,7 +12336,7 @@
         <v>896</v>
       </c>
       <c r="B235" s="33" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C235" s="30"/>
       <c r="D235" s="30"/>
@@ -12344,7 +12347,7 @@
         <v>897</v>
       </c>
       <c r="B236" s="33" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C236" s="30"/>
       <c r="D236" s="30"/>
@@ -12355,7 +12358,7 @@
         <v>898</v>
       </c>
       <c r="B237" s="33" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C237" s="30"/>
       <c r="D237" s="30"/>
@@ -12366,7 +12369,7 @@
         <v>899</v>
       </c>
       <c r="B238" s="33" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C238" s="30"/>
       <c r="D238" s="30"/>
@@ -12377,7 +12380,7 @@
         <v>900</v>
       </c>
       <c r="B239" s="33" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C239" s="30"/>
       <c r="D239" s="30"/>
@@ -12388,7 +12391,7 @@
         <v>901</v>
       </c>
       <c r="B240" s="33" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C240" s="30"/>
       <c r="D240" s="30"/>
@@ -12399,35 +12402,33 @@
         <v>902</v>
       </c>
       <c r="B241" s="33" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C241" s="30"/>
       <c r="D241" s="30"/>
       <c r="E241" s="30"/>
     </row>
     <row r="242" ht="22.5" customHeight="1">
-      <c r="A242" s="39" t="s">
+      <c r="A242" s="46" t="s">
+        <v>903</v>
+      </c>
+      <c r="B242" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="C242" s="30"/>
+      <c r="D242" s="30"/>
+      <c r="E242" s="30"/>
+    </row>
+    <row r="243" ht="22.5" customHeight="1">
+      <c r="A243" s="39" t="s">
         <v>534</v>
       </c>
-      <c r="B242" s="40"/>
-      <c r="C242" s="41"/>
-      <c r="D242" s="41">
+      <c r="B243" s="40"/>
+      <c r="C243" s="41"/>
+      <c r="D243" s="41">
         <v>4.0</v>
       </c>
-      <c r="E242" s="41"/>
-    </row>
-    <row r="243" ht="22.5" customHeight="1">
-      <c r="A243" s="37" t="s">
-        <v>903</v>
-      </c>
-      <c r="B243" s="45" t="s">
-        <v>534</v>
-      </c>
-      <c r="C243" s="38"/>
-      <c r="D243" s="38">
-        <v>12.0</v>
-      </c>
-      <c r="E243" s="38"/>
+      <c r="E243" s="41"/>
     </row>
     <row r="244" ht="22.5" customHeight="1">
       <c r="A244" s="37" t="s">
@@ -12438,7 +12439,7 @@
       </c>
       <c r="C244" s="38"/>
       <c r="D244" s="38">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E244" s="38"/>
     </row>
@@ -12451,7 +12452,7 @@
       </c>
       <c r="C245" s="38"/>
       <c r="D245" s="38">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="E245" s="38"/>
     </row>
@@ -12464,7 +12465,7 @@
       </c>
       <c r="C246" s="38"/>
       <c r="D246" s="38">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="E246" s="38"/>
     </row>
@@ -12477,7 +12478,7 @@
       </c>
       <c r="C247" s="38"/>
       <c r="D247" s="38">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="E247" s="38"/>
     </row>
@@ -12490,7 +12491,7 @@
       </c>
       <c r="C248" s="38"/>
       <c r="D248" s="38">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="E248" s="38"/>
     </row>
@@ -12503,7 +12504,7 @@
       </c>
       <c r="C249" s="38"/>
       <c r="D249" s="38">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="E249" s="38"/>
     </row>
@@ -12516,7 +12517,7 @@
       </c>
       <c r="C250" s="38"/>
       <c r="D250" s="38">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="E250" s="38"/>
     </row>
@@ -12529,7 +12530,7 @@
       </c>
       <c r="C251" s="38"/>
       <c r="D251" s="38">
-        <v>40.0</v>
+        <v>4.0</v>
       </c>
       <c r="E251" s="38"/>
     </row>
@@ -12542,7 +12543,7 @@
       </c>
       <c r="C252" s="38"/>
       <c r="D252" s="38">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="E252" s="38"/>
     </row>
@@ -12555,7 +12556,7 @@
       </c>
       <c r="C253" s="38"/>
       <c r="D253" s="38">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="E253" s="38"/>
     </row>
@@ -12568,33 +12569,33 @@
       </c>
       <c r="C254" s="38"/>
       <c r="D254" s="38">
+        <v>48.0</v>
+      </c>
+      <c r="E254" s="38"/>
+    </row>
+    <row r="255" ht="22.5" customHeight="1">
+      <c r="A255" s="37" t="s">
+        <v>915</v>
+      </c>
+      <c r="B255" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="C255" s="38"/>
+      <c r="D255" s="38">
         <v>8.0</v>
       </c>
-      <c r="E254" s="38"/>
-    </row>
-    <row r="255" ht="22.5" customHeight="1">
-      <c r="A255" s="39" t="s">
+      <c r="E255" s="38"/>
+    </row>
+    <row r="256" ht="22.5" customHeight="1">
+      <c r="A256" s="39" t="s">
         <v>536</v>
       </c>
-      <c r="B255" s="40"/>
-      <c r="C255" s="41"/>
-      <c r="D255" s="41">
+      <c r="B256" s="40"/>
+      <c r="C256" s="41"/>
+      <c r="D256" s="41">
         <v>4.0</v>
       </c>
-      <c r="E255" s="41"/>
-    </row>
-    <row r="256" ht="22.5" customHeight="1">
-      <c r="A256" s="37" t="s">
-        <v>915</v>
-      </c>
-      <c r="B256" s="45" t="s">
-        <v>536</v>
-      </c>
-      <c r="C256" s="38"/>
-      <c r="D256" s="38">
-        <v>12.0</v>
-      </c>
-      <c r="E256" s="38"/>
+      <c r="E256" s="41"/>
     </row>
     <row r="257" ht="22.5" customHeight="1">
       <c r="A257" s="37" t="s">
@@ -12605,7 +12606,7 @@
       </c>
       <c r="C257" s="38"/>
       <c r="D257" s="38">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E257" s="38"/>
     </row>
@@ -12618,7 +12619,7 @@
       </c>
       <c r="C258" s="38"/>
       <c r="D258" s="38">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="E258" s="38"/>
     </row>
@@ -12631,7 +12632,7 @@
       </c>
       <c r="C259" s="38"/>
       <c r="D259" s="38">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="E259" s="38"/>
     </row>
@@ -12644,7 +12645,7 @@
       </c>
       <c r="C260" s="38"/>
       <c r="D260" s="38">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="E260" s="38"/>
     </row>
@@ -12657,7 +12658,7 @@
       </c>
       <c r="C261" s="38"/>
       <c r="D261" s="38">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="E261" s="38"/>
     </row>
@@ -12670,7 +12671,7 @@
       </c>
       <c r="C262" s="38"/>
       <c r="D262" s="38">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="E262" s="38"/>
     </row>
@@ -12683,7 +12684,7 @@
       </c>
       <c r="C263" s="38"/>
       <c r="D263" s="38">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="E263" s="38"/>
     </row>
@@ -12696,7 +12697,7 @@
       </c>
       <c r="C264" s="38"/>
       <c r="D264" s="38">
-        <v>40.0</v>
+        <v>4.0</v>
       </c>
       <c r="E264" s="38"/>
     </row>
@@ -12709,7 +12710,7 @@
       </c>
       <c r="C265" s="38"/>
       <c r="D265" s="38">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="E265" s="38"/>
     </row>
@@ -12722,7 +12723,7 @@
       </c>
       <c r="C266" s="38"/>
       <c r="D266" s="38">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="E266" s="38"/>
     </row>
@@ -12735,33 +12736,33 @@
       </c>
       <c r="C267" s="38"/>
       <c r="D267" s="38">
+        <v>48.0</v>
+      </c>
+      <c r="E267" s="38"/>
+    </row>
+    <row r="268" ht="22.5" customHeight="1">
+      <c r="A268" s="37" t="s">
+        <v>927</v>
+      </c>
+      <c r="B268" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C268" s="38"/>
+      <c r="D268" s="38">
         <v>8.0</v>
       </c>
-      <c r="E267" s="38"/>
-    </row>
-    <row r="268" ht="22.5" customHeight="1">
-      <c r="A268" s="39" t="s">
+      <c r="E268" s="38"/>
+    </row>
+    <row r="269" ht="22.5" customHeight="1">
+      <c r="A269" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="B268" s="40"/>
-      <c r="C268" s="41"/>
-      <c r="D268" s="41">
+      <c r="B269" s="40"/>
+      <c r="C269" s="41"/>
+      <c r="D269" s="41">
         <v>4.0</v>
       </c>
-      <c r="E268" s="41"/>
-    </row>
-    <row r="269" ht="22.5" customHeight="1">
-      <c r="A269" s="37" t="s">
-        <v>927</v>
-      </c>
-      <c r="B269" s="45" t="s">
-        <v>538</v>
-      </c>
-      <c r="C269" s="38"/>
-      <c r="D269" s="38">
-        <v>12.0</v>
-      </c>
-      <c r="E269" s="38"/>
+      <c r="E269" s="41"/>
     </row>
     <row r="270" ht="22.5" customHeight="1">
       <c r="A270" s="37" t="s">
@@ -12772,7 +12773,7 @@
       </c>
       <c r="C270" s="38"/>
       <c r="D270" s="38">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E270" s="38"/>
     </row>
@@ -12785,7 +12786,7 @@
       </c>
       <c r="C271" s="38"/>
       <c r="D271" s="38">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="E271" s="38"/>
     </row>
@@ -12798,7 +12799,7 @@
       </c>
       <c r="C272" s="38"/>
       <c r="D272" s="38">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="E272" s="38"/>
     </row>
@@ -12811,7 +12812,7 @@
       </c>
       <c r="C273" s="38"/>
       <c r="D273" s="38">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="E273" s="38"/>
     </row>
@@ -12824,7 +12825,7 @@
       </c>
       <c r="C274" s="38"/>
       <c r="D274" s="38">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="E274" s="38"/>
     </row>
@@ -12837,7 +12838,7 @@
       </c>
       <c r="C275" s="38"/>
       <c r="D275" s="38">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="E275" s="38"/>
     </row>
@@ -12850,7 +12851,7 @@
       </c>
       <c r="C276" s="38"/>
       <c r="D276" s="38">
-        <v>40.0</v>
+        <v>4.0</v>
       </c>
       <c r="E276" s="38"/>
     </row>
@@ -12863,7 +12864,7 @@
       </c>
       <c r="C277" s="38"/>
       <c r="D277" s="38">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="E277" s="38"/>
     </row>
@@ -12876,7 +12877,7 @@
       </c>
       <c r="C278" s="38"/>
       <c r="D278" s="38">
-        <v>44.0</v>
+        <v>32.0</v>
       </c>
       <c r="E278" s="38"/>
     </row>
@@ -12889,7 +12890,7 @@
       </c>
       <c r="C279" s="38"/>
       <c r="D279" s="38">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="E279" s="38"/>
     </row>
@@ -12902,33 +12903,33 @@
       </c>
       <c r="C280" s="38"/>
       <c r="D280" s="38">
+        <v>48.0</v>
+      </c>
+      <c r="E280" s="38"/>
+    </row>
+    <row r="281" ht="22.5" customHeight="1">
+      <c r="A281" s="37" t="s">
+        <v>939</v>
+      </c>
+      <c r="B281" s="45" t="s">
+        <v>538</v>
+      </c>
+      <c r="C281" s="38"/>
+      <c r="D281" s="38">
         <v>8.0</v>
       </c>
-      <c r="E280" s="38"/>
-    </row>
-    <row r="281" ht="22.5" customHeight="1">
-      <c r="A281" s="39" t="s">
+      <c r="E281" s="38"/>
+    </row>
+    <row r="282" ht="22.5" customHeight="1">
+      <c r="A282" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="B281" s="40"/>
-      <c r="C281" s="41"/>
-      <c r="D281" s="41">
+      <c r="B282" s="40"/>
+      <c r="C282" s="41"/>
+      <c r="D282" s="41">
         <v>4.0</v>
       </c>
-      <c r="E281" s="41"/>
-    </row>
-    <row r="282" ht="22.5" customHeight="1">
-      <c r="A282" s="37" t="s">
-        <v>939</v>
-      </c>
-      <c r="B282" s="45" t="s">
-        <v>540</v>
-      </c>
-      <c r="C282" s="38"/>
-      <c r="D282" s="38">
-        <v>12.0</v>
-      </c>
-      <c r="E282" s="38"/>
+      <c r="E282" s="41"/>
     </row>
     <row r="283" ht="22.5" customHeight="1">
       <c r="A283" s="37" t="s">
@@ -12939,7 +12940,7 @@
       </c>
       <c r="C283" s="38"/>
       <c r="D283" s="38">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E283" s="38"/>
     </row>
@@ -12952,7 +12953,7 @@
       </c>
       <c r="C284" s="38"/>
       <c r="D284" s="38">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="E284" s="38"/>
     </row>
@@ -12965,7 +12966,7 @@
       </c>
       <c r="C285" s="38"/>
       <c r="D285" s="38">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="E285" s="38"/>
     </row>
@@ -12978,7 +12979,7 @@
       </c>
       <c r="C286" s="38"/>
       <c r="D286" s="38">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="E286" s="38"/>
     </row>
@@ -12991,7 +12992,7 @@
       </c>
       <c r="C287" s="38"/>
       <c r="D287" s="38">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="E287" s="38"/>
     </row>
@@ -13004,7 +13005,7 @@
       </c>
       <c r="C288" s="38"/>
       <c r="D288" s="38">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="E288" s="38"/>
     </row>
@@ -13017,7 +13018,7 @@
       </c>
       <c r="C289" s="38"/>
       <c r="D289" s="38">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="E289" s="38"/>
     </row>
@@ -13030,7 +13031,7 @@
       </c>
       <c r="C290" s="38"/>
       <c r="D290" s="38">
-        <v>40.0</v>
+        <v>4.0</v>
       </c>
       <c r="E290" s="38"/>
     </row>
@@ -13043,7 +13044,7 @@
       </c>
       <c r="C291" s="38"/>
       <c r="D291" s="38">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="E291" s="38"/>
     </row>
@@ -13056,7 +13057,7 @@
       </c>
       <c r="C292" s="38"/>
       <c r="D292" s="38">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="E292" s="38"/>
     </row>
@@ -13069,33 +13070,33 @@
       </c>
       <c r="C293" s="38"/>
       <c r="D293" s="38">
+        <v>48.0</v>
+      </c>
+      <c r="E293" s="38"/>
+    </row>
+    <row r="294" ht="22.5" customHeight="1">
+      <c r="A294" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="B294" s="45" t="s">
+        <v>540</v>
+      </c>
+      <c r="C294" s="38"/>
+      <c r="D294" s="38">
         <v>8.0</v>
       </c>
-      <c r="E293" s="38"/>
-    </row>
-    <row r="294" ht="22.5" customHeight="1">
-      <c r="A294" s="39" t="s">
+      <c r="E294" s="38"/>
+    </row>
+    <row r="295" ht="22.5" customHeight="1">
+      <c r="A295" s="39" t="s">
         <v>542</v>
       </c>
-      <c r="B294" s="40"/>
-      <c r="C294" s="41"/>
-      <c r="D294" s="41">
+      <c r="B295" s="40"/>
+      <c r="C295" s="41"/>
+      <c r="D295" s="41">
         <v>4.0</v>
       </c>
-      <c r="E294" s="41"/>
-    </row>
-    <row r="295" ht="22.5" customHeight="1">
-      <c r="A295" s="37" t="s">
-        <v>951</v>
-      </c>
-      <c r="B295" s="45" t="s">
-        <v>542</v>
-      </c>
-      <c r="C295" s="38"/>
-      <c r="D295" s="38">
-        <v>12.0</v>
-      </c>
-      <c r="E295" s="38"/>
+      <c r="E295" s="41"/>
     </row>
     <row r="296" ht="22.5" customHeight="1">
       <c r="A296" s="37" t="s">
@@ -13106,7 +13107,7 @@
       </c>
       <c r="C296" s="38"/>
       <c r="D296" s="38">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E296" s="38"/>
     </row>
@@ -13119,7 +13120,7 @@
       </c>
       <c r="C297" s="38"/>
       <c r="D297" s="38">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="E297" s="38"/>
     </row>
@@ -13132,7 +13133,7 @@
       </c>
       <c r="C298" s="38"/>
       <c r="D298" s="38">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="E298" s="38"/>
     </row>
@@ -13145,7 +13146,7 @@
       </c>
       <c r="C299" s="38"/>
       <c r="D299" s="38">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="E299" s="38"/>
     </row>
@@ -13158,7 +13159,7 @@
       </c>
       <c r="C300" s="38"/>
       <c r="D300" s="38">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="E300" s="38"/>
     </row>
@@ -13171,7 +13172,7 @@
       </c>
       <c r="C301" s="38"/>
       <c r="D301" s="38">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="E301" s="38"/>
     </row>
@@ -13184,7 +13185,7 @@
       </c>
       <c r="C302" s="38"/>
       <c r="D302" s="38">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="E302" s="38"/>
     </row>
@@ -13197,7 +13198,7 @@
       </c>
       <c r="C303" s="38"/>
       <c r="D303" s="38">
-        <v>40.0</v>
+        <v>4.0</v>
       </c>
       <c r="E303" s="38"/>
     </row>
@@ -13210,7 +13211,7 @@
       </c>
       <c r="C304" s="38"/>
       <c r="D304" s="38">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="E304" s="38"/>
     </row>
@@ -13223,7 +13224,7 @@
       </c>
       <c r="C305" s="38"/>
       <c r="D305" s="38">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="E305" s="38"/>
     </row>
@@ -13236,33 +13237,33 @@
       </c>
       <c r="C306" s="38"/>
       <c r="D306" s="38">
+        <v>48.0</v>
+      </c>
+      <c r="E306" s="38"/>
+    </row>
+    <row r="307" ht="22.5" customHeight="1">
+      <c r="A307" s="37" t="s">
+        <v>963</v>
+      </c>
+      <c r="B307" s="45" t="s">
+        <v>542</v>
+      </c>
+      <c r="C307" s="38"/>
+      <c r="D307" s="38">
         <v>8.0</v>
       </c>
-      <c r="E306" s="38"/>
-    </row>
-    <row r="307" ht="22.5" customHeight="1">
-      <c r="A307" s="39" t="s">
+      <c r="E307" s="38"/>
+    </row>
+    <row r="308" ht="22.5" customHeight="1">
+      <c r="A308" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="B307" s="40"/>
-      <c r="C307" s="41"/>
-      <c r="D307" s="41">
+      <c r="B308" s="40"/>
+      <c r="C308" s="41"/>
+      <c r="D308" s="41">
         <v>4.0</v>
       </c>
-      <c r="E307" s="41"/>
-    </row>
-    <row r="308" ht="22.5" customHeight="1">
-      <c r="A308" s="37" t="s">
-        <v>963</v>
-      </c>
-      <c r="B308" s="45" t="s">
-        <v>544</v>
-      </c>
-      <c r="C308" s="38"/>
-      <c r="D308" s="38">
-        <v>12.0</v>
-      </c>
-      <c r="E308" s="38"/>
+      <c r="E308" s="41"/>
     </row>
     <row r="309" ht="22.5" customHeight="1">
       <c r="A309" s="37" t="s">
@@ -13273,7 +13274,7 @@
       </c>
       <c r="C309" s="38"/>
       <c r="D309" s="38">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E309" s="38"/>
     </row>
@@ -13286,7 +13287,7 @@
       </c>
       <c r="C310" s="38"/>
       <c r="D310" s="38">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="E310" s="38"/>
     </row>
@@ -13299,7 +13300,7 @@
       </c>
       <c r="C311" s="38"/>
       <c r="D311" s="38">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="E311" s="38"/>
     </row>
@@ -13312,7 +13313,7 @@
       </c>
       <c r="C312" s="38"/>
       <c r="D312" s="38">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="E312" s="38"/>
     </row>
@@ -13325,7 +13326,7 @@
       </c>
       <c r="C313" s="38"/>
       <c r="D313" s="38">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="E313" s="38"/>
     </row>
@@ -13338,7 +13339,7 @@
       </c>
       <c r="C314" s="38"/>
       <c r="D314" s="38">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="E314" s="38"/>
     </row>
@@ -13351,7 +13352,7 @@
       </c>
       <c r="C315" s="38"/>
       <c r="D315" s="38">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="E315" s="38"/>
     </row>
@@ -13364,7 +13365,7 @@
       </c>
       <c r="C316" s="38"/>
       <c r="D316" s="38">
-        <v>40.0</v>
+        <v>4.0</v>
       </c>
       <c r="E316" s="38"/>
     </row>
@@ -13377,7 +13378,7 @@
       </c>
       <c r="C317" s="38"/>
       <c r="D317" s="38">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="E317" s="38"/>
     </row>
@@ -13390,7 +13391,7 @@
       </c>
       <c r="C318" s="38"/>
       <c r="D318" s="38">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="E318" s="38"/>
     </row>
@@ -13403,27 +13404,29 @@
       </c>
       <c r="C319" s="38"/>
       <c r="D319" s="38">
+        <v>48.0</v>
+      </c>
+      <c r="E319" s="38"/>
+    </row>
+    <row r="320" ht="22.5" customHeight="1">
+      <c r="A320" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="B320" s="45" t="s">
+        <v>544</v>
+      </c>
+      <c r="C320" s="38"/>
+      <c r="D320" s="38">
         <v>8.0</v>
       </c>
-      <c r="E319" s="38"/>
-    </row>
-    <row r="320" ht="22.5" customHeight="1">
-      <c r="A320" s="28" t="s">
-        <v>975</v>
-      </c>
-      <c r="B320" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C320" s="29"/>
-      <c r="D320" s="29"/>
-      <c r="E320" s="29"/>
+      <c r="E320" s="38"/>
     </row>
     <row r="321" ht="22.5" customHeight="1">
       <c r="A321" s="28" t="s">
         <v>976</v>
       </c>
       <c r="B321" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C321" s="29"/>
       <c r="D321" s="29"/>
@@ -13434,18 +13437,22 @@
         <v>977</v>
       </c>
       <c r="B322" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C322" s="29"/>
       <c r="D322" s="29"/>
       <c r="E322" s="29"/>
     </row>
-    <row r="323">
-      <c r="A323" s="47"/>
-      <c r="B323" s="48"/>
-      <c r="C323" s="49"/>
-      <c r="D323" s="49"/>
-      <c r="E323" s="49"/>
+    <row r="323" ht="22.5" customHeight="1">
+      <c r="A323" s="28" t="s">
+        <v>978</v>
+      </c>
+      <c r="B323" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C323" s="29"/>
+      <c r="D323" s="29"/>
+      <c r="E323" s="29"/>
     </row>
     <row r="324">
       <c r="A324" s="47"/>
@@ -17611,6 +17618,13 @@
       <c r="C918" s="49"/>
       <c r="D918" s="49"/>
       <c r="E918" s="49"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="47"/>
+      <c r="B919" s="48"/>
+      <c r="C919" s="49"/>
+      <c r="D919" s="49"/>
+      <c r="E919" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -17663,24 +17677,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="50" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="51" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
@@ -17708,13 +17722,13 @@
     </row>
     <row r="3">
       <c r="A3" s="51" t="s">
+        <v>984</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>759</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>983</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>758</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>982</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
@@ -17742,275 +17756,275 @@
     </row>
     <row r="4">
       <c r="A4" s="53" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="53" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="53" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="53" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="53" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="53" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="53" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="53" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="53" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="53" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="53" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="53" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="53" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="53" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="53" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="53" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="53" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="53" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="53" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="53" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="53" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B24" s="53" t="s">
         <v>707</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="53" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C25" s="53" t="s">
         <v>1012</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="53" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="53" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B27" s="53" t="s">
         <v>708</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="54" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B28" s="55"/>
       <c r="C28" s="54" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
@@ -18038,11 +18052,11 @@
     </row>
     <row r="29">
       <c r="A29" s="57" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B29" s="58"/>
       <c r="C29" s="57" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
@@ -18070,11 +18084,11 @@
     </row>
     <row r="30">
       <c r="A30" s="57" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B30" s="58"/>
       <c r="C30" s="57" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D30" s="59"/>
       <c r="E30" s="59"/>
@@ -18102,11 +18116,11 @@
     </row>
     <row r="31">
       <c r="A31" s="57" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B31" s="58"/>
       <c r="C31" s="57" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="59"/>
@@ -18134,11 +18148,11 @@
     </row>
     <row r="32">
       <c r="A32" s="57" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B32" s="58"/>
       <c r="C32" s="57" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D32" s="59"/>
       <c r="E32" s="59"/>
@@ -18166,11 +18180,11 @@
     </row>
     <row r="33">
       <c r="A33" s="54" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B33" s="55"/>
       <c r="C33" s="54" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D33" s="56"/>
       <c r="E33" s="56"/>
@@ -18198,102 +18212,102 @@
     </row>
     <row r="34">
       <c r="A34" s="53" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="53" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="53" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="53" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="53" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="53" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B39" s="60"/>
       <c r="C39" s="53" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="53" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B40" s="60"/>
       <c r="C40" s="53" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="53" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B41" s="60"/>
       <c r="C41" s="53" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="53" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B42" s="60"/>
       <c r="C42" s="53" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="54" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B43" s="55"/>
       <c r="C43" s="54" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D43" s="56"/>
       <c r="E43" s="56"/>
@@ -18321,11 +18335,11 @@
     </row>
     <row r="44">
       <c r="A44" s="54" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B44" s="55"/>
       <c r="C44" s="54" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D44" s="56"/>
       <c r="E44" s="56"/>
@@ -18353,11 +18367,11 @@
     </row>
     <row r="45">
       <c r="A45" s="54" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B45" s="55"/>
       <c r="C45" s="54" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D45" s="56"/>
       <c r="E45" s="56"/>
@@ -18385,11 +18399,11 @@
     </row>
     <row r="46">
       <c r="A46" s="54" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B46" s="55"/>
       <c r="C46" s="54" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D46" s="56"/>
       <c r="E46" s="56"/>
@@ -18417,11 +18431,11 @@
     </row>
     <row r="47">
       <c r="A47" s="54" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B47" s="55"/>
       <c r="C47" s="54" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D47" s="56"/>
       <c r="E47" s="56"/>
@@ -18449,11 +18463,11 @@
     </row>
     <row r="48">
       <c r="A48" s="54" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B48" s="55"/>
       <c r="C48" s="54" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D48" s="56"/>
       <c r="E48" s="56"/>
@@ -18481,11 +18495,11 @@
     </row>
     <row r="49">
       <c r="A49" s="54" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B49" s="55"/>
       <c r="C49" s="54" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D49" s="56"/>
       <c r="E49" s="56"/>
@@ -18540,12 +18554,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D1" s="63"/>
       <c r="E1" s="64"/>
       <c r="F1" s="62" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G1" s="63"/>
       <c r="H1" s="64"/>
@@ -18554,22 +18568,22 @@
       <c r="A2" s="65"/>
       <c r="B2" s="65"/>
       <c r="C2" s="66" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D2" s="66" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F2" s="66" t="s">
         <v>1036</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="G2" s="66" t="s">
         <v>1037</v>
       </c>
-      <c r="F2" s="66" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>1036</v>
-      </c>
       <c r="H2" s="66" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3">
@@ -18755,7 +18769,7 @@
     </row>
     <row r="12">
       <c r="A12" s="67" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B12" s="67" t="s">
         <v>37</v>
@@ -18776,7 +18790,7 @@
     </row>
     <row r="13">
       <c r="A13" s="67" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B13" s="67" t="s">
         <v>39</v>
@@ -18797,7 +18811,7 @@
     </row>
     <row r="14">
       <c r="A14" s="67" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B14" s="67" t="s">
         <v>41</v>
@@ -18894,7 +18908,7 @@
     </row>
     <row r="19">
       <c r="A19" s="67" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B19" s="67" t="s">
         <v>47</v>
@@ -18911,7 +18925,7 @@
     </row>
     <row r="20">
       <c r="A20" s="67" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>153</v>
@@ -18962,7 +18976,7 @@
     </row>
     <row r="23">
       <c r="A23" s="67" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B23" s="67" t="s">
         <v>67</v>
@@ -18979,7 +18993,7 @@
     </row>
     <row r="24">
       <c r="A24" s="67" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B24" s="67" t="s">
         <v>69</v>
@@ -18996,7 +19010,7 @@
     </row>
     <row r="25">
       <c r="A25" s="67" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B25" s="67" t="s">
         <v>71</v>
@@ -19013,7 +19027,7 @@
     </row>
     <row r="26">
       <c r="A26" s="67" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>73</v>
@@ -19030,7 +19044,7 @@
     </row>
     <row r="27">
       <c r="A27" s="67" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B27" s="67" t="s">
         <v>75</v>
@@ -19047,7 +19061,7 @@
     </row>
     <row r="28">
       <c r="A28" s="67" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B28" s="67" t="s">
         <v>77</v>
@@ -19515,7 +19529,7 @@
     </row>
     <row r="52">
       <c r="A52" s="67" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B52" s="67" t="s">
         <v>149</v>
@@ -19532,7 +19546,7 @@
     </row>
     <row r="53">
       <c r="A53" s="67" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B53" s="67" t="s">
         <v>151</v>
@@ -19706,10 +19720,10 @@
     </row>
     <row r="63">
       <c r="A63" s="67" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C63" s="69"/>
       <c r="D63" s="69"/>
@@ -21438,7 +21452,7 @@
     </row>
     <row r="163">
       <c r="A163" s="67" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B163" s="67" t="s">
         <v>535</v>
@@ -21458,7 +21472,7 @@
         <v>604</v>
       </c>
       <c r="B164" s="67" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C164" s="69"/>
       <c r="D164" s="69"/>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="1058">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -1975,7 +1975,7 @@
     <t>price_distr</t>
   </si>
   <si>
-    <t>ACTUALIZAR</t>
+    <t>ACTUALIZADO</t>
   </si>
   <si>
     <t>CAMBIAR REFERENCIA</t>
@@ -2966,6 +2966,30 @@
   </si>
   <si>
     <t>BY-FBT05GC</t>
+  </si>
+  <si>
+    <t>BY-FBSUP06BS</t>
+  </si>
+  <si>
+    <t>BY-FBSUP06B</t>
+  </si>
+  <si>
+    <t>BY-FBSUP06GNS</t>
+  </si>
+  <si>
+    <t>BY-FBSUP06GN</t>
+  </si>
+  <si>
+    <t>BY-FBSUP06PS</t>
+  </si>
+  <si>
+    <t>BY-FBSUP06P</t>
+  </si>
+  <si>
+    <t>BY-FBSUP06GS</t>
+  </si>
+  <si>
+    <t>BY-FBSUP06G</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -3718,7 +3742,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E328" displayName="Tabla_1" name="Tabla_1" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E336" displayName="Tabla_1" name="Tabla_1" id="2">
   <tableColumns count="5">
     <tableColumn name="old_sku" id="1"/>
     <tableColumn name="new_sku" id="2"/>
@@ -13539,63 +13563,76 @@
       <c r="D328" s="48"/>
       <c r="E328" s="48"/>
     </row>
-    <row r="329">
-      <c r="A329" s="50"/>
-      <c r="B329" s="51"/>
-      <c r="C329" s="52"/>
-      <c r="D329" s="52"/>
-      <c r="E329" s="52"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="50"/>
-      <c r="B330" s="51"/>
-      <c r="C330" s="53" t="s">
+    <row r="329" ht="22.5" customHeight="1">
+      <c r="A329" s="47" t="s">
         <v>984</v>
       </c>
-      <c r="D330" s="52"/>
-      <c r="E330" s="52"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="50"/>
-      <c r="B331" s="51"/>
-      <c r="C331" s="52"/>
-      <c r="D331" s="52"/>
-      <c r="E331" s="52"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="50"/>
-      <c r="B332" s="51"/>
-      <c r="C332" s="52"/>
-      <c r="D332" s="52"/>
-      <c r="E332" s="52"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="50"/>
-      <c r="B333" s="51"/>
-      <c r="C333" s="52"/>
-      <c r="D333" s="52"/>
-      <c r="E333" s="52"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="50"/>
-      <c r="B334" s="51"/>
-      <c r="C334" s="52"/>
-      <c r="D334" s="52"/>
-      <c r="E334" s="52"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="50"/>
-      <c r="B335" s="51"/>
-      <c r="C335" s="52"/>
-      <c r="D335" s="52"/>
-      <c r="E335" s="52"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="50"/>
-      <c r="B336" s="51"/>
-      <c r="C336" s="52"/>
-      <c r="D336" s="52"/>
-      <c r="E336" s="52"/>
+      <c r="B329" s="47" t="s">
+        <v>985</v>
+      </c>
+      <c r="C329" s="49"/>
+      <c r="D329" s="48"/>
+      <c r="E329" s="48"/>
+    </row>
+    <row r="330" ht="22.5" customHeight="1">
+      <c r="A330" s="47" t="s">
+        <v>986</v>
+      </c>
+      <c r="B330" s="47" t="s">
+        <v>987</v>
+      </c>
+      <c r="C330" s="49"/>
+      <c r="D330" s="48"/>
+      <c r="E330" s="48"/>
+    </row>
+    <row r="331" ht="22.5" customHeight="1">
+      <c r="A331" s="47" t="s">
+        <v>988</v>
+      </c>
+      <c r="B331" s="47" t="s">
+        <v>989</v>
+      </c>
+      <c r="C331" s="49"/>
+      <c r="D331" s="48"/>
+      <c r="E331" s="48"/>
+    </row>
+    <row r="332" ht="22.5" customHeight="1">
+      <c r="A332" s="47" t="s">
+        <v>990</v>
+      </c>
+      <c r="B332" s="47" t="s">
+        <v>991</v>
+      </c>
+      <c r="C332" s="49"/>
+      <c r="D332" s="48"/>
+      <c r="E332" s="48"/>
+    </row>
+    <row r="333" ht="22.5" customHeight="1">
+      <c r="B333" s="47"/>
+      <c r="C333" s="49"/>
+      <c r="D333" s="48"/>
+      <c r="E333" s="48"/>
+    </row>
+    <row r="334" ht="22.5" customHeight="1">
+      <c r="A334" s="47"/>
+      <c r="B334" s="47"/>
+      <c r="C334" s="49"/>
+      <c r="D334" s="48"/>
+      <c r="E334" s="48"/>
+    </row>
+    <row r="335" ht="22.5" customHeight="1">
+      <c r="A335" s="47"/>
+      <c r="B335" s="47"/>
+      <c r="C335" s="49"/>
+      <c r="D335" s="48"/>
+      <c r="E335" s="48"/>
+    </row>
+    <row r="336" ht="22.5" customHeight="1">
+      <c r="A336" s="47"/>
+      <c r="B336" s="47"/>
+      <c r="C336" s="49"/>
+      <c r="D336" s="48"/>
+      <c r="E336" s="48"/>
     </row>
     <row r="337">
       <c r="A337" s="50"/>
@@ -13607,7 +13644,9 @@
     <row r="338">
       <c r="A338" s="50"/>
       <c r="B338" s="51"/>
-      <c r="C338" s="52"/>
+      <c r="C338" s="53" t="s">
+        <v>992</v>
+      </c>
       <c r="D338" s="52"/>
       <c r="E338" s="52"/>
     </row>
@@ -17677,6 +17716,62 @@
       <c r="C919" s="52"/>
       <c r="D919" s="52"/>
       <c r="E919" s="52"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="50"/>
+      <c r="B920" s="51"/>
+      <c r="C920" s="52"/>
+      <c r="D920" s="52"/>
+      <c r="E920" s="52"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="50"/>
+      <c r="B921" s="51"/>
+      <c r="C921" s="52"/>
+      <c r="D921" s="52"/>
+      <c r="E921" s="52"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="50"/>
+      <c r="B922" s="51"/>
+      <c r="C922" s="52"/>
+      <c r="D922" s="52"/>
+      <c r="E922" s="52"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="50"/>
+      <c r="B923" s="51"/>
+      <c r="C923" s="52"/>
+      <c r="D923" s="52"/>
+      <c r="E923" s="52"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="50"/>
+      <c r="B924" s="51"/>
+      <c r="C924" s="52"/>
+      <c r="D924" s="52"/>
+      <c r="E924" s="52"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="50"/>
+      <c r="B925" s="51"/>
+      <c r="C925" s="52"/>
+      <c r="D925" s="52"/>
+      <c r="E925" s="52"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="50"/>
+      <c r="B926" s="51"/>
+      <c r="C926" s="52"/>
+      <c r="D926" s="52"/>
+      <c r="E926" s="52"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="50"/>
+      <c r="B927" s="51"/>
+      <c r="C927" s="52"/>
+      <c r="D927" s="52"/>
+      <c r="E927" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -17729,24 +17824,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="54" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="55" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="B2" s="55" t="s">
         <v>763</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
@@ -17774,13 +17869,13 @@
     </row>
     <row r="3">
       <c r="A3" s="55" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>759</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="D3" s="56"/>
       <c r="E3" s="56"/>
@@ -17808,275 +17903,275 @@
     </row>
     <row r="4">
       <c r="A4" s="57" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="B4" s="57" t="s">
         <v>738</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="57" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="B5" s="57" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="57" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="B6" s="57" t="s">
         <v>741</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="57" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="B7" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="57" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="B8" s="57" t="s">
         <v>767</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="57" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="B9" s="57" t="s">
         <v>773</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="57" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="B10" s="57" t="s">
         <v>771</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="57" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="B11" s="57" t="s">
         <v>768</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="57" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="B12" s="57" t="s">
         <v>775</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="57" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="B13" s="57" t="s">
         <v>778</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="57" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="B14" s="57" t="s">
         <v>785</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="57" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="B15" s="57" t="s">
         <v>782</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="57" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="B16" s="57" t="s">
         <v>792</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="57" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="B17" s="57" t="s">
         <v>795</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="57" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="B18" s="57" t="s">
         <v>789</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="57" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="B19" s="57" t="s">
         <v>791</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="57" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="B20" s="57" t="s">
         <v>793</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="57" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="B21" s="57" t="s">
         <v>790</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="57" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="B22" s="57" t="s">
         <v>794</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="57" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="57" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="B24" s="57" t="s">
         <v>707</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="57" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="57" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="57" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
       <c r="B27" s="57" t="s">
         <v>708</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="58" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="B28" s="59"/>
       <c r="C28" s="58" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
@@ -18104,11 +18199,11 @@
     </row>
     <row r="29">
       <c r="A29" s="61" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="B29" s="62"/>
       <c r="C29" s="61" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="D29" s="63"/>
       <c r="E29" s="63"/>
@@ -18136,11 +18231,11 @@
     </row>
     <row r="30">
       <c r="A30" s="61" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="B30" s="62"/>
       <c r="C30" s="61" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="D30" s="63"/>
       <c r="E30" s="63"/>
@@ -18168,11 +18263,11 @@
     </row>
     <row r="31">
       <c r="A31" s="61" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="B31" s="62"/>
       <c r="C31" s="61" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="D31" s="63"/>
       <c r="E31" s="63"/>
@@ -18200,11 +18295,11 @@
     </row>
     <row r="32">
       <c r="A32" s="61" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="B32" s="62"/>
       <c r="C32" s="61" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="D32" s="63"/>
       <c r="E32" s="63"/>
@@ -18232,11 +18327,11 @@
     </row>
     <row r="33">
       <c r="A33" s="58" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="B33" s="59"/>
       <c r="C33" s="58" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
@@ -18264,102 +18359,102 @@
     </row>
     <row r="34">
       <c r="A34" s="57" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="B34" s="57" t="s">
         <v>812</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="57" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="B35" s="57" t="s">
         <v>814</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="57" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="B36" s="57" t="s">
         <v>816</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="57" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="B37" s="57" t="s">
         <v>815</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="57" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="B38" s="57" t="s">
         <v>813</v>
       </c>
       <c r="C38" s="57" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="57" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="B39" s="64"/>
       <c r="C39" s="57" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="57" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="57" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="57" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="B41" s="64"/>
       <c r="C41" s="57" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="57" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="B42" s="64"/>
       <c r="C42" s="57" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="58" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="B43" s="59"/>
       <c r="C43" s="58" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
@@ -18387,11 +18482,11 @@
     </row>
     <row r="44">
       <c r="A44" s="58" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="B44" s="59"/>
       <c r="C44" s="58" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
@@ -18419,11 +18514,11 @@
     </row>
     <row r="45">
       <c r="A45" s="58" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="B45" s="59"/>
       <c r="C45" s="58" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
@@ -18451,11 +18546,11 @@
     </row>
     <row r="46">
       <c r="A46" s="58" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="B46" s="59"/>
       <c r="C46" s="58" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
@@ -18483,11 +18578,11 @@
     </row>
     <row r="47">
       <c r="A47" s="58" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="B47" s="59"/>
       <c r="C47" s="58" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="D47" s="60"/>
       <c r="E47" s="60"/>
@@ -18515,11 +18610,11 @@
     </row>
     <row r="48">
       <c r="A48" s="58" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="B48" s="59"/>
       <c r="C48" s="58" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
@@ -18547,11 +18642,11 @@
     </row>
     <row r="49">
       <c r="A49" s="58" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="B49" s="59"/>
       <c r="C49" s="58" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
@@ -18606,12 +18701,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="D1" s="67"/>
       <c r="E1" s="68"/>
       <c r="F1" s="66" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="G1" s="67"/>
       <c r="H1" s="68"/>
@@ -18620,22 +18715,22 @@
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="70" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="G2" s="70" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="3">
@@ -18842,7 +18937,7 @@
     </row>
     <row r="13">
       <c r="A13" s="71" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="B13" s="71" t="s">
         <v>39</v>
@@ -18863,7 +18958,7 @@
     </row>
     <row r="14">
       <c r="A14" s="71" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="B14" s="71" t="s">
         <v>41</v>
@@ -19775,7 +19870,7 @@
         <v>786</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="C63" s="73"/>
       <c r="D63" s="73"/>
@@ -21504,7 +21599,7 @@
     </row>
     <row r="163">
       <c r="A163" s="71" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="B163" s="71" t="s">
         <v>535</v>
@@ -21524,7 +21619,7 @@
         <v>604</v>
       </c>
       <c r="B164" s="71" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="C164" s="73"/>
       <c r="D164" s="73"/>
